--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FF793-6E10-4379-BD26-28D9B15DECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E356DF6F-22B3-4360-9811-361BD164198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
   </bookViews>
   <sheets>
     <sheet name="toc" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="가계부" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,15 +300,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>node, css완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있으면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아예 없으면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 기준 15개를 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defMaxMin을 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이 값을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 배열의 수가 부족하면? Max에 15개 길이 미만 분만큼 1시간 단위로 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간단위로 time을 조정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복을 제거한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 원소를 제거한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store를 활용해서 다 옮겨야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 상속/속성  , 단위 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Float, position, display, box-model, grid, flex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 반응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노션, css완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +597,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,19 +1027,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F662DC-0EEC-4621-A515-BF47FBB7871B}">
-  <dimension ref="A1:AG134"/>
+  <dimension ref="A1:AG137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="28" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="33" width="9.59765625" style="6" customWidth="1"/>
@@ -986,123 +1052,123 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="6">
-        <f t="shared" ref="D1:AG1" si="0">COUNTA(D3:D132)</f>
+        <f>COUNTA(D3:D135)</f>
         <v>4</v>
       </c>
       <c r="E1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(E3:E135)</f>
         <v>3</v>
       </c>
       <c r="F1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(F3:F135)</f>
         <v>8</v>
       </c>
       <c r="G1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(G3:G135)</f>
         <v>6</v>
       </c>
       <c r="H1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(H3:H135)</f>
         <v>0</v>
       </c>
       <c r="I1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(I3:I135)</f>
         <v>0</v>
       </c>
       <c r="J1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(J3:J135)</f>
         <v>0</v>
       </c>
       <c r="K1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(K3:K135)</f>
         <v>0</v>
       </c>
       <c r="L1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(L3:L135)</f>
         <v>0</v>
       </c>
       <c r="M1" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNTA(M3:M135)</f>
+        <v>6</v>
       </c>
       <c r="N1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(N3:N135)</f>
+        <v>2</v>
+      </c>
+      <c r="O1" s="6">
+        <f>COUNTA(O3:O135)</f>
+        <v>3</v>
+      </c>
+      <c r="P1" s="6">
+        <f>COUNTA(P3:P135)</f>
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6">
+        <f>COUNTA(Q3:Q135)</f>
         <v>4</v>
       </c>
-      <c r="O1" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P1" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q1" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="R1" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>COUNTA(R3:R135)</f>
+        <v>4</v>
       </c>
       <c r="S1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(S3:S135)</f>
+        <v>2</v>
+      </c>
+      <c r="T1" s="6">
+        <f>COUNTA(T3:T135)</f>
+        <v>2</v>
+      </c>
+      <c r="U1" s="6">
+        <f>COUNTA(U3:U135)</f>
         <v>1</v>
       </c>
-      <c r="T1" s="6">
-        <f t="shared" si="0"/>
+      <c r="V1" s="6">
+        <f>COUNTA(V3:V135)</f>
+        <v>2</v>
+      </c>
+      <c r="W1" s="6">
+        <f>COUNTA(W3:W135)</f>
         <v>1</v>
       </c>
-      <c r="U1" s="6">
-        <f t="shared" si="0"/>
+      <c r="X1" s="6">
+        <f>COUNTA(X3:X135)</f>
         <v>1</v>
       </c>
-      <c r="V1" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W1" s="6">
-        <f t="shared" si="0"/>
+      <c r="Y1" s="6">
+        <f>COUNTA(Y3:Y135)</f>
         <v>1</v>
       </c>
-      <c r="X1" s="6">
-        <f t="shared" si="0"/>
+      <c r="Z1" s="6">
+        <f>COUNTA(Z3:Z135)</f>
         <v>1</v>
       </c>
-      <c r="Y1" s="6">
-        <f t="shared" si="0"/>
+      <c r="AA1" s="6">
+        <f>COUNTA(AA3:AA135)</f>
         <v>1</v>
       </c>
-      <c r="Z1" s="6">
-        <f t="shared" si="0"/>
+      <c r="AB1" s="6">
+        <f>COUNTA(AB3:AB135)</f>
         <v>1</v>
       </c>
-      <c r="AA1" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB1" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="AC1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(AC3:AC135)</f>
         <v>0</v>
       </c>
       <c r="AD1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(AD3:AD135)</f>
         <v>0</v>
       </c>
       <c r="AE1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(AE3:AE135)</f>
         <v>0</v>
       </c>
       <c r="AF1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(AF3:AF135)</f>
         <v>0</v>
       </c>
       <c r="AG1" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTA(AG3:AG135)</f>
         <v>1</v>
       </c>
     </row>
@@ -1116,127 +1182,127 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="22">
         <v>44565</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="22">
         <f>D2+1</f>
         <v>44566</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:AC2" si="1">E2+1</f>
+      <c r="F2" s="22">
+        <f t="shared" ref="F2:AC2" si="0">E2+1</f>
         <v>44567</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" si="1"/>
+      <c r="G2" s="22">
+        <f t="shared" si="0"/>
         <v>44568</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" si="1"/>
+      <c r="H2" s="22">
+        <f t="shared" si="0"/>
         <v>44569</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" si="1"/>
+      <c r="I2" s="22">
+        <f t="shared" si="0"/>
         <v>44570</v>
       </c>
-      <c r="J2" s="5">
-        <f t="shared" si="1"/>
+      <c r="J2" s="22">
+        <f t="shared" si="0"/>
         <v>44571</v>
       </c>
-      <c r="K2" s="5">
-        <f t="shared" si="1"/>
+      <c r="K2" s="22">
+        <f t="shared" si="0"/>
         <v>44572</v>
       </c>
-      <c r="L2" s="5">
-        <f t="shared" si="1"/>
+      <c r="L2" s="22">
+        <f t="shared" si="0"/>
         <v>44573</v>
       </c>
-      <c r="M2" s="5">
-        <f t="shared" si="1"/>
+      <c r="M2" s="22">
+        <f t="shared" si="0"/>
         <v>44574</v>
       </c>
-      <c r="N2" s="5">
-        <f t="shared" si="1"/>
+      <c r="N2" s="22">
+        <f t="shared" si="0"/>
         <v>44575</v>
       </c>
-      <c r="O2" s="5">
-        <f t="shared" si="1"/>
+      <c r="O2" s="22">
+        <f t="shared" si="0"/>
         <v>44576</v>
       </c>
-      <c r="P2" s="5">
-        <f t="shared" si="1"/>
+      <c r="P2" s="22">
+        <f t="shared" si="0"/>
         <v>44577</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44578</v>
       </c>
       <c r="R2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44579</v>
       </c>
       <c r="S2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44580</v>
       </c>
       <c r="T2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44581</v>
       </c>
       <c r="U2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44582</v>
       </c>
       <c r="V2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44583</v>
       </c>
       <c r="W2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44584</v>
       </c>
       <c r="X2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44585</v>
       </c>
       <c r="Y2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44586</v>
       </c>
       <c r="Z2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44587</v>
       </c>
       <c r="AA2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44588</v>
       </c>
       <c r="AB2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44589</v>
       </c>
       <c r="AC2" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44590</v>
       </c>
       <c r="AD2" s="5">
-        <f t="shared" ref="AD2:AF2" si="2">AC2+1</f>
+        <f>AC2+1</f>
         <v>44591</v>
       </c>
       <c r="AE2" s="5">
-        <f t="shared" si="2"/>
+        <f>AD2+1</f>
         <v>44592</v>
       </c>
       <c r="AF2" s="5">
-        <f t="shared" si="2"/>
+        <f>AE2+1</f>
         <v>44593</v>
       </c>
       <c r="AG2" s="5">
-        <f t="shared" ref="AG2" si="3">AF2+1</f>
+        <f>AF2+1</f>
         <v>44594</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1281,7 +1347,7 @@
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <f>A3+1</f>
         <v>2</v>
@@ -1325,9 +1391,9 @@
       <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
-        <f t="shared" ref="A5:A42" si="4">A4+1</f>
+        <f t="shared" ref="A5:A45" si="1">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1369,9 +1435,9 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="17"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1415,9 +1481,9 @@
       <c r="AF6" s="17"/>
       <c r="AG6" s="17"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
-        <f t="shared" ref="A7:A9" si="5">A6+1</f>
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1461,9 +1527,9 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
-        <f t="shared" si="5"/>
+        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1507,9 +1573,9 @@
       <c r="AF8" s="17"/>
       <c r="AG8" s="17"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
-        <f t="shared" si="5"/>
+        <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1553,9 +1619,9 @@
       <c r="AF9" s="17"/>
       <c r="AG9" s="17"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
-        <f t="shared" ref="A10:A11" si="6">A9+1</f>
+        <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1597,9 +1663,9 @@
       <c r="AF10" s="17"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
-        <f t="shared" si="6"/>
+        <f>A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1641,9 +1707,9 @@
       <c r="AF11" s="17"/>
       <c r="AG11" s="17"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1687,7 +1753,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1731,7 +1797,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1775,7 +1841,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1821,7 +1887,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1867,7 +1933,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1911,7 +1977,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1932,7 +1998,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -1957,7 +2023,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -2001,14 +2067,14 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2019,15 +2085,13 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -2047,14 +2111,14 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>A19+1</f>
+        <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -2068,16 +2132,14 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="P21" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="Q21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
@@ -2095,14 +2157,14 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -2117,18 +2179,18 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17" t="s">
+      <c r="Q22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="R22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="17" t="s">
+      <c r="S22" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
@@ -2143,14 +2205,14 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2168,18 +2230,18 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17" t="s">
+      <c r="T23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="U23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="17" t="s">
+      <c r="V23" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
@@ -2191,14 +2253,14 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2219,18 +2281,18 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17" t="s">
+      <c r="W24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AA24" s="17" t="s">
+      <c r="X24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AB24" s="17" t="s">
+      <c r="Y24" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
@@ -2239,14 +2301,14 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -2259,12 +2321,8 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
@@ -2274,9 +2332,15 @@
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
+      <c r="Z25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
@@ -2285,14 +2349,14 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2305,12 +2369,14 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="O26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="Q26" s="17"/>
-      <c r="R26" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -2329,14 +2395,14 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2348,16 +2414,10 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q27" s="17"/>
       <c r="R27" s="17" t="s">
         <v>35</v>
       </c>
@@ -2379,14 +2439,14 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -2397,18 +2457,22 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="Q28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
@@ -2425,14 +2489,14 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -2445,9 +2509,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="O29" s="17"/>
       <c r="P29" s="17" t="s">
         <v>35</v>
       </c>
@@ -2471,14 +2533,14 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -2490,12 +2552,12 @@
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -2515,14 +2577,14 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -2535,14 +2597,12 @@
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
@@ -2561,13 +2621,15 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -2577,13 +2639,13 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="M32" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="N32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
@@ -2605,14 +2667,14 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -2623,11 +2685,13 @@
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
-      <c r="M33" s="19"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="19" t="s">
-        <v>41</v>
+      <c r="O33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
@@ -2649,13 +2713,15 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -2666,7 +2732,9 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="N34" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -2689,13 +2757,15 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -2707,8 +2777,12 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
+      <c r="O35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
@@ -2729,13 +2803,15 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -2745,10 +2821,12 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
+      <c r="P36" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
@@ -2769,15 +2847,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -2796,9 +2872,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
-      <c r="V37" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="V37" s="17"/>
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
       <c r="Y37" s="17"/>
@@ -2813,11 +2887,11 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="17"/>
@@ -2853,11 +2927,11 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="17"/>
@@ -2893,13 +2967,15 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -2918,7 +2994,9 @@
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
+      <c r="V40" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
@@ -2933,8 +3011,8 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
@@ -2973,15 +3051,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -3011,13 +3087,16 @@
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
       <c r="AF42" s="17"/>
-      <c r="AG42" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="AG42" s="17"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C43" s="12"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -3051,8 +3130,13 @@
       <c r="AG43" s="17"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="9">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="12"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -3086,9 +3170,16 @@
       <c r="AG44" s="17"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -3118,7 +3209,9 @@
       <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
       <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
+      <c r="AG45" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="9"/>
@@ -5571,113 +5664,113 @@
       <c r="AG115" s="17"/>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
-      <c r="Y116" s="18"/>
-      <c r="Z116" s="18"/>
-      <c r="AA116" s="18"/>
-      <c r="AB116" s="18"/>
-      <c r="AC116" s="18"/>
-      <c r="AD116" s="18"/>
-      <c r="AE116" s="18"/>
-      <c r="AF116" s="18"/>
-      <c r="AG116" s="18"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A117" s="14"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
-      <c r="Y117" s="18"/>
-      <c r="Z117" s="18"/>
-      <c r="AA117" s="18"/>
-      <c r="AB117" s="18"/>
-      <c r="AC117" s="18"/>
-      <c r="AD117" s="18"/>
-      <c r="AE117" s="18"/>
-      <c r="AF117" s="18"/>
-      <c r="AG117" s="18"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="17"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="17"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="17"/>
+      <c r="AD117" s="17"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A118" s="14"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
-      <c r="Z118" s="18"/>
-      <c r="AA118" s="18"/>
-      <c r="AB118" s="18"/>
-      <c r="AC118" s="18"/>
-      <c r="AD118" s="18"/>
-      <c r="AE118" s="18"/>
-      <c r="AF118" s="18"/>
-      <c r="AG118" s="18"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
+      <c r="V118" s="17"/>
+      <c r="W118" s="17"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="17"/>
+      <c r="AB118" s="17"/>
+      <c r="AC118" s="17"/>
+      <c r="AD118" s="17"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="17"/>
+      <c r="AG118" s="17"/>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
-      <c r="B119" s="7"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="15"/>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
@@ -6235,12 +6328,117 @@
       <c r="AF134" s="18"/>
       <c r="AG134" s="18"/>
     </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A135" s="14"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
+      <c r="Q135" s="18"/>
+      <c r="R135" s="18"/>
+      <c r="S135" s="18"/>
+      <c r="T135" s="18"/>
+      <c r="U135" s="18"/>
+      <c r="V135" s="18"/>
+      <c r="W135" s="18"/>
+      <c r="X135" s="18"/>
+      <c r="Y135" s="18"/>
+      <c r="Z135" s="18"/>
+      <c r="AA135" s="18"/>
+      <c r="AB135" s="18"/>
+      <c r="AC135" s="18"/>
+      <c r="AD135" s="18"/>
+      <c r="AE135" s="18"/>
+      <c r="AF135" s="18"/>
+      <c r="AG135" s="18"/>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A136" s="14"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="18"/>
+      <c r="T136" s="18"/>
+      <c r="U136" s="18"/>
+      <c r="V136" s="18"/>
+      <c r="W136" s="18"/>
+      <c r="X136" s="18"/>
+      <c r="Y136" s="18"/>
+      <c r="Z136" s="18"/>
+      <c r="AA136" s="18"/>
+      <c r="AB136" s="18"/>
+      <c r="AC136" s="18"/>
+      <c r="AD136" s="18"/>
+      <c r="AE136" s="18"/>
+      <c r="AF136" s="18"/>
+      <c r="AG136" s="18"/>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A137" s="14"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
+      <c r="Q137" s="18"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="18"/>
+      <c r="T137" s="18"/>
+      <c r="U137" s="18"/>
+      <c r="V137" s="18"/>
+      <c r="W137" s="18"/>
+      <c r="X137" s="18"/>
+      <c r="Y137" s="18"/>
+      <c r="Z137" s="18"/>
+      <c r="AA137" s="18"/>
+      <c r="AB137" s="18"/>
+      <c r="AC137" s="18"/>
+      <c r="AD137" s="18"/>
+      <c r="AE137" s="18"/>
+      <c r="AF137" s="18"/>
+      <c r="AG137" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AG134">
+  <conditionalFormatting sqref="D3:AG137">
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="ㅁ">
       <formula>NOT(ISERROR(SEARCH("ㅁ",D3)))</formula>
     </cfRule>
@@ -6260,10 +6458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7FF974-4772-4DE3-B63A-6A32AA386190}">
-  <dimension ref="D3:I25"/>
+  <dimension ref="D3:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6327,13 +6525,13 @@
         <v>0.6</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I9" si="0">"rgba("&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;")"</f>
+        <f>"rgba("&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;")"</f>
         <v>rgba(136,218,82,0.6)</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="1">D7+1</f>
+        <f>D7+1</f>
         <v>3</v>
       </c>
       <c r="E8" s="2">
@@ -6349,13 +6547,13 @@
         <v>0.4</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f>"rgba("&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;")"</f>
         <v>rgba(211,240,51,0.4)</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f>D8+1</f>
         <v>4</v>
       </c>
       <c r="E9" s="2">
@@ -6371,7 +6569,7 @@
         <v>0.4</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f>"rgba("&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;")"</f>
         <v>rgba(236,234,132,0.4)</v>
       </c>
     </row>
@@ -6440,13 +6638,13 @@
         <v>0.6</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ref="I16:I18" si="2">"rgba("&amp;E16&amp;","&amp;F16&amp;","&amp;G16&amp;","&amp;H16&amp;")"</f>
+        <f>"rgba("&amp;E16&amp;","&amp;F16&amp;","&amp;G16&amp;","&amp;H16&amp;")"</f>
         <v>rgba(255,0,0,0.6)</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D17" s="2">
-        <f t="shared" ref="D17:D18" si="3">D16+1</f>
+        <f>D16+1</f>
         <v>3</v>
       </c>
       <c r="E17" s="2">
@@ -6464,13 +6662,13 @@
         <v>0.4</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f>"rgba("&amp;E17&amp;","&amp;F17&amp;","&amp;G17&amp;","&amp;H17&amp;")"</f>
         <v>rgba(255,90,90,0.4)</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
+        <f>D17+1</f>
         <v>4</v>
       </c>
       <c r="E18" s="2">
@@ -6488,7 +6686,7 @@
         <v>0.4</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f>"rgba("&amp;E18&amp;","&amp;F18&amp;","&amp;G18&amp;","&amp;H18&amp;")"</f>
         <v>rgba(255,120,120,0.4)</v>
       </c>
     </row>
@@ -6539,15 +6737,15 @@
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <f>E22+40</f>
+        <f t="shared" ref="E23:G25" si="0">E22+40</f>
         <v>40</v>
       </c>
       <c r="F23" s="2">
-        <f>F22+40</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G23" s="2">
-        <f>G22+40</f>
+        <f t="shared" si="0"/>
         <v>295</v>
       </c>
       <c r="H23" s="1">
@@ -6555,65 +6753,111 @@
         <v>0.8</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23:I25" si="4">"rgba("&amp;E23&amp;","&amp;F23&amp;","&amp;G23&amp;","&amp;H23&amp;")"</f>
+        <f>"rgba("&amp;E23&amp;","&amp;F23&amp;","&amp;G23&amp;","&amp;H23&amp;")"</f>
         <v>rgba(40,40,295,0.8)</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="5">D23+1</f>
+        <f>D23+1</f>
         <v>3</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E25" si="6">E23+40</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ref="F24:F25" si="7">F23+40</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" ref="G24:G25" si="8">G23+40</f>
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:H25" si="9">H23-0.2</f>
+        <f>H23-0.2</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f>"rgba("&amp;E24&amp;","&amp;F24&amp;","&amp;G24&amp;","&amp;H24&amp;")"</f>
         <v>rgba(80,80,335,0.6)</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D25" s="2">
-        <f t="shared" si="5"/>
+        <f>D24+1</f>
         <v>4</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="9"/>
+        <f>H24-0.2</f>
         <v>0.40000000000000008</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f>"rgba("&amp;E25&amp;","&amp;F25&amp;","&amp;G25&amp;","&amp;H25&amp;")"</f>
         <v>rgba(120,120,375,0.4)</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F40" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6744,11 +6988,11 @@
         <v>44618</v>
       </c>
       <c r="AC1" s="5">
-        <f t="shared" ref="AC1:AD1" si="1">AB1+1</f>
+        <f>AB1+1</f>
         <v>44619</v>
       </c>
       <c r="AD1" s="5">
-        <f t="shared" si="1"/>
+        <f>AC1+1</f>
         <v>44620</v>
       </c>
     </row>
@@ -6827,7 +7071,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A24" si="2">A3+1</f>
+        <f t="shared" ref="A4:A24" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -6864,7 +7108,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -6901,7 +7145,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -6938,7 +7182,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -6975,7 +7219,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
@@ -7010,7 +7254,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="12"/>
@@ -7045,7 +7289,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
@@ -7080,7 +7324,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
@@ -7115,7 +7359,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="13"/>
@@ -7150,7 +7394,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="13"/>
@@ -7185,7 +7429,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="13"/>
@@ -7220,7 +7464,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="12"/>
@@ -7255,7 +7499,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="13"/>
@@ -7290,7 +7534,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="12"/>
@@ -7325,7 +7569,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="12"/>
@@ -7360,7 +7604,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
@@ -7395,7 +7639,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="12"/>
@@ -7430,7 +7674,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="12"/>
@@ -7465,7 +7709,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="12"/>
@@ -7500,7 +7744,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="12"/>
@@ -7535,7 +7779,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="15"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE4437-DDC7-4E49-BCDE-769844C508BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAAC374-6471-4978-BAB9-5CD27AFC0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
   </bookViews>
   <sheets>
     <sheet name="toc" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId2"/>
-    <sheet name="날씨어플" sheetId="3" r:id="rId3"/>
-    <sheet name="가계부" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
+    <sheet name="날씨어플" sheetId="3" r:id="rId7"/>
+    <sheet name="가계부" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="194">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,30 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 슬라이드 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>markFinish를 따로만든다(status랑 삭선처리만)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,14 +245,6 @@
   </si>
   <si>
     <t>상위 레벨 색상커스텀에 따라, 하단 메뉴도 동일하게 적용을 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vuex 스터디, node에 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,15 +310,530 @@
 상황에 따라 유지보수 관점과 가독성 관점의 장단점을 비교해서 써야할 것 같다는 생각이 들었다. 그래도 어떤게 나은지 고민이 남았다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drivingexperience.kia.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://worldwide.kia.com/kr/company/ir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"현대자동차그룹"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"브랜드"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기아블로그 'PLAY Kia' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기아 드라이빙 아카데미"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"인재 채용"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"IR"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"동반성장"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지속가능경영"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"글로벌경영연구소"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기아 타이거즈"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기아군용"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Kia Connect"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name:"현대자동차그룹", href:"http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai"},{name:"브랜드", href:"http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide"},{name:"기아블로그 'PLAY Kia' ", href:"http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog"},{name:"기아 드라이빙 아카데미", href:"https://drivingexperience.kia.com"},{name:"인재 채용", href:"http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit"},{name:"IR", href:"https://worldwide.kia.com/kr/company/ir"},{name:"동반성장", href:"http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin"},{name:"지속가능경영", href:"https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works"},{name:"글로벌경영연구소", href:"http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic"},{name:"기아 타이거즈", href:"http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers"},{name:"기아군용", href:"http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military"},{name:"Kia Connect", href:"http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피니쉬를 넣으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복귀버튼을 누르면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1은 복귀를 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 n은 색깔이 살아난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식레벨은 마더넘버에 자식번호 찾기를 해서 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1은 finNo를 새로 생성하되</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피니쉬테이블은 기본값이 레벨 1만보기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 별로 +,- 가 제어 가능하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌상단에는 1,2,all버튼이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칫솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식료품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사러가마트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성카드a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니스톱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리카드b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일결제건 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일결제 계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,500원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사러가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈마트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이마트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관공서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스트코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘발류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vuex extends, slot 학습, 노션에 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계부기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절한 vuetify 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬보드 이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드관리 이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출관리 이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입관리 이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산조회 이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기예측 이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜,완료에 입력인풋 추가시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜,완료에 입력 버튼 추가시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운행 단축키로 추가시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toc 삭제하면 휴지통으로 보관시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 이후에 새로운거 만들면 번호 맞게 붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료하고 복귀시켰을때 자기자리 잘 찾아가게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기, 비동기 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏘렌토 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev6완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 메뉴 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체지향 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스, 클로져, 원시형, 참조형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 맵 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 화면 ~ 로그인 기능 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카니발 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>인스턴스가 그려지는 화면의 시작점 (특정 HTML 태그)</t>
+  </si>
+  <si>
+    <t>화면에 표시할 요소 (HTML, CSS 등)</t>
+  </si>
+  <si>
+    <t>뷰의 반응성(Reactivity)이 반영된 데이터 속성</t>
+  </si>
+  <si>
+    <t>외부에서 변수를 받는 거임.</t>
+  </si>
+  <si>
+    <t>화면의 동작과 이벤트 로직을 제어하는 메서드</t>
+  </si>
+  <si>
+    <t>data에 연계돼서 특정관계성에 의해 조작돼야할 또 다른 data가 필요할 때,</t>
+  </si>
+  <si>
+    <t>watchdata에서 정의한 속성이 변화했을 때 추가 동작을 수행할 수 있게 정의하는 속성. 데이터 변화 자체가 trigger가 되는 methods를 정의할 경우</t>
+  </si>
+  <si>
+    <t>뷰의 라이프 사이클과 관련된 속성</t>
+  </si>
+  <si>
+    <t>new VueRouter를 등록하는 속성</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +880,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +941,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3FAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -502,13 +1041,248 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,15 +1343,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -590,12 +1355,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -710,6 +1612,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAFBFF"/>
+      <color rgb="FFF3FAFF"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1018,30 +1927,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F662DC-0EEC-4621-A515-BF47FBB7871B}">
-  <dimension ref="A1:AG137"/>
+  <dimension ref="A1:AO137"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AB14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="28" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="9.58203125" style="5" customWidth="1"/>
+    <col min="4" max="27" width="9.625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="9.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="5">
         <f t="shared" ref="D1:AG1" si="0">COUNTA(D3:D135)</f>
         <v>4</v>
@@ -1140,30 +2050,30 @@
       </c>
       <c r="AB1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD1" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE1" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF1" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG1" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1236,27 +2146,27 @@
         <f t="shared" si="1"/>
         <v>44580</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="19">
         <f t="shared" si="1"/>
         <v>44581</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="19">
         <f t="shared" si="1"/>
         <v>44582</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="27">
         <f t="shared" si="1"/>
         <v>44583</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="27">
         <f t="shared" si="1"/>
         <v>44584</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="27">
         <f t="shared" si="1"/>
         <v>44585</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="27">
         <f t="shared" si="1"/>
         <v>44586</v>
       </c>
@@ -1293,7 +2203,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1338,7 +2248,7 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
     </row>
-    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
@@ -1382,9 +2292,9 @@
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
     </row>
-    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <f t="shared" ref="A5:A45" si="2">A4+1</f>
+        <f t="shared" ref="A5:A56" si="2">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1426,7 +2336,7 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
     </row>
-    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1472,7 +2382,7 @@
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
     </row>
-    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>A6+1</f>
         <v>5</v>
@@ -1481,7 +2391,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1518,7 +2428,7 @@
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
     </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>A7+1</f>
         <v>6</v>
@@ -1527,7 +2437,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1564,7 +2474,7 @@
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
     </row>
-    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>A8+1</f>
         <v>7</v>
@@ -1573,7 +2483,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1610,7 +2520,7 @@
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
     </row>
-    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>A9+1</f>
         <v>8</v>
@@ -1654,7 +2564,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
     </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>A10+1</f>
         <v>9</v>
@@ -1698,7 +2608,7 @@
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
     </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1742,7 +2652,7 @@
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1779,14 +2689,16 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1825,12 +2737,14 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
+      <c r="AD14" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="16"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1869,14 +2783,16 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1885,7 +2801,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1915,14 +2831,16 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
+      <c r="AB16" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="16"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1959,14 +2877,16 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="16"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2005,14 +2925,16 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
+      <c r="AB18" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2049,14 +2971,19 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
+      <c r="AB19" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
       <c r="AG19" s="16"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2065,7 +2992,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2093,14 +3020,19 @@
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
+      <c r="AB20" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
       <c r="AG20" s="16"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>A19+1</f>
         <v>18</v>
@@ -2143,10 +3075,15 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
+      <c r="AF21" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AG21" s="16"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2191,10 +3128,15 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
+      <c r="AF22" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AG22" s="16"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2239,10 +3181,15 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
+      <c r="AF23" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AG23" s="16"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2289,8 +3236,11 @@
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2329,16 +3279,19 @@
       <c r="AA25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB25" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
+      <c r="AF25" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AG25" s="16"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2380,11 +3333,16 @@
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
+      <c r="AE26" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2427,8 +3385,11 @@
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AN27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2478,321 +3439,338 @@
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
     </row>
-    <row r="29" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="20">
+    <row r="29" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20" t="s">
+      <c r="B29" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-    </row>
-    <row r="30" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="20">
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+    </row>
+    <row r="30" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="66">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20" t="s">
+      <c r="B30" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-    </row>
-    <row r="31" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="20">
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+    </row>
+    <row r="31" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="66">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20" t="s">
+      <c r="B31" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A32" s="8">
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AN31" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="66">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16" t="s">
+      <c r="B32" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
       <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
+      <c r="AC32" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
       <c r="AG32" s="16"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A33" s="8">
+    <row r="33" spans="1:41" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="66">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="18" t="s">
+      <c r="B33" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="16" t="s">
+      <c r="P33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
       <c r="AG33" s="16"/>
     </row>
-    <row r="34" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="20">
+    <row r="34" spans="1:41" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="66">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20" t="s">
+      <c r="C34" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A35" s="8">
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+    </row>
+    <row r="35" spans="1:41" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="66">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16" t="s">
+      <c r="C35" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="16" t="s">
+      <c r="P35" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2834,17 +3812,21 @@
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
       <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AG36" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -2869,22 +3851,26 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
+      <c r="AB37" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
       <c r="AF37" s="16"/>
       <c r="AG37" s="16"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -2909,22 +3895,26 @@
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
+      <c r="AB38" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="16"/>
       <c r="AG38" s="16"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -2949,23 +3939,28 @@
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
+      <c r="AB39" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
       <c r="AF39" s="16"/>
       <c r="AG39" s="16"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AO39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2996,19 +3991,26 @@
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
+      <c r="AE40" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AF40" s="16"/>
       <c r="AG40" s="16"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AO40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -3034,21 +4036,28 @@
       <c r="Z41" s="16"/>
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
+      <c r="AC41" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="16"/>
       <c r="AG41" s="16"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AO41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -3074,21 +4083,28 @@
       <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
+      <c r="AC42" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="16"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AO42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -3114,21 +4130,28 @@
       <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
+      <c r="AC43" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD43" s="16"/>
       <c r="AE43" s="16"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="16"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AO43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -3153,23 +4176,25 @@
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
+      <c r="AB44" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
       <c r="AF44" s="16"/>
       <c r="AG44" s="16"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -3195,19 +4220,26 @@
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
+      <c r="AB45" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
       <c r="AE45" s="16"/>
       <c r="AF45" s="16"/>
-      <c r="AG45" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="11"/>
+      <c r="AG45" s="16"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -3233,16 +4265,28 @@
       <c r="Z46" s="16"/>
       <c r="AA46" s="16"/>
       <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
+      <c r="AC46" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD46" s="16"/>
       <c r="AE46" s="16"/>
       <c r="AF46" s="16"/>
       <c r="AG46" s="16"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="11"/>
+      <c r="AO46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -3269,15 +4313,27 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
       <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
+      <c r="AD47" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AE47" s="16"/>
       <c r="AF47" s="16"/>
       <c r="AG47" s="16"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
+      <c r="AO47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -3303,16 +4359,28 @@
       <c r="Z48" s="16"/>
       <c r="AA48" s="16"/>
       <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
+      <c r="AC48" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD48" s="16"/>
       <c r="AE48" s="16"/>
       <c r="AF48" s="16"/>
       <c r="AG48" s="16"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="11"/>
+      <c r="AO48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -3338,16 +4406,28 @@
       <c r="Z49" s="16"/>
       <c r="AA49" s="16"/>
       <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
+      <c r="AC49" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AD49" s="16"/>
       <c r="AE49" s="16"/>
       <c r="AF49" s="16"/>
       <c r="AG49" s="16"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="11"/>
+      <c r="AO49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -3374,15 +4454,24 @@
       <c r="AA50" s="16"/>
       <c r="AB50" s="16"/>
       <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
+      <c r="AD50" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AE50" s="16"/>
       <c r="AF50" s="16"/>
       <c r="AG50" s="16"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="11"/>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -3410,14 +4499,23 @@
       <c r="AB51" s="16"/>
       <c r="AC51" s="16"/>
       <c r="AD51" s="16"/>
-      <c r="AE51" s="16"/>
+      <c r="AE51" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AF51" s="16"/>
       <c r="AG51" s="16"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -3444,15 +4542,24 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
       <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
+      <c r="AD52" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AE52" s="16"/>
       <c r="AF52" s="16"/>
       <c r="AG52" s="16"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -3479,15 +4586,24 @@
       <c r="AA53" s="16"/>
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
+      <c r="AD53" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AE53" s="16"/>
       <c r="AF53" s="16"/>
       <c r="AG53" s="16"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -3515,14 +4631,23 @@
       <c r="AB54" s="16"/>
       <c r="AC54" s="16"/>
       <c r="AD54" s="16"/>
-      <c r="AE54" s="16"/>
+      <c r="AE54" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AF54" s="16"/>
       <c r="AG54" s="16"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -3549,15 +4674,24 @@
       <c r="AA55" s="16"/>
       <c r="AB55" s="16"/>
       <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
+      <c r="AD55" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AE55" s="16"/>
       <c r="AF55" s="16"/>
       <c r="AG55" s="16"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="11"/>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
@@ -3585,14 +4719,22 @@
       <c r="AB56" s="16"/>
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
+      <c r="AE56" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AF56" s="16"/>
       <c r="AG56" s="16"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="11"/>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>54</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -3621,10 +4763,12 @@
       <c r="AC57" s="16"/>
       <c r="AD57" s="16"/>
       <c r="AE57" s="16"/>
-      <c r="AF57" s="16"/>
+      <c r="AF57" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AG57" s="16"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="11"/>
@@ -3659,7 +4803,7 @@
       <c r="AF58" s="16"/>
       <c r="AG58" s="16"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="11"/>
@@ -3694,7 +4838,7 @@
       <c r="AF59" s="16"/>
       <c r="AG59" s="16"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="11"/>
@@ -3729,7 +4873,7 @@
       <c r="AF60" s="16"/>
       <c r="AG60" s="16"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="11"/>
@@ -3764,7 +4908,7 @@
       <c r="AF61" s="16"/>
       <c r="AG61" s="16"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="11"/>
@@ -3799,7 +4943,7 @@
       <c r="AF62" s="16"/>
       <c r="AG62" s="16"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="11"/>
@@ -3834,7 +4978,7 @@
       <c r="AF63" s="16"/>
       <c r="AG63" s="16"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="11"/>
@@ -3869,7 +5013,7 @@
       <c r="AF64" s="16"/>
       <c r="AG64" s="16"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="11"/>
@@ -3904,7 +5048,7 @@
       <c r="AF65" s="16"/>
       <c r="AG65" s="16"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="11"/>
@@ -3939,7 +5083,7 @@
       <c r="AF66" s="16"/>
       <c r="AG66" s="16"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="11"/>
@@ -3974,7 +5118,7 @@
       <c r="AF67" s="16"/>
       <c r="AG67" s="16"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="11"/>
@@ -4009,7 +5153,7 @@
       <c r="AF68" s="16"/>
       <c r="AG68" s="16"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="11"/>
@@ -4044,7 +5188,7 @@
       <c r="AF69" s="16"/>
       <c r="AG69" s="16"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="11"/>
@@ -4079,7 +5223,7 @@
       <c r="AF70" s="16"/>
       <c r="AG70" s="16"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="11"/>
@@ -4114,7 +5258,7 @@
       <c r="AF71" s="16"/>
       <c r="AG71" s="16"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="11"/>
@@ -4149,7 +5293,7 @@
       <c r="AF72" s="16"/>
       <c r="AG72" s="16"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="11"/>
@@ -4184,7 +5328,7 @@
       <c r="AF73" s="16"/>
       <c r="AG73" s="16"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="11"/>
@@ -4219,7 +5363,7 @@
       <c r="AF74" s="16"/>
       <c r="AG74" s="16"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="11"/>
@@ -4254,7 +5398,7 @@
       <c r="AF75" s="16"/>
       <c r="AG75" s="16"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="11"/>
@@ -4289,7 +5433,7 @@
       <c r="AF76" s="16"/>
       <c r="AG76" s="16"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="11"/>
@@ -4324,7 +5468,7 @@
       <c r="AF77" s="16"/>
       <c r="AG77" s="16"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="11"/>
@@ -4359,7 +5503,7 @@
       <c r="AF78" s="16"/>
       <c r="AG78" s="16"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="11"/>
@@ -4394,7 +5538,7 @@
       <c r="AF79" s="16"/>
       <c r="AG79" s="16"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="11"/>
@@ -4429,7 +5573,7 @@
       <c r="AF80" s="16"/>
       <c r="AG80" s="16"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="11"/>
@@ -4464,7 +5608,7 @@
       <c r="AF81" s="16"/>
       <c r="AG81" s="16"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="11"/>
@@ -4499,7 +5643,7 @@
       <c r="AF82" s="16"/>
       <c r="AG82" s="16"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="11"/>
@@ -4534,7 +5678,7 @@
       <c r="AF83" s="16"/>
       <c r="AG83" s="16"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="11"/>
@@ -4569,7 +5713,7 @@
       <c r="AF84" s="16"/>
       <c r="AG84" s="16"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="11"/>
@@ -4604,7 +5748,7 @@
       <c r="AF85" s="16"/>
       <c r="AG85" s="16"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="11"/>
@@ -4639,7 +5783,7 @@
       <c r="AF86" s="16"/>
       <c r="AG86" s="16"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="11"/>
@@ -4674,7 +5818,7 @@
       <c r="AF87" s="16"/>
       <c r="AG87" s="16"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="11"/>
@@ -4709,7 +5853,7 @@
       <c r="AF88" s="16"/>
       <c r="AG88" s="16"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="11"/>
@@ -4744,7 +5888,7 @@
       <c r="AF89" s="16"/>
       <c r="AG89" s="16"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="11"/>
@@ -4779,7 +5923,7 @@
       <c r="AF90" s="16"/>
       <c r="AG90" s="16"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="11"/>
@@ -4814,7 +5958,7 @@
       <c r="AF91" s="16"/>
       <c r="AG91" s="16"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="11"/>
@@ -4849,7 +5993,7 @@
       <c r="AF92" s="16"/>
       <c r="AG92" s="16"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="11"/>
@@ -4884,7 +6028,7 @@
       <c r="AF93" s="16"/>
       <c r="AG93" s="16"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="11"/>
@@ -4919,7 +6063,7 @@
       <c r="AF94" s="16"/>
       <c r="AG94" s="16"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="11"/>
@@ -4954,7 +6098,7 @@
       <c r="AF95" s="16"/>
       <c r="AG95" s="16"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="11"/>
@@ -4989,7 +6133,7 @@
       <c r="AF96" s="16"/>
       <c r="AG96" s="16"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="11"/>
@@ -5024,7 +6168,7 @@
       <c r="AF97" s="16"/>
       <c r="AG97" s="16"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="11"/>
@@ -5059,7 +6203,7 @@
       <c r="AF98" s="16"/>
       <c r="AG98" s="16"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="11"/>
@@ -5094,7 +6238,7 @@
       <c r="AF99" s="16"/>
       <c r="AG99" s="16"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="11"/>
@@ -5129,7 +6273,7 @@
       <c r="AF100" s="16"/>
       <c r="AG100" s="16"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="11"/>
@@ -5164,7 +6308,7 @@
       <c r="AF101" s="16"/>
       <c r="AG101" s="16"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="11"/>
@@ -5199,7 +6343,7 @@
       <c r="AF102" s="16"/>
       <c r="AG102" s="16"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="11"/>
@@ -5234,7 +6378,7 @@
       <c r="AF103" s="16"/>
       <c r="AG103" s="16"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="11"/>
@@ -5269,7 +6413,7 @@
       <c r="AF104" s="16"/>
       <c r="AG104" s="16"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="11"/>
@@ -5304,7 +6448,7 @@
       <c r="AF105" s="16"/>
       <c r="AG105" s="16"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="11"/>
@@ -5339,7 +6483,7 @@
       <c r="AF106" s="16"/>
       <c r="AG106" s="16"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="11"/>
@@ -5374,7 +6518,7 @@
       <c r="AF107" s="16"/>
       <c r="AG107" s="16"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="11"/>
@@ -5409,7 +6553,7 @@
       <c r="AF108" s="16"/>
       <c r="AG108" s="16"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="11"/>
@@ -5444,7 +6588,7 @@
       <c r="AF109" s="16"/>
       <c r="AG109" s="16"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="11"/>
@@ -5479,7 +6623,7 @@
       <c r="AF110" s="16"/>
       <c r="AG110" s="16"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="11"/>
@@ -5514,7 +6658,7 @@
       <c r="AF111" s="16"/>
       <c r="AG111" s="16"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="11"/>
@@ -5549,7 +6693,7 @@
       <c r="AF112" s="16"/>
       <c r="AG112" s="16"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="11"/>
@@ -5584,7 +6728,7 @@
       <c r="AF113" s="16"/>
       <c r="AG113" s="16"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="11"/>
@@ -5619,7 +6763,7 @@
       <c r="AF114" s="16"/>
       <c r="AG114" s="16"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="11"/>
@@ -5654,7 +6798,7 @@
       <c r="AF115" s="16"/>
       <c r="AG115" s="16"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="11"/>
@@ -5689,7 +6833,7 @@
       <c r="AF116" s="16"/>
       <c r="AG116" s="16"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="11"/>
@@ -5724,7 +6868,7 @@
       <c r="AF117" s="16"/>
       <c r="AG117" s="16"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="11"/>
@@ -5759,7 +6903,7 @@
       <c r="AF118" s="16"/>
       <c r="AG118" s="16"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
@@ -5794,7 +6938,7 @@
       <c r="AF119" s="17"/>
       <c r="AG119" s="17"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="6"/>
       <c r="C120" s="14"/>
@@ -5829,7 +6973,7 @@
       <c r="AF120" s="17"/>
       <c r="AG120" s="17"/>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="6"/>
       <c r="C121" s="14"/>
@@ -5864,7 +7008,7 @@
       <c r="AF121" s="17"/>
       <c r="AG121" s="17"/>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="6"/>
       <c r="C122" s="14"/>
@@ -5899,7 +7043,7 @@
       <c r="AF122" s="17"/>
       <c r="AG122" s="17"/>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="6"/>
       <c r="C123" s="14"/>
@@ -5934,7 +7078,7 @@
       <c r="AF123" s="17"/>
       <c r="AG123" s="17"/>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="6"/>
       <c r="C124" s="14"/>
@@ -5969,7 +7113,7 @@
       <c r="AF124" s="17"/>
       <c r="AG124" s="17"/>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="6"/>
       <c r="C125" s="14"/>
@@ -6004,7 +7148,7 @@
       <c r="AF125" s="17"/>
       <c r="AG125" s="17"/>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
@@ -6039,7 +7183,7 @@
       <c r="AF126" s="17"/>
       <c r="AG126" s="17"/>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
@@ -6074,7 +7218,7 @@
       <c r="AF127" s="17"/>
       <c r="AG127" s="17"/>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="6"/>
       <c r="C128" s="14"/>
@@ -6109,7 +7253,7 @@
       <c r="AF128" s="17"/>
       <c r="AG128" s="17"/>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
       <c r="C129" s="14"/>
@@ -6144,7 +7288,7 @@
       <c r="AF129" s="17"/>
       <c r="AG129" s="17"/>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="6"/>
       <c r="C130" s="14"/>
@@ -6179,7 +7323,7 @@
       <c r="AF130" s="17"/>
       <c r="AG130" s="17"/>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="6"/>
       <c r="C131" s="14"/>
@@ -6214,7 +7358,7 @@
       <c r="AF131" s="17"/>
       <c r="AG131" s="17"/>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="6"/>
       <c r="C132" s="14"/>
@@ -6249,7 +7393,7 @@
       <c r="AF132" s="17"/>
       <c r="AG132" s="17"/>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="6"/>
       <c r="C133" s="14"/>
@@ -6284,7 +7428,7 @@
       <c r="AF133" s="17"/>
       <c r="AG133" s="17"/>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="6"/>
       <c r="C134" s="14"/>
@@ -6319,7 +7463,7 @@
       <c r="AF134" s="17"/>
       <c r="AG134" s="17"/>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
       <c r="C135" s="14"/>
@@ -6354,7 +7498,7 @@
       <c r="AF135" s="17"/>
       <c r="AG135" s="17"/>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="6"/>
       <c r="C136" s="14"/>
@@ -6389,7 +7533,7 @@
       <c r="AF136" s="17"/>
       <c r="AG136" s="17"/>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="14"/>
@@ -6448,145 +7592,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E451D8-2AEE-463E-B832-F4473A100FC3}">
-  <dimension ref="B2:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F0D1F1-878D-41CB-B60B-C3F05C9EDCFB}">
+  <dimension ref="D4:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="109.58203125" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6596,6 +7658,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDBBD48-A97F-4A43-B79B-8BFF01AAD9D7}">
+  <dimension ref="F13:N25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>44224</v>
+      </c>
+      <c r="H14" s="31">
+        <v>800</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="29">
+        <v>1</v>
+      </c>
+      <c r="N14" s="31">
+        <f>SUM(H14:H19)</f>
+        <v>32700</v>
+      </c>
+    </row>
+    <row r="15" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="32">
+        <f>F14+1</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="33">
+        <v>44224</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2600</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="32">
+        <v>1</v>
+      </c>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F16" s="32">
+        <f t="shared" ref="F16:F22" si="0">F15+1</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="33">
+        <v>44224</v>
+      </c>
+      <c r="H16" s="34">
+        <v>11000</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="32">
+        <v>1</v>
+      </c>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="33">
+        <v>44224</v>
+      </c>
+      <c r="H17" s="34">
+        <v>2800</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="32">
+        <v>1</v>
+      </c>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="33">
+        <v>44224</v>
+      </c>
+      <c r="H18" s="34">
+        <v>8800</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="32">
+        <v>1</v>
+      </c>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="36">
+        <v>44224</v>
+      </c>
+      <c r="H19" s="37">
+        <v>6700</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="35">
+        <v>1</v>
+      </c>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="30">
+        <v>44224</v>
+      </c>
+      <c r="H20" s="31">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="29">
+        <v>2</v>
+      </c>
+      <c r="N20" s="31">
+        <f>SUM(H20:H25)</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="33">
+        <v>44224</v>
+      </c>
+      <c r="H21" s="34">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="32">
+        <v>2</v>
+      </c>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="36">
+        <v>44224</v>
+      </c>
+      <c r="H22" s="37">
+        <v>3200</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="35">
+        <v>2</v>
+      </c>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB0CF05-2F40-4BA0-A62D-523A7811640F}">
+  <dimension ref="D3:Y22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="11" width="4" style="5" customWidth="1"/>
+    <col min="12" max="12" width="3.625" style="5" customWidth="1"/>
+    <col min="21" max="23" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="4:23" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="42">
+        <v>31</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>2</v>
+      </c>
+      <c r="H5" s="42">
+        <f>G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="42">
+        <f t="shared" ref="I5:K5" si="0">H5+1</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="40"/>
+      <c r="E6" s="42">
+        <f>K5+1</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="42">
+        <f>E6+1</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" ref="G6:K6" si="1">F6+1</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="42">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J6" s="42">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K6" s="42">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="P6" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="40"/>
+      <c r="E7" s="42">
+        <f>K6+1</f>
+        <v>14</v>
+      </c>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7:K7" si="2">E7+1</f>
+        <v>15</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="42">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K7" s="42">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="P7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="40"/>
+      <c r="E8" s="42">
+        <f>K7+1</f>
+        <v>21</v>
+      </c>
+      <c r="F8" s="42">
+        <f t="shared" ref="F8:K9" si="3">E8+1</f>
+        <v>22</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="P8" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="40"/>
+      <c r="E9" s="42">
+        <f>K8+1</f>
+        <v>28</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I9" s="42">
+        <v>1</v>
+      </c>
+      <c r="J9" s="42">
+        <v>2</v>
+      </c>
+      <c r="K9" s="42">
+        <v>3</v>
+      </c>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="4:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="4:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="W14" s="54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="V15" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="V16" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="W16" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="V17" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="W17" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y17" s="60"/>
+    </row>
+    <row r="18" spans="21:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="V19" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="V20" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20" s="56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="V21" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="W21" s="62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="V22" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="D5:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E451D8-2AEE-463E-B832-F4473A100FC3}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="109.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="89.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36391A5-92A5-485F-80B8-B9C4F39C3C26}">
+  <dimension ref="C1:F28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="45.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="95.875" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"{name:"&amp;D3&amp;", href:"""&amp;C3&amp;"""},"</f>
+        <v>{name:"현대자동차그룹", href:"http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai"},</v>
+      </c>
+      <c r="F3" t="str">
+        <f>E3&amp;E4&amp;E5&amp;E6&amp;E7&amp;E8&amp;E9&amp;E10&amp;E11&amp;E12&amp;E13&amp;E14</f>
+        <v>{name:"현대자동차그룹", href:"http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai"},{name:"브랜드", href:"http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide"},{name:"기아블로그 'PLAY Kia' ", href:"http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog"},{name:"기아 드라이빙 아카데미", href:"https://drivingexperience.kia.com"},{name:"인재 채용", href:"http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit"},{name:"IR", href:"https://worldwide.kia.com/kr/company/ir"},{name:"동반성장", href:"http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin"},{name:"지속가능경영", href:"https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works"},{name:"글로벌경영연구소", href:"http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic"},{name:"기아 타이거즈", href:"http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers"},{name:"기아군용", href:"http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military"},{name:"Kia Connect", href:"http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo"},</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E14" si="0">"{name:"&amp;D4&amp;", href:"""&amp;C4&amp;"""},"</f>
+        <v>{name:"브랜드", href:"http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide"},</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"기아블로그 'PLAY Kia' ", href:"http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog"},</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"기아 드라이빙 아카데미", href:"https://drivingexperience.kia.com"},</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"인재 채용", href:"http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit"},</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"IR", href:"https://worldwide.kia.com/kr/company/ir"},</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"동반성장", href:"http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin"},</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"지속가능경영", href:"https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works"},</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"글로벌경영연구소", href:"http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic"},</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"기아 타이거즈", href:"http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers"},</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"기아군용", href:"http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military"},</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:"Kia Connect", href:"http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo"},</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="24"/>
+    </row>
+    <row r="28" spans="3:3" ht="193.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{45FF0E80-E03C-471A-B370-AD22A6A353D4}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{9932795E-AC29-48AB-9EFD-EAB3749746F4}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{E18DB26F-70EC-4D36-B951-379A211235FB}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{AF222D13-3A32-48DD-8F49-3CCAFD5A59FE}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{829FA8E5-1CD3-4786-A513-7993F0CC8A87}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{BF376FFD-E5B4-49E5-A29E-68DD5BF2D939}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{1FC90D3E-E740-490E-B01A-D7247DDBD98B}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{A7F56A31-2626-4D13-A011-1B97E774943C}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{128F0860-3FCD-45B2-9AE9-9609545B9A0F}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{3E61DB85-BE7C-4DEC-B7BF-51ABC0E21CF5}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{A164889C-33CF-4177-8916-F3EC1C337B27}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{1685E8BB-25B8-4F4C-9E37-17A174262EE5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3A0074-AB0F-40FD-8EA9-617C3472991B}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
@@ -6604,14 +8689,14 @@
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="30" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="30" width="9.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6730,7 +8815,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -6766,7 +8851,7 @@
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>A2+1</f>
         <v>2</v>
@@ -6803,7 +8888,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f t="shared" ref="A4:A24" si="1">A3+1</f>
         <v>3</v>
@@ -6840,7 +8925,7 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6877,7 +8962,7 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6914,7 +8999,7 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6951,7 +9036,7 @@
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6986,7 +9071,7 @@
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7021,7 +9106,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7056,7 +9141,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7091,7 +9176,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7126,7 +9211,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7161,7 +9246,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7196,7 +9281,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7231,7 +9316,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7266,7 +9351,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7301,7 +9386,7 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7336,7 +9421,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7371,7 +9456,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7406,7 +9491,7 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7441,7 +9526,7 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7476,7 +9561,7 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7511,7 +9596,7 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7569,23 +9654,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A68942-5F90-43CA-90DC-BDDEE02DE528}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="30" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="30" width="9.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7704,7 +9789,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7740,7 +9825,7 @@
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>A2+1</f>
         <v>2</v>
@@ -7777,7 +9862,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f t="shared" ref="A4:A24" si="1">A3+1</f>
         <v>3</v>
@@ -7814,7 +9899,7 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7851,7 +9936,7 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7888,7 +9973,7 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7925,7 +10010,7 @@
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7960,7 +10045,7 @@
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7995,7 +10080,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8030,7 +10115,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8065,7 +10150,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8100,7 +10185,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8135,7 +10220,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8170,7 +10255,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8205,7 +10290,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8240,7 +10325,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8275,7 +10360,7 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -8310,7 +10395,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -8345,7 +10430,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -8380,7 +10465,7 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8415,7 +10500,7 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8450,7 +10535,7 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -8485,7 +10570,7 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <f t="shared" si="1"/>
         <v>23</v>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAAC374-6471-4978-BAB9-5CD27AFC0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14397A63-E25E-41DC-9A8F-D93DE7113C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
+    <workbookView xWindow="28680" yWindow="2415" windowWidth="21840" windowHeight="13740" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
   </bookViews>
   <sheets>
     <sheet name="toc" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="15" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
-    <sheet name="날씨어플" sheetId="3" r:id="rId7"/>
-    <sheet name="가계부" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId5"/>
+    <sheet name="날씨어플" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="260">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,30 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지출, 소비 등록 및 데이터를 남길 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리를 선택하여 카테고리를 데이터에 남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀로 지출/소비 데이터를 업로드 할 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀로 지출/소비 데이터를 다운로드 할 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당기간 금액 기준 그래프를 제공함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임라인 형식으로 누적 데이터를 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅁ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,110 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://drivingexperience.kia.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://worldwide.kia.com/kr/company/ir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"현대자동차그룹"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"브랜드"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"기아블로그 'PLAY Kia' "</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"기아 드라이빙 아카데미"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"인재 채용"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"IR"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"동반성장"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"지속가능경영"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"글로벌경영연구소"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"기아 타이거즈"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"기아군용"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Kia Connect"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{name:"현대자동차그룹", href:"http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai"},{name:"브랜드", href:"http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide"},{name:"기아블로그 'PLAY Kia' ", href:"http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog"},{name:"기아 드라이빙 아카데미", href:"https://drivingexperience.kia.com"},{name:"인재 채용", href:"http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit"},{name:"IR", href:"https://worldwide.kia.com/kr/company/ir"},{name:"동반성장", href:"http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin"},{name:"지속가능경영", href:"https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works"},{name:"글로벌경영연구소", href:"http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic"},{name:"기아 타이거즈", href:"http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers"},{name:"기아군용", href:"http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military"},{name:"Kia Connect", href:"http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피니쉬를 넣으면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,58 +641,459 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>props</t>
-  </si>
-  <si>
-    <t>methods</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>computed</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>인스턴스가 그려지는 화면의 시작점 (특정 HTML 태그)</t>
-  </si>
-  <si>
-    <t>화면에 표시할 요소 (HTML, CSS 등)</t>
-  </si>
-  <si>
-    <t>뷰의 반응성(Reactivity)이 반영된 데이터 속성</t>
-  </si>
-  <si>
-    <t>외부에서 변수를 받는 거임.</t>
-  </si>
-  <si>
-    <t>화면의 동작과 이벤트 로직을 제어하는 메서드</t>
-  </si>
-  <si>
-    <t>data에 연계돼서 특정관계성에 의해 조작돼야할 또 다른 data가 필요할 때,</t>
-  </si>
-  <si>
-    <t>watchdata에서 정의한 속성이 변화했을 때 추가 동작을 수행할 수 있게 정의하는 속성. 데이터 변화 자체가 trigger가 되는 methods를 정의할 경우</t>
-  </si>
-  <si>
-    <t>뷰의 라이프 사이클과 관련된 속성</t>
-  </si>
-  <si>
-    <t>new VueRouter를 등록하는 속성</t>
+    <t>이모지 찾기(카드, 지출, 수입,자산,장기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드별명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월평균 사용액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대금이체일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보육료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크/신용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기민우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스신용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차월대금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여할부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해제예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사용이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당카드</t>
+  </si>
+  <si>
+    <t>해당카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적대금</t>
+  </si>
+  <si>
+    <t>누적대금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용금액</t>
+  </si>
+  <si>
+    <t>사용금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대금 계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기민우리</t>
+  </si>
+  <si>
+    <t>은진현대</t>
+  </si>
+  <si>
+    <t>은진현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은진카카오</t>
+  </si>
+  <si>
+    <t>은진카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은진</t>
+  </si>
+  <si>
+    <t>최은진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크</t>
+  </si>
+  <si>
+    <t>신용</t>
+  </si>
+  <si>
+    <t>시장</t>
+  </si>
+  <si>
+    <t>시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용건명</t>
+  </si>
+  <si>
+    <t>사용건명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원</t>
+  </si>
+  <si>
+    <t>병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의점</t>
+  </si>
+  <si>
+    <t>인터넷쇼핑</t>
+  </si>
+  <si>
+    <t>인터넷쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험</t>
+  </si>
+  <si>
+    <t>보험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>카드사용</t>
+  </si>
+  <si>
+    <t>카드사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대금결제</t>
+  </si>
+  <si>
+    <t>대금결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래일자</t>
+  </si>
+  <si>
+    <t>거래일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오은진</t>
+  </si>
+  <si>
+    <t>카카오은진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은진 카카오</t>
+  </si>
+  <si>
+    <t>은진 카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌차감</t>
+  </si>
+  <si>
+    <t>계좌차감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기민</t>
+  </si>
+  <si>
+    <t>지출카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금/체크</t>
+  </si>
+  <si>
+    <t>현금/체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드</t>
+  </si>
+  <si>
+    <t>신용카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>소유자</t>
+  </si>
+  <si>
+    <r>
+      <t>체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>신용</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           - </t>
+  </si>
+  <si>
+    <t>가계부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기세팅(css 이니셜라이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css 이니셜라이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산별명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기민현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메트라이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오대출1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영삼이 돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액(천원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,7 +1104,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,15 +1152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -913,8 +1175,49 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,8 +1266,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1270,19 +1597,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,16 +1890,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,7 +1908,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1385,7 +1917,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1394,16 +1926,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,7 +2001,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,13 +2016,174 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="10" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="10" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1537,16 +2221,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1929,29 +2603,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F662DC-0EEC-4621-A515-BF47FBB7871B}">
   <dimension ref="A1:AO137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AB14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
+      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="27" width="9.625" style="5" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="9.625" style="5" customWidth="1"/>
+    <col min="29" max="41" width="9.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+    <row r="1" spans="1:41">
+      <c r="A1" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="5">
         <f t="shared" ref="D1:AG1" si="0">COUNTA(D3:D135)</f>
         <v>4</v>
@@ -2050,35 +2724,67 @@
       </c>
       <c r="AB1" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC1" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF1" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG1" s="5">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AH1" s="5">
+        <f t="shared" ref="AH1:AO1" si="1">COUNTA(AH3:AH135)</f>
+        <v>6</v>
+      </c>
+      <c r="AI1" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AK1" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL1" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM1" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN1" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO1" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2091,110 +2797,110 @@
         <v>44566</v>
       </c>
       <c r="F2" s="19">
-        <f t="shared" ref="F2:AC2" si="1">E2+1</f>
+        <f t="shared" ref="F2:AC2" si="2">E2+1</f>
         <v>44567</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44568</v>
       </c>
       <c r="H2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44569</v>
       </c>
       <c r="I2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44570</v>
       </c>
       <c r="J2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44571</v>
       </c>
       <c r="K2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44572</v>
       </c>
       <c r="L2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44573</v>
       </c>
       <c r="M2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44574</v>
       </c>
       <c r="N2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44575</v>
       </c>
       <c r="O2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44576</v>
       </c>
       <c r="P2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44577</v>
       </c>
       <c r="Q2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44578</v>
       </c>
       <c r="R2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44579</v>
       </c>
       <c r="S2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44580</v>
       </c>
       <c r="T2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44581</v>
       </c>
       <c r="U2" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44582</v>
       </c>
-      <c r="V2" s="27">
-        <f t="shared" si="1"/>
+      <c r="V2" s="24">
+        <f t="shared" si="2"/>
         <v>44583</v>
       </c>
-      <c r="W2" s="27">
-        <f t="shared" si="1"/>
+      <c r="W2" s="24">
+        <f t="shared" si="2"/>
         <v>44584</v>
       </c>
-      <c r="X2" s="27">
-        <f t="shared" si="1"/>
+      <c r="X2" s="24">
+        <f t="shared" si="2"/>
         <v>44585</v>
       </c>
-      <c r="Y2" s="27">
-        <f t="shared" si="1"/>
+      <c r="Y2" s="24">
+        <f t="shared" si="2"/>
         <v>44586</v>
       </c>
       <c r="Z2" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44587</v>
       </c>
       <c r="AA2" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44588</v>
       </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AB2" s="85">
+        <f t="shared" si="2"/>
         <v>44589</v>
       </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AC2" s="85">
+        <f t="shared" si="2"/>
         <v>44590</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="85">
         <f>AC2+1</f>
         <v>44591</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="85">
         <f>AD2+1</f>
         <v>44592</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="19">
         <f>AE2+1</f>
         <v>44593</v>
       </c>
@@ -2202,13 +2908,45 @@
         <f>AF2+1</f>
         <v>44594</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH2" s="4">
+        <f t="shared" ref="AH2:AO2" si="3">AG2+1</f>
+        <v>44595</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="3"/>
+        <v>44596</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="3"/>
+        <v>44597</v>
+      </c>
+      <c r="AK2" s="4">
+        <f t="shared" si="3"/>
+        <v>44598</v>
+      </c>
+      <c r="AL2" s="4">
+        <f t="shared" si="3"/>
+        <v>44599</v>
+      </c>
+      <c r="AM2" s="4">
+        <f t="shared" si="3"/>
+        <v>44600</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" si="3"/>
+        <v>44601</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" si="3"/>
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" hidden="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -2247,14 +2985,22 @@
       <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
-    </row>
-    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+    </row>
+    <row r="4" spans="1:41" hidden="1">
       <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>14</v>
@@ -2291,14 +3037,22 @@
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
-    </row>
-    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+    </row>
+    <row r="5" spans="1:41" hidden="1">
       <c r="A5" s="8">
-        <f t="shared" ref="A5:A56" si="2">A4+1</f>
+        <f t="shared" ref="A5:A60" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>11</v>
@@ -2335,14 +3089,22 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
-    </row>
-    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+    </row>
+    <row r="6" spans="1:41" hidden="1">
       <c r="A6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>12</v>
@@ -2381,17 +3143,25 @@
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
-    </row>
-    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+    </row>
+    <row r="7" spans="1:41" hidden="1">
       <c r="A7" s="8">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -2427,17 +3197,25 @@
       <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
-    </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+    </row>
+    <row r="8" spans="1:41" hidden="1">
       <c r="A8" s="8">
         <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -2473,17 +3251,25 @@
       <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
-    </row>
-    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+    </row>
+    <row r="9" spans="1:41" hidden="1">
       <c r="A9" s="8">
         <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -2519,14 +3305,22 @@
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
-    </row>
-    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+    </row>
+    <row r="10" spans="1:41" hidden="1">
       <c r="A10" s="8">
         <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
@@ -2563,14 +3357,22 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
-    </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+    </row>
+    <row r="11" spans="1:41" hidden="1">
       <c r="A11" s="8">
         <f>A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
@@ -2607,14 +3409,22 @@
       <c r="AE11" s="16"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
-    </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+    </row>
+    <row r="12" spans="1:41" hidden="1">
       <c r="A12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>16</v>
@@ -2651,14 +3461,22 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>3</v>
@@ -2673,7 +3491,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -2697,14 +3515,22 @@
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>17</v>
@@ -2719,7 +3545,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -2737,20 +3563,28 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="16"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>4</v>
@@ -2791,17 +3625,25 @@
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2839,14 +3681,22 @@
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="16"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>6</v>
@@ -2885,14 +3735,22 @@
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="16"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>19</v>
@@ -2933,14 +3791,22 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>20</v>
@@ -2979,20 +3845,25 @@
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
       <c r="AG19" s="16"/>
-      <c r="AN19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -3028,17 +3899,22 @@
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
       <c r="AG20" s="16"/>
-      <c r="AN20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="8">
         <f>A19+1</f>
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>7</v>
@@ -3059,7 +3935,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
@@ -3075,21 +3951,26 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
-      <c r="AF21" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF21" s="16"/>
       <c r="AG21" s="16"/>
-      <c r="AN21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>8</v>
@@ -3128,21 +4009,26 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
-      <c r="AF22" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
-      <c r="AN22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>9</v>
@@ -3181,21 +4067,26 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
-      <c r="AF23" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
-      <c r="AN23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>10</v>
@@ -3236,17 +4127,22 @@
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
-      <c r="AN24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>5</v>
@@ -3283,21 +4179,26 @@
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
-      <c r="AF25" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
-      <c r="AN25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
@@ -3314,10 +4215,10 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
@@ -3333,25 +4234,30 @@
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
-      <c r="AN26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -3368,7 +4274,7 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
@@ -3385,20 +4291,25 @@
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
-      <c r="AN27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3414,16 +4325,16 @@
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
@@ -3438,44 +4349,52 @@
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
-    </row>
-    <row r="29" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66">
-        <f t="shared" si="2"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="16"/>
+    </row>
+    <row r="29" spans="1:41" s="64" customFormat="1">
+      <c r="A29" s="62">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66" t="s">
+      <c r="B29" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
       <c r="AB29" s="16" t="s">
         <v>18</v>
       </c>
@@ -3484,44 +4403,52 @@
       <c r="AE29" s="16"/>
       <c r="AF29" s="16"/>
       <c r="AG29" s="16"/>
-    </row>
-    <row r="30" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66">
-        <f t="shared" si="2"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+    </row>
+    <row r="30" spans="1:41" s="64" customFormat="1">
+      <c r="A30" s="62">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
+      <c r="B30" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
       <c r="AB30" s="16" t="s">
         <v>18</v>
       </c>
@@ -3530,44 +4457,52 @@
       <c r="AE30" s="16"/>
       <c r="AF30" s="16"/>
       <c r="AG30" s="16"/>
-    </row>
-    <row r="31" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66">
-        <f t="shared" si="2"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+    </row>
+    <row r="31" spans="1:41" s="64" customFormat="1">
+      <c r="A31" s="62">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
+      <c r="B31" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
       <c r="AB31" s="16" t="s">
         <v>18</v>
       </c>
@@ -3576,97 +4511,110 @@
       <c r="AE31" s="16"/>
       <c r="AF31" s="16"/>
       <c r="AG31" s="16"/>
-      <c r="AN31" s="68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66">
-        <f t="shared" si="2"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
+      <c r="AO31" s="16"/>
+    </row>
+    <row r="32" spans="1:41" s="64" customFormat="1">
+      <c r="A32" s="62">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B32" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66" t="s">
+      <c r="B32" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="66" t="s">
+      <c r="N32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
       <c r="AB32" s="16"/>
-      <c r="AC32" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-    </row>
-    <row r="33" spans="1:41" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66">
-        <f t="shared" si="2"/>
+      <c r="AG32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+    </row>
+    <row r="33" spans="1:41" s="64" customFormat="1">
+      <c r="A33" s="62">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
       <c r="AB33" s="16" t="s">
         <v>18</v>
       </c>
@@ -3675,92 +4623,108 @@
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
       <c r="AG33" s="16"/>
-    </row>
-    <row r="34" spans="1:41" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="66">
-        <f t="shared" si="2"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+    </row>
+    <row r="34" spans="1:41" s="64" customFormat="1">
+      <c r="A34" s="62">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B34" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
+      <c r="B34" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
-      <c r="AD34" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD34" s="16"/>
       <c r="AE34" s="16"/>
       <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-    </row>
-    <row r="35" spans="1:41" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66">
-        <f t="shared" si="2"/>
+      <c r="AG34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+    </row>
+    <row r="35" spans="1:41" s="64" customFormat="1">
+      <c r="A35" s="62">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
+      <c r="B35" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
       <c r="AB35" s="16" t="s">
         <v>18</v>
       </c>
@@ -3769,17 +4733,25 @@
       <c r="AE35" s="16"/>
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -3794,7 +4766,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -3812,20 +4784,28 @@
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
       <c r="AF36" s="16"/>
-      <c r="AG36" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -3859,17 +4839,25 @@
       <c r="AE37" s="16"/>
       <c r="AF37" s="16"/>
       <c r="AG37" s="16"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -3896,24 +4884,32 @@
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
       <c r="AB38" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="16"/>
       <c r="AG38" s="16"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -3940,27 +4936,32 @@
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
       <c r="AB39" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
       <c r="AF39" s="16"/>
       <c r="AG39" s="16"/>
-      <c r="AO39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>157</v>
+        <v>121</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>125</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -3981,7 +4982,7 @@
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
@@ -3991,25 +4992,30 @@
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
-      <c r="AE40" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG40" s="16"/>
-      <c r="AO40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="16"/>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>126</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -4036,27 +5042,32 @@
       <c r="Z41" s="16"/>
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
-      <c r="AC41" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
+      <c r="AF41" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG41" s="16"/>
-      <c r="AO41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>127</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -4083,27 +5094,32 @@
       <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
-      <c r="AC42" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
+      <c r="AF42" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG42" s="16"/>
-      <c r="AO42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="16"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>160</v>
+        <v>121</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>128</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4130,27 +5146,32 @@
       <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
-      <c r="AC43" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
       <c r="AE43" s="16"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="16"/>
-      <c r="AO43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="16"/>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4176,25 +5197,33 @@
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
-      <c r="AB44" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
-      <c r="AE44" s="16"/>
+      <c r="AE44" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AF44" s="16"/>
       <c r="AG44" s="16"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="16"/>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -4220,25 +5249,33 @@
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AB45" s="16"/>
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
+      <c r="AE45" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AF45" s="16"/>
       <c r="AG45" s="16"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -4265,27 +5302,32 @@
       <c r="Z46" s="16"/>
       <c r="AA46" s="16"/>
       <c r="AB46" s="16"/>
-      <c r="AC46" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
       <c r="AE46" s="16"/>
       <c r="AF46" s="16"/>
       <c r="AG46" s="16"/>
-      <c r="AO46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -4313,26 +5355,33 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
       <c r="AC47" s="16"/>
-      <c r="AD47" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD47" s="16"/>
       <c r="AE47" s="16"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AO47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="16"/>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -4359,27 +5408,32 @@
       <c r="Z48" s="16"/>
       <c r="AA48" s="16"/>
       <c r="AB48" s="16"/>
-      <c r="AC48" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC48" s="16"/>
       <c r="AD48" s="16"/>
       <c r="AE48" s="16"/>
       <c r="AF48" s="16"/>
-      <c r="AG48" s="16"/>
-      <c r="AO48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
+      <c r="AJ48" s="16"/>
+      <c r="AK48" s="16"/>
+      <c r="AL48" s="16"/>
+      <c r="AM48" s="16"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="16"/>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -4406,27 +5460,32 @@
       <c r="Z49" s="16"/>
       <c r="AA49" s="16"/>
       <c r="AB49" s="16"/>
-      <c r="AC49" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AC49" s="16"/>
       <c r="AD49" s="16"/>
       <c r="AE49" s="16"/>
       <c r="AF49" s="16"/>
       <c r="AG49" s="16"/>
-      <c r="AO49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -4454,23 +5513,31 @@
       <c r="AA50" s="16"/>
       <c r="AB50" s="16"/>
       <c r="AC50" s="16"/>
-      <c r="AD50" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD50" s="16"/>
       <c r="AE50" s="16"/>
       <c r="AF50" s="16"/>
       <c r="AG50" s="16"/>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="16"/>
+      <c r="AK50" s="16"/>
+      <c r="AL50" s="16"/>
+      <c r="AM50" s="16"/>
+      <c r="AN50" s="16"/>
+      <c r="AO50" s="16"/>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -4499,22 +5566,30 @@
       <c r="AB51" s="16"/>
       <c r="AC51" s="16"/>
       <c r="AD51" s="16"/>
-      <c r="AE51" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AE51" s="16"/>
       <c r="AF51" s="16"/>
       <c r="AG51" s="16"/>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="16"/>
+      <c r="AM51" s="16"/>
+      <c r="AN51" s="16"/>
+      <c r="AO51" s="16"/>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -4542,23 +5617,31 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
       <c r="AC52" s="16"/>
-      <c r="AD52" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD52" s="16"/>
       <c r="AE52" s="16"/>
       <c r="AF52" s="16"/>
       <c r="AG52" s="16"/>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="16"/>
+      <c r="AM52" s="16"/>
+      <c r="AN52" s="16"/>
+      <c r="AO52" s="16"/>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4586,23 +5669,31 @@
       <c r="AA53" s="16"/>
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
-      <c r="AD53" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD53" s="16"/>
       <c r="AE53" s="16"/>
       <c r="AF53" s="16"/>
-      <c r="AG53" s="16"/>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+      <c r="AK53" s="16"/>
+      <c r="AL53" s="16"/>
+      <c r="AM53" s="16"/>
+      <c r="AN53" s="16"/>
+      <c r="AO53" s="16"/>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -4631,22 +5722,30 @@
       <c r="AB54" s="16"/>
       <c r="AC54" s="16"/>
       <c r="AD54" s="16"/>
-      <c r="AE54" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AE54" s="16"/>
       <c r="AF54" s="16"/>
       <c r="AG54" s="16"/>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH54" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+      <c r="AK54" s="16"/>
+      <c r="AL54" s="16"/>
+      <c r="AM54" s="16"/>
+      <c r="AN54" s="16"/>
+      <c r="AO54" s="16"/>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -4674,23 +5773,31 @@
       <c r="AA55" s="16"/>
       <c r="AB55" s="16"/>
       <c r="AC55" s="16"/>
-      <c r="AD55" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD55" s="16"/>
       <c r="AE55" s="16"/>
       <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
@@ -4719,21 +5826,29 @@
       <c r="AB56" s="16"/>
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
-      <c r="AE56" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AE56" s="16"/>
       <c r="AF56" s="16"/>
       <c r="AG56" s="16"/>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="16"/>
+      <c r="AL56" s="16"/>
+      <c r="AM56" s="16"/>
+      <c r="AN56" s="16"/>
+      <c r="AO56" s="16"/>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="8">
         <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -4763,15 +5878,30 @@
       <c r="AC57" s="16"/>
       <c r="AD57" s="16"/>
       <c r="AE57" s="16"/>
-      <c r="AF57" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF57" s="16"/>
       <c r="AG57" s="16"/>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="11"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ57" s="16"/>
+      <c r="AK57" s="16"/>
+      <c r="AL57" s="16"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="16"/>
+      <c r="AO57" s="16"/>
+    </row>
+    <row r="58" spans="1:41">
+      <c r="A58" s="8">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -4802,11 +5932,28 @@
       <c r="AE58" s="16"/>
       <c r="AF58" s="16"/>
       <c r="AG58" s="16"/>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="11"/>
+      <c r="AH58" s="16"/>
+      <c r="AI58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ58" s="16"/>
+      <c r="AK58" s="16"/>
+      <c r="AL58" s="16"/>
+      <c r="AM58" s="16"/>
+      <c r="AN58" s="16"/>
+      <c r="AO58" s="16"/>
+    </row>
+    <row r="59" spans="1:41">
+      <c r="A59" s="8">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -4835,13 +5982,30 @@
       <c r="AC59" s="16"/>
       <c r="AD59" s="16"/>
       <c r="AE59" s="16"/>
-      <c r="AF59" s="16"/>
+      <c r="AF59" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG59" s="16"/>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="11"/>
+      <c r="AH59" s="16"/>
+      <c r="AI59" s="16"/>
+      <c r="AJ59" s="16"/>
+      <c r="AK59" s="16"/>
+      <c r="AL59" s="16"/>
+      <c r="AM59" s="16"/>
+      <c r="AN59" s="16"/>
+      <c r="AO59" s="16"/>
+    </row>
+    <row r="60" spans="1:41">
+      <c r="A60" s="8">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -4870,10 +6034,20 @@
       <c r="AC60" s="16"/>
       <c r="AD60" s="16"/>
       <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
+      <c r="AF60" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG60" s="16"/>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH60" s="16"/>
+      <c r="AI60" s="16"/>
+      <c r="AJ60" s="16"/>
+      <c r="AK60" s="16"/>
+      <c r="AL60" s="16"/>
+      <c r="AM60" s="16"/>
+      <c r="AN60" s="16"/>
+      <c r="AO60" s="16"/>
+    </row>
+    <row r="61" spans="1:41">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="11"/>
@@ -4907,8 +6081,16 @@
       <c r="AE61" s="16"/>
       <c r="AF61" s="16"/>
       <c r="AG61" s="16"/>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="16"/>
+      <c r="AJ61" s="16"/>
+      <c r="AK61" s="16"/>
+      <c r="AL61" s="16"/>
+      <c r="AM61" s="16"/>
+      <c r="AN61" s="16"/>
+      <c r="AO61" s="16"/>
+    </row>
+    <row r="62" spans="1:41">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="11"/>
@@ -4942,8 +6124,16 @@
       <c r="AE62" s="16"/>
       <c r="AF62" s="16"/>
       <c r="AG62" s="16"/>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="16"/>
+      <c r="AK62" s="16"/>
+      <c r="AL62" s="16"/>
+      <c r="AM62" s="16"/>
+      <c r="AN62" s="16"/>
+      <c r="AO62" s="16"/>
+    </row>
+    <row r="63" spans="1:41">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="11"/>
@@ -4977,8 +6167,16 @@
       <c r="AE63" s="16"/>
       <c r="AF63" s="16"/>
       <c r="AG63" s="16"/>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="16"/>
+      <c r="AM63" s="16"/>
+      <c r="AN63" s="16"/>
+      <c r="AO63" s="16"/>
+    </row>
+    <row r="64" spans="1:41">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="11"/>
@@ -5012,8 +6210,16 @@
       <c r="AE64" s="16"/>
       <c r="AF64" s="16"/>
       <c r="AG64" s="16"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="16"/>
+      <c r="AL64" s="16"/>
+      <c r="AM64" s="16"/>
+      <c r="AN64" s="16"/>
+      <c r="AO64" s="16"/>
+    </row>
+    <row r="65" spans="1:41">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="11"/>
@@ -5047,8 +6253,16 @@
       <c r="AE65" s="16"/>
       <c r="AF65" s="16"/>
       <c r="AG65" s="16"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
+      <c r="AK65" s="16"/>
+      <c r="AL65" s="16"/>
+      <c r="AM65" s="16"/>
+      <c r="AN65" s="16"/>
+      <c r="AO65" s="16"/>
+    </row>
+    <row r="66" spans="1:41">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="11"/>
@@ -5082,8 +6296,16 @@
       <c r="AE66" s="16"/>
       <c r="AF66" s="16"/>
       <c r="AG66" s="16"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH66" s="16"/>
+      <c r="AI66" s="16"/>
+      <c r="AJ66" s="16"/>
+      <c r="AK66" s="16"/>
+      <c r="AL66" s="16"/>
+      <c r="AM66" s="16"/>
+      <c r="AN66" s="16"/>
+      <c r="AO66" s="16"/>
+    </row>
+    <row r="67" spans="1:41">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="11"/>
@@ -5117,8 +6339,16 @@
       <c r="AE67" s="16"/>
       <c r="AF67" s="16"/>
       <c r="AG67" s="16"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH67" s="16"/>
+      <c r="AI67" s="16"/>
+      <c r="AJ67" s="16"/>
+      <c r="AK67" s="16"/>
+      <c r="AL67" s="16"/>
+      <c r="AM67" s="16"/>
+      <c r="AN67" s="16"/>
+      <c r="AO67" s="16"/>
+    </row>
+    <row r="68" spans="1:41">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="11"/>
@@ -5152,8 +6382,16 @@
       <c r="AE68" s="16"/>
       <c r="AF68" s="16"/>
       <c r="AG68" s="16"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH68" s="16"/>
+      <c r="AI68" s="16"/>
+      <c r="AJ68" s="16"/>
+      <c r="AK68" s="16"/>
+      <c r="AL68" s="16"/>
+      <c r="AM68" s="16"/>
+      <c r="AN68" s="16"/>
+      <c r="AO68" s="16"/>
+    </row>
+    <row r="69" spans="1:41">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="11"/>
@@ -5187,8 +6425,16 @@
       <c r="AE69" s="16"/>
       <c r="AF69" s="16"/>
       <c r="AG69" s="16"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH69" s="16"/>
+      <c r="AI69" s="16"/>
+      <c r="AJ69" s="16"/>
+      <c r="AK69" s="16"/>
+      <c r="AL69" s="16"/>
+      <c r="AM69" s="16"/>
+      <c r="AN69" s="16"/>
+      <c r="AO69" s="16"/>
+    </row>
+    <row r="70" spans="1:41">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="11"/>
@@ -5222,8 +6468,16 @@
       <c r="AE70" s="16"/>
       <c r="AF70" s="16"/>
       <c r="AG70" s="16"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH70" s="16"/>
+      <c r="AI70" s="16"/>
+      <c r="AJ70" s="16"/>
+      <c r="AK70" s="16"/>
+      <c r="AL70" s="16"/>
+      <c r="AM70" s="16"/>
+      <c r="AN70" s="16"/>
+      <c r="AO70" s="16"/>
+    </row>
+    <row r="71" spans="1:41">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="11"/>
@@ -5257,8 +6511,16 @@
       <c r="AE71" s="16"/>
       <c r="AF71" s="16"/>
       <c r="AG71" s="16"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16"/>
+    </row>
+    <row r="72" spans="1:41">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="11"/>
@@ -5292,8 +6554,16 @@
       <c r="AE72" s="16"/>
       <c r="AF72" s="16"/>
       <c r="AG72" s="16"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+    </row>
+    <row r="73" spans="1:41">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="11"/>
@@ -5327,8 +6597,16 @@
       <c r="AE73" s="16"/>
       <c r="AF73" s="16"/>
       <c r="AG73" s="16"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="16"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="16"/>
+      <c r="AM73" s="16"/>
+      <c r="AN73" s="16"/>
+      <c r="AO73" s="16"/>
+    </row>
+    <row r="74" spans="1:41">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="11"/>
@@ -5362,8 +6640,16 @@
       <c r="AE74" s="16"/>
       <c r="AF74" s="16"/>
       <c r="AG74" s="16"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH74" s="16"/>
+      <c r="AI74" s="16"/>
+      <c r="AJ74" s="16"/>
+      <c r="AK74" s="16"/>
+      <c r="AL74" s="16"/>
+      <c r="AM74" s="16"/>
+      <c r="AN74" s="16"/>
+      <c r="AO74" s="16"/>
+    </row>
+    <row r="75" spans="1:41">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="11"/>
@@ -5397,8 +6683,16 @@
       <c r="AE75" s="16"/>
       <c r="AF75" s="16"/>
       <c r="AG75" s="16"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH75" s="16"/>
+      <c r="AI75" s="16"/>
+      <c r="AJ75" s="16"/>
+      <c r="AK75" s="16"/>
+      <c r="AL75" s="16"/>
+      <c r="AM75" s="16"/>
+      <c r="AN75" s="16"/>
+      <c r="AO75" s="16"/>
+    </row>
+    <row r="76" spans="1:41">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="11"/>
@@ -5432,8 +6726,16 @@
       <c r="AE76" s="16"/>
       <c r="AF76" s="16"/>
       <c r="AG76" s="16"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH76" s="16"/>
+      <c r="AI76" s="16"/>
+      <c r="AJ76" s="16"/>
+      <c r="AK76" s="16"/>
+      <c r="AL76" s="16"/>
+      <c r="AM76" s="16"/>
+      <c r="AN76" s="16"/>
+      <c r="AO76" s="16"/>
+    </row>
+    <row r="77" spans="1:41">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="11"/>
@@ -5467,8 +6769,16 @@
       <c r="AE77" s="16"/>
       <c r="AF77" s="16"/>
       <c r="AG77" s="16"/>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH77" s="16"/>
+      <c r="AI77" s="16"/>
+      <c r="AJ77" s="16"/>
+      <c r="AK77" s="16"/>
+      <c r="AL77" s="16"/>
+      <c r="AM77" s="16"/>
+      <c r="AN77" s="16"/>
+      <c r="AO77" s="16"/>
+    </row>
+    <row r="78" spans="1:41">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="11"/>
@@ -5502,8 +6812,16 @@
       <c r="AE78" s="16"/>
       <c r="AF78" s="16"/>
       <c r="AG78" s="16"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH78" s="16"/>
+      <c r="AI78" s="16"/>
+      <c r="AJ78" s="16"/>
+      <c r="AK78" s="16"/>
+      <c r="AL78" s="16"/>
+      <c r="AM78" s="16"/>
+      <c r="AN78" s="16"/>
+      <c r="AO78" s="16"/>
+    </row>
+    <row r="79" spans="1:41">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="11"/>
@@ -5537,8 +6855,16 @@
       <c r="AE79" s="16"/>
       <c r="AF79" s="16"/>
       <c r="AG79" s="16"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH79" s="16"/>
+      <c r="AI79" s="16"/>
+      <c r="AJ79" s="16"/>
+      <c r="AK79" s="16"/>
+      <c r="AL79" s="16"/>
+      <c r="AM79" s="16"/>
+      <c r="AN79" s="16"/>
+      <c r="AO79" s="16"/>
+    </row>
+    <row r="80" spans="1:41">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="11"/>
@@ -5572,8 +6898,16 @@
       <c r="AE80" s="16"/>
       <c r="AF80" s="16"/>
       <c r="AG80" s="16"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH80" s="16"/>
+      <c r="AI80" s="16"/>
+      <c r="AJ80" s="16"/>
+      <c r="AK80" s="16"/>
+      <c r="AL80" s="16"/>
+      <c r="AM80" s="16"/>
+      <c r="AN80" s="16"/>
+      <c r="AO80" s="16"/>
+    </row>
+    <row r="81" spans="1:41">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="11"/>
@@ -5607,8 +6941,16 @@
       <c r="AE81" s="16"/>
       <c r="AF81" s="16"/>
       <c r="AG81" s="16"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH81" s="16"/>
+      <c r="AI81" s="16"/>
+      <c r="AJ81" s="16"/>
+      <c r="AK81" s="16"/>
+      <c r="AL81" s="16"/>
+      <c r="AM81" s="16"/>
+      <c r="AN81" s="16"/>
+      <c r="AO81" s="16"/>
+    </row>
+    <row r="82" spans="1:41">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="11"/>
@@ -5642,8 +6984,16 @@
       <c r="AE82" s="16"/>
       <c r="AF82" s="16"/>
       <c r="AG82" s="16"/>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH82" s="16"/>
+      <c r="AI82" s="16"/>
+      <c r="AJ82" s="16"/>
+      <c r="AK82" s="16"/>
+      <c r="AL82" s="16"/>
+      <c r="AM82" s="16"/>
+      <c r="AN82" s="16"/>
+      <c r="AO82" s="16"/>
+    </row>
+    <row r="83" spans="1:41">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="11"/>
@@ -5677,8 +7027,16 @@
       <c r="AE83" s="16"/>
       <c r="AF83" s="16"/>
       <c r="AG83" s="16"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH83" s="16"/>
+      <c r="AI83" s="16"/>
+      <c r="AJ83" s="16"/>
+      <c r="AK83" s="16"/>
+      <c r="AL83" s="16"/>
+      <c r="AM83" s="16"/>
+      <c r="AN83" s="16"/>
+      <c r="AO83" s="16"/>
+    </row>
+    <row r="84" spans="1:41">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="11"/>
@@ -5712,8 +7070,16 @@
       <c r="AE84" s="16"/>
       <c r="AF84" s="16"/>
       <c r="AG84" s="16"/>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH84" s="16"/>
+      <c r="AI84" s="16"/>
+      <c r="AJ84" s="16"/>
+      <c r="AK84" s="16"/>
+      <c r="AL84" s="16"/>
+      <c r="AM84" s="16"/>
+      <c r="AN84" s="16"/>
+      <c r="AO84" s="16"/>
+    </row>
+    <row r="85" spans="1:41">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="11"/>
@@ -5747,8 +7113,16 @@
       <c r="AE85" s="16"/>
       <c r="AF85" s="16"/>
       <c r="AG85" s="16"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH85" s="16"/>
+      <c r="AI85" s="16"/>
+      <c r="AJ85" s="16"/>
+      <c r="AK85" s="16"/>
+      <c r="AL85" s="16"/>
+      <c r="AM85" s="16"/>
+      <c r="AN85" s="16"/>
+      <c r="AO85" s="16"/>
+    </row>
+    <row r="86" spans="1:41">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="11"/>
@@ -5782,8 +7156,16 @@
       <c r="AE86" s="16"/>
       <c r="AF86" s="16"/>
       <c r="AG86" s="16"/>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH86" s="16"/>
+      <c r="AI86" s="16"/>
+      <c r="AJ86" s="16"/>
+      <c r="AK86" s="16"/>
+      <c r="AL86" s="16"/>
+      <c r="AM86" s="16"/>
+      <c r="AN86" s="16"/>
+      <c r="AO86" s="16"/>
+    </row>
+    <row r="87" spans="1:41">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="11"/>
@@ -5817,8 +7199,16 @@
       <c r="AE87" s="16"/>
       <c r="AF87" s="16"/>
       <c r="AG87" s="16"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH87" s="16"/>
+      <c r="AI87" s="16"/>
+      <c r="AJ87" s="16"/>
+      <c r="AK87" s="16"/>
+      <c r="AL87" s="16"/>
+      <c r="AM87" s="16"/>
+      <c r="AN87" s="16"/>
+      <c r="AO87" s="16"/>
+    </row>
+    <row r="88" spans="1:41">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="11"/>
@@ -5852,8 +7242,16 @@
       <c r="AE88" s="16"/>
       <c r="AF88" s="16"/>
       <c r="AG88" s="16"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH88" s="16"/>
+      <c r="AI88" s="16"/>
+      <c r="AJ88" s="16"/>
+      <c r="AK88" s="16"/>
+      <c r="AL88" s="16"/>
+      <c r="AM88" s="16"/>
+      <c r="AN88" s="16"/>
+      <c r="AO88" s="16"/>
+    </row>
+    <row r="89" spans="1:41">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="11"/>
@@ -5887,8 +7285,16 @@
       <c r="AE89" s="16"/>
       <c r="AF89" s="16"/>
       <c r="AG89" s="16"/>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH89" s="16"/>
+      <c r="AI89" s="16"/>
+      <c r="AJ89" s="16"/>
+      <c r="AK89" s="16"/>
+      <c r="AL89" s="16"/>
+      <c r="AM89" s="16"/>
+      <c r="AN89" s="16"/>
+      <c r="AO89" s="16"/>
+    </row>
+    <row r="90" spans="1:41">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="11"/>
@@ -5922,8 +7328,16 @@
       <c r="AE90" s="16"/>
       <c r="AF90" s="16"/>
       <c r="AG90" s="16"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH90" s="16"/>
+      <c r="AI90" s="16"/>
+      <c r="AJ90" s="16"/>
+      <c r="AK90" s="16"/>
+      <c r="AL90" s="16"/>
+      <c r="AM90" s="16"/>
+      <c r="AN90" s="16"/>
+      <c r="AO90" s="16"/>
+    </row>
+    <row r="91" spans="1:41">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="11"/>
@@ -5957,8 +7371,16 @@
       <c r="AE91" s="16"/>
       <c r="AF91" s="16"/>
       <c r="AG91" s="16"/>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH91" s="16"/>
+      <c r="AI91" s="16"/>
+      <c r="AJ91" s="16"/>
+      <c r="AK91" s="16"/>
+      <c r="AL91" s="16"/>
+      <c r="AM91" s="16"/>
+      <c r="AN91" s="16"/>
+      <c r="AO91" s="16"/>
+    </row>
+    <row r="92" spans="1:41">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="11"/>
@@ -5992,8 +7414,16 @@
       <c r="AE92" s="16"/>
       <c r="AF92" s="16"/>
       <c r="AG92" s="16"/>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH92" s="16"/>
+      <c r="AI92" s="16"/>
+      <c r="AJ92" s="16"/>
+      <c r="AK92" s="16"/>
+      <c r="AL92" s="16"/>
+      <c r="AM92" s="16"/>
+      <c r="AN92" s="16"/>
+      <c r="AO92" s="16"/>
+    </row>
+    <row r="93" spans="1:41">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="11"/>
@@ -6027,8 +7457,16 @@
       <c r="AE93" s="16"/>
       <c r="AF93" s="16"/>
       <c r="AG93" s="16"/>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH93" s="16"/>
+      <c r="AI93" s="16"/>
+      <c r="AJ93" s="16"/>
+      <c r="AK93" s="16"/>
+      <c r="AL93" s="16"/>
+      <c r="AM93" s="16"/>
+      <c r="AN93" s="16"/>
+      <c r="AO93" s="16"/>
+    </row>
+    <row r="94" spans="1:41">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="11"/>
@@ -6062,8 +7500,16 @@
       <c r="AE94" s="16"/>
       <c r="AF94" s="16"/>
       <c r="AG94" s="16"/>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH94" s="16"/>
+      <c r="AI94" s="16"/>
+      <c r="AJ94" s="16"/>
+      <c r="AK94" s="16"/>
+      <c r="AL94" s="16"/>
+      <c r="AM94" s="16"/>
+      <c r="AN94" s="16"/>
+      <c r="AO94" s="16"/>
+    </row>
+    <row r="95" spans="1:41">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="11"/>
@@ -6097,8 +7543,16 @@
       <c r="AE95" s="16"/>
       <c r="AF95" s="16"/>
       <c r="AG95" s="16"/>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH95" s="16"/>
+      <c r="AI95" s="16"/>
+      <c r="AJ95" s="16"/>
+      <c r="AK95" s="16"/>
+      <c r="AL95" s="16"/>
+      <c r="AM95" s="16"/>
+      <c r="AN95" s="16"/>
+      <c r="AO95" s="16"/>
+    </row>
+    <row r="96" spans="1:41">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="11"/>
@@ -6132,8 +7586,16 @@
       <c r="AE96" s="16"/>
       <c r="AF96" s="16"/>
       <c r="AG96" s="16"/>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH96" s="16"/>
+      <c r="AI96" s="16"/>
+      <c r="AJ96" s="16"/>
+      <c r="AK96" s="16"/>
+      <c r="AL96" s="16"/>
+      <c r="AM96" s="16"/>
+      <c r="AN96" s="16"/>
+      <c r="AO96" s="16"/>
+    </row>
+    <row r="97" spans="1:41">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="11"/>
@@ -6167,8 +7629,16 @@
       <c r="AE97" s="16"/>
       <c r="AF97" s="16"/>
       <c r="AG97" s="16"/>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH97" s="16"/>
+      <c r="AI97" s="16"/>
+      <c r="AJ97" s="16"/>
+      <c r="AK97" s="16"/>
+      <c r="AL97" s="16"/>
+      <c r="AM97" s="16"/>
+      <c r="AN97" s="16"/>
+      <c r="AO97" s="16"/>
+    </row>
+    <row r="98" spans="1:41">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="11"/>
@@ -6202,8 +7672,16 @@
       <c r="AE98" s="16"/>
       <c r="AF98" s="16"/>
       <c r="AG98" s="16"/>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH98" s="16"/>
+      <c r="AI98" s="16"/>
+      <c r="AJ98" s="16"/>
+      <c r="AK98" s="16"/>
+      <c r="AL98" s="16"/>
+      <c r="AM98" s="16"/>
+      <c r="AN98" s="16"/>
+      <c r="AO98" s="16"/>
+    </row>
+    <row r="99" spans="1:41">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="11"/>
@@ -6237,8 +7715,16 @@
       <c r="AE99" s="16"/>
       <c r="AF99" s="16"/>
       <c r="AG99" s="16"/>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH99" s="16"/>
+      <c r="AI99" s="16"/>
+      <c r="AJ99" s="16"/>
+      <c r="AK99" s="16"/>
+      <c r="AL99" s="16"/>
+      <c r="AM99" s="16"/>
+      <c r="AN99" s="16"/>
+      <c r="AO99" s="16"/>
+    </row>
+    <row r="100" spans="1:41">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="11"/>
@@ -6272,8 +7758,16 @@
       <c r="AE100" s="16"/>
       <c r="AF100" s="16"/>
       <c r="AG100" s="16"/>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH100" s="16"/>
+      <c r="AI100" s="16"/>
+      <c r="AJ100" s="16"/>
+      <c r="AK100" s="16"/>
+      <c r="AL100" s="16"/>
+      <c r="AM100" s="16"/>
+      <c r="AN100" s="16"/>
+      <c r="AO100" s="16"/>
+    </row>
+    <row r="101" spans="1:41">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="11"/>
@@ -6307,8 +7801,16 @@
       <c r="AE101" s="16"/>
       <c r="AF101" s="16"/>
       <c r="AG101" s="16"/>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH101" s="16"/>
+      <c r="AI101" s="16"/>
+      <c r="AJ101" s="16"/>
+      <c r="AK101" s="16"/>
+      <c r="AL101" s="16"/>
+      <c r="AM101" s="16"/>
+      <c r="AN101" s="16"/>
+      <c r="AO101" s="16"/>
+    </row>
+    <row r="102" spans="1:41">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="11"/>
@@ -6342,8 +7844,16 @@
       <c r="AE102" s="16"/>
       <c r="AF102" s="16"/>
       <c r="AG102" s="16"/>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH102" s="16"/>
+      <c r="AI102" s="16"/>
+      <c r="AJ102" s="16"/>
+      <c r="AK102" s="16"/>
+      <c r="AL102" s="16"/>
+      <c r="AM102" s="16"/>
+      <c r="AN102" s="16"/>
+      <c r="AO102" s="16"/>
+    </row>
+    <row r="103" spans="1:41">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="11"/>
@@ -6377,8 +7887,16 @@
       <c r="AE103" s="16"/>
       <c r="AF103" s="16"/>
       <c r="AG103" s="16"/>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH103" s="16"/>
+      <c r="AI103" s="16"/>
+      <c r="AJ103" s="16"/>
+      <c r="AK103" s="16"/>
+      <c r="AL103" s="16"/>
+      <c r="AM103" s="16"/>
+      <c r="AN103" s="16"/>
+      <c r="AO103" s="16"/>
+    </row>
+    <row r="104" spans="1:41">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="11"/>
@@ -6412,8 +7930,16 @@
       <c r="AE104" s="16"/>
       <c r="AF104" s="16"/>
       <c r="AG104" s="16"/>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH104" s="16"/>
+      <c r="AI104" s="16"/>
+      <c r="AJ104" s="16"/>
+      <c r="AK104" s="16"/>
+      <c r="AL104" s="16"/>
+      <c r="AM104" s="16"/>
+      <c r="AN104" s="16"/>
+      <c r="AO104" s="16"/>
+    </row>
+    <row r="105" spans="1:41">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="11"/>
@@ -6447,8 +7973,16 @@
       <c r="AE105" s="16"/>
       <c r="AF105" s="16"/>
       <c r="AG105" s="16"/>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH105" s="16"/>
+      <c r="AI105" s="16"/>
+      <c r="AJ105" s="16"/>
+      <c r="AK105" s="16"/>
+      <c r="AL105" s="16"/>
+      <c r="AM105" s="16"/>
+      <c r="AN105" s="16"/>
+      <c r="AO105" s="16"/>
+    </row>
+    <row r="106" spans="1:41">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="11"/>
@@ -6482,8 +8016,16 @@
       <c r="AE106" s="16"/>
       <c r="AF106" s="16"/>
       <c r="AG106" s="16"/>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH106" s="16"/>
+      <c r="AI106" s="16"/>
+      <c r="AJ106" s="16"/>
+      <c r="AK106" s="16"/>
+      <c r="AL106" s="16"/>
+      <c r="AM106" s="16"/>
+      <c r="AN106" s="16"/>
+      <c r="AO106" s="16"/>
+    </row>
+    <row r="107" spans="1:41">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="11"/>
@@ -6517,8 +8059,16 @@
       <c r="AE107" s="16"/>
       <c r="AF107" s="16"/>
       <c r="AG107" s="16"/>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH107" s="16"/>
+      <c r="AI107" s="16"/>
+      <c r="AJ107" s="16"/>
+      <c r="AK107" s="16"/>
+      <c r="AL107" s="16"/>
+      <c r="AM107" s="16"/>
+      <c r="AN107" s="16"/>
+      <c r="AO107" s="16"/>
+    </row>
+    <row r="108" spans="1:41">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="11"/>
@@ -6552,8 +8102,16 @@
       <c r="AE108" s="16"/>
       <c r="AF108" s="16"/>
       <c r="AG108" s="16"/>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH108" s="16"/>
+      <c r="AI108" s="16"/>
+      <c r="AJ108" s="16"/>
+      <c r="AK108" s="16"/>
+      <c r="AL108" s="16"/>
+      <c r="AM108" s="16"/>
+      <c r="AN108" s="16"/>
+      <c r="AO108" s="16"/>
+    </row>
+    <row r="109" spans="1:41">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="11"/>
@@ -6587,8 +8145,16 @@
       <c r="AE109" s="16"/>
       <c r="AF109" s="16"/>
       <c r="AG109" s="16"/>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH109" s="16"/>
+      <c r="AI109" s="16"/>
+      <c r="AJ109" s="16"/>
+      <c r="AK109" s="16"/>
+      <c r="AL109" s="16"/>
+      <c r="AM109" s="16"/>
+      <c r="AN109" s="16"/>
+      <c r="AO109" s="16"/>
+    </row>
+    <row r="110" spans="1:41">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="11"/>
@@ -6622,8 +8188,16 @@
       <c r="AE110" s="16"/>
       <c r="AF110" s="16"/>
       <c r="AG110" s="16"/>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH110" s="16"/>
+      <c r="AI110" s="16"/>
+      <c r="AJ110" s="16"/>
+      <c r="AK110" s="16"/>
+      <c r="AL110" s="16"/>
+      <c r="AM110" s="16"/>
+      <c r="AN110" s="16"/>
+      <c r="AO110" s="16"/>
+    </row>
+    <row r="111" spans="1:41">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="11"/>
@@ -6657,8 +8231,16 @@
       <c r="AE111" s="16"/>
       <c r="AF111" s="16"/>
       <c r="AG111" s="16"/>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH111" s="16"/>
+      <c r="AI111" s="16"/>
+      <c r="AJ111" s="16"/>
+      <c r="AK111" s="16"/>
+      <c r="AL111" s="16"/>
+      <c r="AM111" s="16"/>
+      <c r="AN111" s="16"/>
+      <c r="AO111" s="16"/>
+    </row>
+    <row r="112" spans="1:41">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="11"/>
@@ -6692,8 +8274,16 @@
       <c r="AE112" s="16"/>
       <c r="AF112" s="16"/>
       <c r="AG112" s="16"/>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH112" s="16"/>
+      <c r="AI112" s="16"/>
+      <c r="AJ112" s="16"/>
+      <c r="AK112" s="16"/>
+      <c r="AL112" s="16"/>
+      <c r="AM112" s="16"/>
+      <c r="AN112" s="16"/>
+      <c r="AO112" s="16"/>
+    </row>
+    <row r="113" spans="1:41">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="11"/>
@@ -6727,8 +8317,16 @@
       <c r="AE113" s="16"/>
       <c r="AF113" s="16"/>
       <c r="AG113" s="16"/>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH113" s="16"/>
+      <c r="AI113" s="16"/>
+      <c r="AJ113" s="16"/>
+      <c r="AK113" s="16"/>
+      <c r="AL113" s="16"/>
+      <c r="AM113" s="16"/>
+      <c r="AN113" s="16"/>
+      <c r="AO113" s="16"/>
+    </row>
+    <row r="114" spans="1:41">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="11"/>
@@ -6762,8 +8360,16 @@
       <c r="AE114" s="16"/>
       <c r="AF114" s="16"/>
       <c r="AG114" s="16"/>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH114" s="16"/>
+      <c r="AI114" s="16"/>
+      <c r="AJ114" s="16"/>
+      <c r="AK114" s="16"/>
+      <c r="AL114" s="16"/>
+      <c r="AM114" s="16"/>
+      <c r="AN114" s="16"/>
+      <c r="AO114" s="16"/>
+    </row>
+    <row r="115" spans="1:41">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="11"/>
@@ -6797,8 +8403,16 @@
       <c r="AE115" s="16"/>
       <c r="AF115" s="16"/>
       <c r="AG115" s="16"/>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH115" s="16"/>
+      <c r="AI115" s="16"/>
+      <c r="AJ115" s="16"/>
+      <c r="AK115" s="16"/>
+      <c r="AL115" s="16"/>
+      <c r="AM115" s="16"/>
+      <c r="AN115" s="16"/>
+      <c r="AO115" s="16"/>
+    </row>
+    <row r="116" spans="1:41">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="11"/>
@@ -6832,8 +8446,16 @@
       <c r="AE116" s="16"/>
       <c r="AF116" s="16"/>
       <c r="AG116" s="16"/>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH116" s="16"/>
+      <c r="AI116" s="16"/>
+      <c r="AJ116" s="16"/>
+      <c r="AK116" s="16"/>
+      <c r="AL116" s="16"/>
+      <c r="AM116" s="16"/>
+      <c r="AN116" s="16"/>
+      <c r="AO116" s="16"/>
+    </row>
+    <row r="117" spans="1:41">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="11"/>
@@ -6867,8 +8489,16 @@
       <c r="AE117" s="16"/>
       <c r="AF117" s="16"/>
       <c r="AG117" s="16"/>
-    </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH117" s="16"/>
+      <c r="AI117" s="16"/>
+      <c r="AJ117" s="16"/>
+      <c r="AK117" s="16"/>
+      <c r="AL117" s="16"/>
+      <c r="AM117" s="16"/>
+      <c r="AN117" s="16"/>
+      <c r="AO117" s="16"/>
+    </row>
+    <row r="118" spans="1:41">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="11"/>
@@ -6902,8 +8532,16 @@
       <c r="AE118" s="16"/>
       <c r="AF118" s="16"/>
       <c r="AG118" s="16"/>
-    </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH118" s="16"/>
+      <c r="AI118" s="16"/>
+      <c r="AJ118" s="16"/>
+      <c r="AK118" s="16"/>
+      <c r="AL118" s="16"/>
+      <c r="AM118" s="16"/>
+      <c r="AN118" s="16"/>
+      <c r="AO118" s="16"/>
+    </row>
+    <row r="119" spans="1:41">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
@@ -6937,8 +8575,16 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="17"/>
       <c r="AG119" s="17"/>
-    </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH119" s="17"/>
+      <c r="AI119" s="17"/>
+      <c r="AJ119" s="17"/>
+      <c r="AK119" s="17"/>
+      <c r="AL119" s="17"/>
+      <c r="AM119" s="17"/>
+      <c r="AN119" s="17"/>
+      <c r="AO119" s="17"/>
+    </row>
+    <row r="120" spans="1:41">
       <c r="A120" s="13"/>
       <c r="B120" s="6"/>
       <c r="C120" s="14"/>
@@ -6972,8 +8618,16 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="17"/>
       <c r="AG120" s="17"/>
-    </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH120" s="17"/>
+      <c r="AI120" s="17"/>
+      <c r="AJ120" s="17"/>
+      <c r="AK120" s="17"/>
+      <c r="AL120" s="17"/>
+      <c r="AM120" s="17"/>
+      <c r="AN120" s="17"/>
+      <c r="AO120" s="17"/>
+    </row>
+    <row r="121" spans="1:41">
       <c r="A121" s="13"/>
       <c r="B121" s="6"/>
       <c r="C121" s="14"/>
@@ -7007,8 +8661,16 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="17"/>
       <c r="AG121" s="17"/>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH121" s="17"/>
+      <c r="AI121" s="17"/>
+      <c r="AJ121" s="17"/>
+      <c r="AK121" s="17"/>
+      <c r="AL121" s="17"/>
+      <c r="AM121" s="17"/>
+      <c r="AN121" s="17"/>
+      <c r="AO121" s="17"/>
+    </row>
+    <row r="122" spans="1:41">
       <c r="A122" s="13"/>
       <c r="B122" s="6"/>
       <c r="C122" s="14"/>
@@ -7042,8 +8704,16 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="17"/>
       <c r="AG122" s="17"/>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH122" s="17"/>
+      <c r="AI122" s="17"/>
+      <c r="AJ122" s="17"/>
+      <c r="AK122" s="17"/>
+      <c r="AL122" s="17"/>
+      <c r="AM122" s="17"/>
+      <c r="AN122" s="17"/>
+      <c r="AO122" s="17"/>
+    </row>
+    <row r="123" spans="1:41">
       <c r="A123" s="13"/>
       <c r="B123" s="6"/>
       <c r="C123" s="14"/>
@@ -7077,8 +8747,16 @@
       <c r="AE123" s="17"/>
       <c r="AF123" s="17"/>
       <c r="AG123" s="17"/>
-    </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH123" s="17"/>
+      <c r="AI123" s="17"/>
+      <c r="AJ123" s="17"/>
+      <c r="AK123" s="17"/>
+      <c r="AL123" s="17"/>
+      <c r="AM123" s="17"/>
+      <c r="AN123" s="17"/>
+      <c r="AO123" s="17"/>
+    </row>
+    <row r="124" spans="1:41">
       <c r="A124" s="13"/>
       <c r="B124" s="6"/>
       <c r="C124" s="14"/>
@@ -7112,8 +8790,16 @@
       <c r="AE124" s="17"/>
       <c r="AF124" s="17"/>
       <c r="AG124" s="17"/>
-    </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH124" s="17"/>
+      <c r="AI124" s="17"/>
+      <c r="AJ124" s="17"/>
+      <c r="AK124" s="17"/>
+      <c r="AL124" s="17"/>
+      <c r="AM124" s="17"/>
+      <c r="AN124" s="17"/>
+      <c r="AO124" s="17"/>
+    </row>
+    <row r="125" spans="1:41">
       <c r="A125" s="13"/>
       <c r="B125" s="6"/>
       <c r="C125" s="14"/>
@@ -7147,8 +8833,16 @@
       <c r="AE125" s="17"/>
       <c r="AF125" s="17"/>
       <c r="AG125" s="17"/>
-    </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH125" s="17"/>
+      <c r="AI125" s="17"/>
+      <c r="AJ125" s="17"/>
+      <c r="AK125" s="17"/>
+      <c r="AL125" s="17"/>
+      <c r="AM125" s="17"/>
+      <c r="AN125" s="17"/>
+      <c r="AO125" s="17"/>
+    </row>
+    <row r="126" spans="1:41">
       <c r="A126" s="13"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
@@ -7182,8 +8876,16 @@
       <c r="AE126" s="17"/>
       <c r="AF126" s="17"/>
       <c r="AG126" s="17"/>
-    </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH126" s="17"/>
+      <c r="AI126" s="17"/>
+      <c r="AJ126" s="17"/>
+      <c r="AK126" s="17"/>
+      <c r="AL126" s="17"/>
+      <c r="AM126" s="17"/>
+      <c r="AN126" s="17"/>
+      <c r="AO126" s="17"/>
+    </row>
+    <row r="127" spans="1:41">
       <c r="A127" s="13"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
@@ -7217,8 +8919,16 @@
       <c r="AE127" s="17"/>
       <c r="AF127" s="17"/>
       <c r="AG127" s="17"/>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH127" s="17"/>
+      <c r="AI127" s="17"/>
+      <c r="AJ127" s="17"/>
+      <c r="AK127" s="17"/>
+      <c r="AL127" s="17"/>
+      <c r="AM127" s="17"/>
+      <c r="AN127" s="17"/>
+      <c r="AO127" s="17"/>
+    </row>
+    <row r="128" spans="1:41">
       <c r="A128" s="13"/>
       <c r="B128" s="6"/>
       <c r="C128" s="14"/>
@@ -7252,8 +8962,16 @@
       <c r="AE128" s="17"/>
       <c r="AF128" s="17"/>
       <c r="AG128" s="17"/>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH128" s="17"/>
+      <c r="AI128" s="17"/>
+      <c r="AJ128" s="17"/>
+      <c r="AK128" s="17"/>
+      <c r="AL128" s="17"/>
+      <c r="AM128" s="17"/>
+      <c r="AN128" s="17"/>
+      <c r="AO128" s="17"/>
+    </row>
+    <row r="129" spans="1:41">
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
       <c r="C129" s="14"/>
@@ -7287,8 +9005,16 @@
       <c r="AE129" s="17"/>
       <c r="AF129" s="17"/>
       <c r="AG129" s="17"/>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH129" s="17"/>
+      <c r="AI129" s="17"/>
+      <c r="AJ129" s="17"/>
+      <c r="AK129" s="17"/>
+      <c r="AL129" s="17"/>
+      <c r="AM129" s="17"/>
+      <c r="AN129" s="17"/>
+      <c r="AO129" s="17"/>
+    </row>
+    <row r="130" spans="1:41">
       <c r="A130" s="13"/>
       <c r="B130" s="6"/>
       <c r="C130" s="14"/>
@@ -7322,8 +9048,16 @@
       <c r="AE130" s="17"/>
       <c r="AF130" s="17"/>
       <c r="AG130" s="17"/>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH130" s="17"/>
+      <c r="AI130" s="17"/>
+      <c r="AJ130" s="17"/>
+      <c r="AK130" s="17"/>
+      <c r="AL130" s="17"/>
+      <c r="AM130" s="17"/>
+      <c r="AN130" s="17"/>
+      <c r="AO130" s="17"/>
+    </row>
+    <row r="131" spans="1:41">
       <c r="A131" s="13"/>
       <c r="B131" s="6"/>
       <c r="C131" s="14"/>
@@ -7357,8 +9091,16 @@
       <c r="AE131" s="17"/>
       <c r="AF131" s="17"/>
       <c r="AG131" s="17"/>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH131" s="17"/>
+      <c r="AI131" s="17"/>
+      <c r="AJ131" s="17"/>
+      <c r="AK131" s="17"/>
+      <c r="AL131" s="17"/>
+      <c r="AM131" s="17"/>
+      <c r="AN131" s="17"/>
+      <c r="AO131" s="17"/>
+    </row>
+    <row r="132" spans="1:41">
       <c r="A132" s="13"/>
       <c r="B132" s="6"/>
       <c r="C132" s="14"/>
@@ -7392,8 +9134,16 @@
       <c r="AE132" s="17"/>
       <c r="AF132" s="17"/>
       <c r="AG132" s="17"/>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH132" s="17"/>
+      <c r="AI132" s="17"/>
+      <c r="AJ132" s="17"/>
+      <c r="AK132" s="17"/>
+      <c r="AL132" s="17"/>
+      <c r="AM132" s="17"/>
+      <c r="AN132" s="17"/>
+      <c r="AO132" s="17"/>
+    </row>
+    <row r="133" spans="1:41">
       <c r="A133" s="13"/>
       <c r="B133" s="6"/>
       <c r="C133" s="14"/>
@@ -7427,8 +9177,16 @@
       <c r="AE133" s="17"/>
       <c r="AF133" s="17"/>
       <c r="AG133" s="17"/>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH133" s="17"/>
+      <c r="AI133" s="17"/>
+      <c r="AJ133" s="17"/>
+      <c r="AK133" s="17"/>
+      <c r="AL133" s="17"/>
+      <c r="AM133" s="17"/>
+      <c r="AN133" s="17"/>
+      <c r="AO133" s="17"/>
+    </row>
+    <row r="134" spans="1:41">
       <c r="A134" s="13"/>
       <c r="B134" s="6"/>
       <c r="C134" s="14"/>
@@ -7462,8 +9220,16 @@
       <c r="AE134" s="17"/>
       <c r="AF134" s="17"/>
       <c r="AG134" s="17"/>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH134" s="17"/>
+      <c r="AI134" s="17"/>
+      <c r="AJ134" s="17"/>
+      <c r="AK134" s="17"/>
+      <c r="AL134" s="17"/>
+      <c r="AM134" s="17"/>
+      <c r="AN134" s="17"/>
+      <c r="AO134" s="17"/>
+    </row>
+    <row r="135" spans="1:41">
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
       <c r="C135" s="14"/>
@@ -7497,8 +9263,16 @@
       <c r="AE135" s="17"/>
       <c r="AF135" s="17"/>
       <c r="AG135" s="17"/>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH135" s="17"/>
+      <c r="AI135" s="17"/>
+      <c r="AJ135" s="17"/>
+      <c r="AK135" s="17"/>
+      <c r="AL135" s="17"/>
+      <c r="AM135" s="17"/>
+      <c r="AN135" s="17"/>
+      <c r="AO135" s="17"/>
+    </row>
+    <row r="136" spans="1:41">
       <c r="A136" s="13"/>
       <c r="B136" s="6"/>
       <c r="C136" s="14"/>
@@ -7532,8 +9306,16 @@
       <c r="AE136" s="17"/>
       <c r="AF136" s="17"/>
       <c r="AG136" s="17"/>
-    </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH136" s="17"/>
+      <c r="AI136" s="17"/>
+      <c r="AJ136" s="17"/>
+      <c r="AK136" s="17"/>
+      <c r="AL136" s="17"/>
+      <c r="AM136" s="17"/>
+      <c r="AN136" s="17"/>
+      <c r="AO136" s="17"/>
+    </row>
+    <row r="137" spans="1:41">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="14"/>
@@ -7567,6 +9349,14 @@
       <c r="AE137" s="17"/>
       <c r="AF137" s="17"/>
       <c r="AG137" s="17"/>
+      <c r="AH137" s="17"/>
+      <c r="AI137" s="17"/>
+      <c r="AJ137" s="17"/>
+      <c r="AK137" s="17"/>
+      <c r="AL137" s="17"/>
+      <c r="AM137" s="17"/>
+      <c r="AN137" s="17"/>
+      <c r="AO137" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7574,16 +9364,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:AG137">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="ㅁ">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="ㅁ">
       <formula>NOT(ISERROR(SEARCH("ㅁ",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="ㅇ">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="ㅇ">
       <formula>NOT(ISERROR(SEARCH("ㅇ",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:AG1048576">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="완성">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="완성">
       <formula>NOT(ISERROR(SEARCH("완성",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AO137">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="ㅁ">
+      <formula>NOT(ISERROR(SEARCH("ㅁ",AH3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="ㅇ">
+      <formula>NOT(ISERROR(SEARCH("ㅇ",AH3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH1:AO1048576">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="완성">
+      <formula>NOT(ISERROR(SEARCH("완성",AH1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7599,55 +9402,55 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="2.875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6">
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
       <c r="E5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
       <c r="E6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
       <c r="F8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
       <c r="F9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
       <c r="D14" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7659,13 +9462,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDBBD48-A97F-4A43-B79B-8BFF01AAD9D7}">
-  <dimension ref="F13:N25"/>
+  <dimension ref="F13:AY60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="E40:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="11.125" style="5" bestFit="1" customWidth="1"/>
@@ -7674,317 +9477,762 @@
     <col min="12" max="12" width="10.125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.75" style="5" customWidth="1"/>
     <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="5.75" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+    <col min="31" max="31" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.25" customWidth="1"/>
+    <col min="40" max="40" width="12.375" customWidth="1"/>
+    <col min="45" max="45" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.125" customWidth="1"/>
+    <col min="47" max="47" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F13" s="28" t="s">
+    <row r="13" spans="6:39">
+      <c r="F13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="29">
+      <c r="G13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="W13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="X13" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y13" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="6:39">
+      <c r="F14" s="28">
         <v>1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>44224</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>800</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" s="29">
+      <c r="I14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="28">
         <v>1</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="30">
         <f>SUM(H14:H19)</f>
         <v>32700</v>
       </c>
-    </row>
-    <row r="15" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="32">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="R14" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14" s="67">
+        <v>600000</v>
+      </c>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="74">
+        <f>W14+X14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="6:39">
+      <c r="F15" s="31">
         <f>F14+1</f>
         <v>2</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>44224</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>2600</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="32">
+      <c r="I15" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="31">
         <v>1</v>
       </c>
-      <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F16" s="32">
-        <f t="shared" ref="F16:F22" si="0">F15+1</f>
+      <c r="N15" s="33"/>
+      <c r="P15" s="1">
+        <f>P14+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R15" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="74">
+        <f t="shared" ref="Y15:Y17" si="0">W15+X15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD15" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF15" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH15" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI15" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ15" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK15" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL15" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM15" s="75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="6:39">
+      <c r="F16" s="31">
+        <f t="shared" ref="F16:F22" si="1">F15+1</f>
         <v>3</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>44224</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="33">
         <v>11000</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="32">
+      <c r="I16" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="31">
         <v>1</v>
       </c>
-      <c r="N16" s="34"/>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F17" s="32">
+      <c r="N16" s="33"/>
+      <c r="P16" s="1">
+        <f t="shared" ref="P16:P17" si="2">P15+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V16" s="68">
+        <v>100000</v>
+      </c>
+      <c r="W16" s="68">
+        <v>600000</v>
+      </c>
+      <c r="X16" s="68">
+        <v>100000</v>
+      </c>
+      <c r="Y16" s="74">
         <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG16" s="6" t="str">
+        <f>VLOOKUP(AF16,$Q$13:$R$17,2,0)</f>
+        <v>김기민</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI16" s="76">
+        <v>44590</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK16" s="77">
+        <v>60000</v>
+      </c>
+      <c r="AL16" s="77">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="6:39">
+      <c r="F17" s="31">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>44224</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>2800</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="32">
+      <c r="I17" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="31">
         <v>1</v>
       </c>
-      <c r="N17" s="34"/>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F18" s="32">
+      <c r="N17" s="33"/>
+      <c r="P17" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R17" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="V17" s="25">
+        <v>0</v>
+      </c>
+      <c r="W17" s="68">
+        <v>0</v>
+      </c>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="74">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD17" s="8">
+        <f>AD16+1</f>
+        <v>2</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG17" s="8" t="str">
+        <f>VLOOKUP(AF17,$Q$13:$R$17,2,0)</f>
+        <v>김기민</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI17" s="78">
+        <v>44590</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK17" s="79">
+        <v>36000</v>
+      </c>
+      <c r="AL17" s="79">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="6:39">
+      <c r="F18" s="31">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>44224</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <v>8800</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="32">
+      <c r="I18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="31">
         <v>1</v>
       </c>
-      <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="35">
-        <f t="shared" si="0"/>
+      <c r="N18" s="33"/>
+      <c r="AD18" s="8">
+        <f t="shared" ref="AD18:AD22" si="3">AD17+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI18" s="78">
+        <f>AI17-2</f>
+        <v>44588</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK18" s="79">
+        <v>48000</v>
+      </c>
+      <c r="AL18" s="79">
+        <f>AK18+AL20</f>
+        <v>116000</v>
+      </c>
+      <c r="AM18" s="83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="6:39">
+      <c r="F19" s="34">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>44224</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>6700</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="35">
+      <c r="I19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="34">
         <v>1</v>
       </c>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F20" s="29">
-        <f t="shared" si="0"/>
+      <c r="N19" s="36"/>
+      <c r="AD19" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI19" s="78">
+        <f>AI18</f>
+        <v>44588</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK19" s="79">
+        <v>9000</v>
+      </c>
+      <c r="AL19" s="79">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="6:39">
+      <c r="F20" s="28">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <v>44224</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <v>4000</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="29">
+      <c r="I20" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="28">
         <v>2</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="30">
         <f>SUM(H20:H25)</f>
         <v>10200</v>
       </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F21" s="32">
-        <f t="shared" si="0"/>
+      <c r="AD20" s="8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI20" s="78">
+        <f>AI19-2</f>
+        <v>44586</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK20" s="79">
+        <v>36000</v>
+      </c>
+      <c r="AL20" s="79">
+        <f>AK20+AL21</f>
+        <v>68000</v>
+      </c>
+      <c r="AM20" s="83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="6:39">
+      <c r="F21" s="31">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>44224</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>3000</v>
       </c>
-      <c r="I21" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="32">
+      <c r="I21" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="31">
         <v>2</v>
       </c>
-      <c r="N21" s="34"/>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F22" s="35">
-        <f t="shared" si="0"/>
+      <c r="N21" s="33"/>
+      <c r="AD21" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI21" s="78">
+        <f>AI20-2</f>
+        <v>44584</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK21" s="79">
+        <v>32000</v>
+      </c>
+      <c r="AL21" s="79">
+        <f>AK21</f>
+        <v>32000</v>
+      </c>
+      <c r="AM21" s="83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="6:39">
+      <c r="F22" s="34">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>44224</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>3200</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22" s="35">
+      <c r="I22" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="34">
         <v>2</v>
       </c>
-      <c r="N22" s="37"/>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="36"/>
+      <c r="AD22" s="13">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI22" s="80">
+        <v>44583</v>
+      </c>
+      <c r="AJ22" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK22" s="81">
+        <v>-500000</v>
+      </c>
+      <c r="AL22" s="81">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="6:39">
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="30"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24" spans="6:39">
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="30"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25" spans="6:39">
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -7994,6 +10242,854 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="27" spans="6:39">
+      <c r="AD27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="6:39">
+      <c r="AD29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG29" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH29" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI29" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ29" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK29" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="6:39">
+      <c r="AD30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="76">
+        <v>44590</v>
+      </c>
+      <c r="AF30" s="77">
+        <v>60000</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK30" s="89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="6:39">
+      <c r="AD31" s="8">
+        <f>AD30+1</f>
+        <v>2</v>
+      </c>
+      <c r="AE31" s="78">
+        <v>44590</v>
+      </c>
+      <c r="AF31" s="79">
+        <v>36000</v>
+      </c>
+      <c r="AG31" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI31" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK31" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="6:39">
+      <c r="AD32" s="8">
+        <f t="shared" ref="AD32:AD35" si="4">AD31+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE32" s="78">
+        <f>AE31-2</f>
+        <v>44588</v>
+      </c>
+      <c r="AF32" s="79">
+        <v>48000</v>
+      </c>
+      <c r="AG32" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI32" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ32" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK32" s="79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="30:43">
+      <c r="AD33" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AE33" s="78">
+        <f>AE32</f>
+        <v>44588</v>
+      </c>
+      <c r="AF33" s="79">
+        <v>9000</v>
+      </c>
+      <c r="AG33" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ33" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK33" s="79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="30:43">
+      <c r="AD34" s="8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AE34" s="78">
+        <f>AE33-2</f>
+        <v>44586</v>
+      </c>
+      <c r="AF34" s="79">
+        <v>36000</v>
+      </c>
+      <c r="AG34" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI34" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK34" s="79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="30:43">
+      <c r="AD35" s="13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AE35" s="87">
+        <f>AE34-2</f>
+        <v>44584</v>
+      </c>
+      <c r="AF35" s="88">
+        <v>32000</v>
+      </c>
+      <c r="AG35" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH35" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI35" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK35" s="88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="30:43" ht="17.25" thickBot="1"/>
+    <row r="41" spans="30:43">
+      <c r="AH41" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI41" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ41" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK41" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL41" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM41" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN41" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO41" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP41" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ41" s="93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="30:43">
+      <c r="AH42" s="94">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ42" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK42" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL42" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM42" s="96">
+        <v>44590</v>
+      </c>
+      <c r="AN42" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO42" s="97">
+        <v>60000</v>
+      </c>
+      <c r="AP42" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ42" s="99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="30:43">
+      <c r="AH43" s="94">
+        <v>2</v>
+      </c>
+      <c r="AI43" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ43" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK43" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL43" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM43" s="96">
+        <v>44590</v>
+      </c>
+      <c r="AN43" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO43" s="97">
+        <v>36000</v>
+      </c>
+      <c r="AP43" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ43" s="99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="30:43">
+      <c r="AH44" s="94">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ44" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK44" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL44" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM44" s="96">
+        <v>44588</v>
+      </c>
+      <c r="AN44" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO44" s="97">
+        <v>48000</v>
+      </c>
+      <c r="AP44" s="97">
+        <v>116000</v>
+      </c>
+      <c r="AQ44" s="100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="30:43" ht="28.5">
+      <c r="AH45" s="94">
+        <v>4</v>
+      </c>
+      <c r="AI45" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ45" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK45" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL45" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM45" s="96">
+        <v>44588</v>
+      </c>
+      <c r="AN45" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO45" s="97">
+        <v>9000</v>
+      </c>
+      <c r="AP45" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ45" s="99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="30:43" ht="28.5">
+      <c r="AH46" s="94">
+        <v>5</v>
+      </c>
+      <c r="AI46" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ46" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK46" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL46" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM46" s="96">
+        <v>44586</v>
+      </c>
+      <c r="AN46" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO46" s="97">
+        <v>36000</v>
+      </c>
+      <c r="AP46" s="97">
+        <v>68000</v>
+      </c>
+      <c r="AQ46" s="100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="30:43">
+      <c r="AH47" s="94">
+        <v>6</v>
+      </c>
+      <c r="AI47" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ47" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK47" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL47" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM47" s="96">
+        <v>44584</v>
+      </c>
+      <c r="AN47" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO47" s="97">
+        <v>32000</v>
+      </c>
+      <c r="AP47" s="97">
+        <v>32000</v>
+      </c>
+      <c r="AQ47" s="100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="30:43" ht="29.25" thickBot="1">
+      <c r="AH48" s="101">
+        <v>7</v>
+      </c>
+      <c r="AI48" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ48" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK48" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL48" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM48" s="103">
+        <v>44583</v>
+      </c>
+      <c r="AN48" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO48" s="104">
+        <v>-500000</v>
+      </c>
+      <c r="AP48" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ48" s="106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="45:51" ht="17.25" thickBot="1"/>
+    <row r="50" spans="45:51">
+      <c r="AS50" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT50" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU50" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV50" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW50" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX50" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY50" s="108" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="45:51">
+      <c r="AS51" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT51" s="114"/>
+      <c r="AU51" s="114"/>
+      <c r="AV51" s="115"/>
+      <c r="AW51" s="119">
+        <f>SUM(AW52:AW59)</f>
+        <v>128000</v>
+      </c>
+      <c r="AX51" s="117" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY51" s="118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="45:51">
+      <c r="AS52" s="94">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="107" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU52" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV52" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW52" s="113">
+        <v>1000</v>
+      </c>
+      <c r="AX52" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY52" s="107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="45:51">
+      <c r="AS53" s="94">
+        <v>2</v>
+      </c>
+      <c r="AT53" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU53" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV53" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW53" s="113">
+        <v>30000</v>
+      </c>
+      <c r="AX53" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY53" s="109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="45:51">
+      <c r="AS54" s="94">
+        <f>AS53+1</f>
+        <v>3</v>
+      </c>
+      <c r="AT54" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU54" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV54" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW54" s="113">
+        <v>10000</v>
+      </c>
+      <c r="AX54" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY54" s="109" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="45:51">
+      <c r="AS55" s="94">
+        <f t="shared" ref="AS55:AS59" si="5">AS54+1</f>
+        <v>4</v>
+      </c>
+      <c r="AT55" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU55" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV55" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW55" s="113">
+        <v>20000</v>
+      </c>
+      <c r="AX55" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY55" s="110" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="45:51">
+      <c r="AS56" s="94">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AT56" s="110" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU56" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV56" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW56" s="113">
+        <v>70000</v>
+      </c>
+      <c r="AX56" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY56" s="110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="45:51">
+      <c r="AS57" s="94">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AT57" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU57" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV57" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW57" s="113">
+        <v>-500</v>
+      </c>
+      <c r="AX57" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY57" s="107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="45:51">
+      <c r="AS58" s="94">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AT58" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU58" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV58" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW58" s="113">
+        <v>-2000</v>
+      </c>
+      <c r="AX58" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY58" s="107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="45:51">
+      <c r="AS59" s="94">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AT59" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU59" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV59" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW59" s="113">
+        <v>-500</v>
+      </c>
+      <c r="AX59" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY59" s="109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="45:51" ht="17.25" thickBot="1">
+      <c r="AS60" s="101">
+        <v>7</v>
+      </c>
+      <c r="AT60" s="102"/>
+      <c r="AU60" s="102"/>
+      <c r="AV60" s="103"/>
+      <c r="AW60" s="103"/>
+      <c r="AX60" s="102"/>
+      <c r="AY60" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AS51:AV51"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E451D8-2AEE-463E-B832-F4473A100FC3}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="109.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="89.45" customHeight="1">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="87" customHeight="1">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8002,15 +11098,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB0CF05-2F40-4BA0-A62D-523A7811640F}">
   <dimension ref="D3:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="OO23" sqref="OO23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="11" width="4" style="5" customWidth="1"/>
@@ -8018,297 +11114,297 @@
     <col min="21" max="23" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" spans="4:23" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="42">
+    <row r="3" spans="4:23" ht="17.25">
+      <c r="D3" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+    </row>
+    <row r="4" spans="4:23" ht="12" customHeight="1"/>
+    <row r="5" spans="4:23" ht="19.5" customHeight="1">
+      <c r="D5" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="38">
         <v>31</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="38">
         <v>1</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="38">
         <v>2</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="38">
         <f>G5+1</f>
         <v>3</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="38">
         <f t="shared" ref="I5:K5" si="0">H5+1</f>
         <v>4</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L5" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="40"/>
-      <c r="E6" s="42">
+      <c r="L5" s="72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23" ht="19.5" customHeight="1">
+      <c r="D6" s="73"/>
+      <c r="E6" s="38">
         <f>K5+1</f>
         <v>7</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="38">
         <f>E6+1</f>
         <v>8</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="38">
         <f t="shared" ref="G6:K6" si="1">F6+1</f>
         <v>9</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="38">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="38">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="38">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="P6" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="40"/>
-      <c r="E7" s="42">
+      <c r="L6" s="72"/>
+      <c r="P6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23" ht="19.5" customHeight="1">
+      <c r="D7" s="73"/>
+      <c r="E7" s="38">
         <f>K6+1</f>
         <v>14</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="38">
         <f t="shared" ref="F7:K7" si="2">E7+1</f>
         <v>15</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="38">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="38">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="38">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="38">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="38">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="P7" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="40"/>
-      <c r="E8" s="42">
+      <c r="L7" s="72"/>
+      <c r="P7" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23" ht="19.5" customHeight="1">
+      <c r="D8" s="73"/>
+      <c r="E8" s="38">
         <f>K7+1</f>
         <v>21</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="38">
         <f t="shared" ref="F8:K9" si="3">E8+1</f>
         <v>22</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="38">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="38">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="38">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="38">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="38">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="P8" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="40"/>
-      <c r="E9" s="42">
+      <c r="L8" s="72"/>
+      <c r="P8" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23" ht="19.5" customHeight="1">
+      <c r="D9" s="73"/>
+      <c r="E9" s="38">
         <f>K8+1</f>
         <v>28</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="38">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="38">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="38">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="38">
         <v>2</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="38">
         <v>3</v>
       </c>
-      <c r="L9" s="39"/>
-    </row>
-    <row r="10" spans="4:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="4:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="4:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="V14" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="W14" s="54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="4:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U15" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="V15" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="W15" s="56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="4:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U16" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="V16" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="W16" s="62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U17" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="V17" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="W17" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y17" s="60"/>
-    </row>
-    <row r="18" spans="21:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U19" s="65" t="s">
+      <c r="L9" s="72"/>
+    </row>
+    <row r="10" spans="4:23" ht="19.5" customHeight="1"/>
+    <row r="13" spans="4:23" ht="25.5" customHeight="1"/>
+    <row r="14" spans="4:23" ht="24.75" customHeight="1">
+      <c r="U14" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="V14" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23" ht="24.75" customHeight="1">
+      <c r="U15" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="V15" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="W15" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" ht="24.75" customHeight="1">
+      <c r="U16" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="W16" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="21:25" ht="24.75" customHeight="1">
+      <c r="U17" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="V17" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="W17" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="56"/>
+    </row>
+    <row r="18" spans="21:25" ht="25.5" customHeight="1"/>
+    <row r="19" spans="21:25" ht="24.75" customHeight="1">
+      <c r="U19" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="V19" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="W19" s="50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="21:25" ht="24.75" customHeight="1">
+      <c r="U20" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="V20" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="V19" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="W19" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U20" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="V20" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="W20" s="56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U21" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="V21" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="W21" s="62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="21:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U22" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="V22" s="58" t="s">
+      <c r="W20" s="52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="21:25" ht="24.75" customHeight="1">
+      <c r="U21" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y22" s="60"/>
+      <c r="V21" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="W21" s="58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="21:25" ht="24.75" customHeight="1">
+      <c r="U22" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="V22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="W22" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8321,382 +11417,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E451D8-2AEE-463E-B832-F4473A100FC3}">
-  <dimension ref="B2:E19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="109.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="89.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36391A5-92A5-485F-80B8-B9C4F39C3C26}">
-  <dimension ref="C1:F28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="45.6" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="95.875" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="str">
-        <f>"{name:"&amp;D3&amp;", href:"""&amp;C3&amp;"""},"</f>
-        <v>{name:"현대자동차그룹", href:"http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai"},</v>
-      </c>
-      <c r="F3" t="str">
-        <f>E3&amp;E4&amp;E5&amp;E6&amp;E7&amp;E8&amp;E9&amp;E10&amp;E11&amp;E12&amp;E13&amp;E14</f>
-        <v>{name:"현대자동차그룹", href:"http://www.hyundai.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_hyundai"},{name:"브랜드", href:"http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide"},{name:"기아블로그 'PLAY Kia' ", href:"http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog"},{name:"기아 드라이빙 아카데미", href:"https://drivingexperience.kia.com"},{name:"인재 채용", href:"http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit"},{name:"IR", href:"https://worldwide.kia.com/kr/company/ir"},{name:"동반성장", href:"http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin"},{name:"지속가능경영", href:"https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works"},{name:"글로벌경영연구소", href:"http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic"},{name:"기아 타이거즈", href:"http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers"},{name:"기아군용", href:"http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military"},{name:"Kia Connect", href:"http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo"},</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E14" si="0">"{name:"&amp;D4&amp;", href:"""&amp;C4&amp;"""},"</f>
-        <v>{name:"브랜드", href:"http://www.kia.com/worldwide/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_worldwide"},</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"기아블로그 'PLAY Kia' ", href:"http://play.kia.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_playkiablog"},</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"기아 드라이빙 아카데미", href:"https://drivingexperience.kia.com"},</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"인재 채용", href:"http://career.kia.com/kfront/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_recruit"},</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"IR", href:"https://worldwide.kia.com/kr/company/ir"},</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"동반성장", href:"http://winwin.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_winwin"},</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"지속가능경영", href:"https://worldwide.kia.com/kr/company/sustainability/csr/how-it-works"},</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"글로벌경영연구소", href:"http://gbic.hyundai.com/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_gbic"},</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"기아 타이거즈", href:"http://www.tigers.co.kr/?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_tigers"},</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"기아군용", href:"http://military.kia.com/kr/main.do?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_footer_military"},</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"Kia Connect", href:"http://uvo.kia.com/main/index.html?utm_source=kmc_kr&amp;amp;utm_medium=website&amp;amp;utm_campaign=kia_uvo"},</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="3:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="3:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
-    </row>
-    <row r="28" spans="3:3" ht="193.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{45FF0E80-E03C-471A-B370-AD22A6A353D4}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{9932795E-AC29-48AB-9EFD-EAB3749746F4}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{E18DB26F-70EC-4D36-B951-379A211235FB}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{AF222D13-3A32-48DD-8F49-3CCAFD5A59FE}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{829FA8E5-1CD3-4786-A513-7993F0CC8A87}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{BF376FFD-E5B4-49E5-A29E-68DD5BF2D939}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{1FC90D3E-E740-490E-B01A-D7247DDBD98B}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{A7F56A31-2626-4D13-A011-1B97E774943C}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{128F0860-3FCD-45B2-9AE9-9609545B9A0F}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{3E61DB85-BE7C-4DEC-B7BF-51ABC0E21CF5}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{A164889C-33CF-4177-8916-F3EC1C337B27}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{1685E8BB-25B8-4F4C-9E37-17A174262EE5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3A0074-AB0F-40FD-8EA9-617C3472991B}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="30" width="9.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8815,7 +11552,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -8851,7 +11588,7 @@
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="8">
         <f>A2+1</f>
         <v>2</v>
@@ -8888,7 +11625,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="8">
         <f t="shared" ref="A4:A24" si="1">A3+1</f>
         <v>3</v>
@@ -8925,7 +11662,7 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8962,7 +11699,7 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8999,7 +11736,7 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9036,7 +11773,7 @@
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9071,7 +11808,7 @@
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9106,7 +11843,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9141,7 +11878,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9176,7 +11913,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9211,7 +11948,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9246,7 +11983,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -9281,7 +12018,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -9316,7 +12053,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -9351,7 +12088,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -9386,7 +12123,7 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="8">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -9421,7 +12158,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -9456,7 +12193,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -9491,7 +12228,7 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -9526,7 +12263,7 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="8">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -9561,7 +12298,7 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="8">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -9596,7 +12333,7 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="13">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -9634,980 +12371,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:AB24">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ㅁ">
-      <formula>NOT(ISERROR(SEARCH("ㅁ",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="ㅇ">
-      <formula>NOT(ISERROR(SEARCH("ㅇ",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AD24">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ㅁ">
-      <formula>NOT(ISERROR(SEARCH("ㅁ",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="ㅇ">
-      <formula>NOT(ISERROR(SEARCH("ㅇ",AC2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A68942-5F90-43CA-90DC-BDDEE02DE528}">
-  <dimension ref="A1:AD24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="30" width="9.625" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>44621</v>
-      </c>
-      <c r="D1" s="4">
-        <f>C1+1</f>
-        <v>44622</v>
-      </c>
-      <c r="E1" s="4">
-        <f t="shared" ref="E1:AD1" si="0">D1+1</f>
-        <v>44623</v>
-      </c>
-      <c r="F1" s="4">
-        <f t="shared" si="0"/>
-        <v>44624</v>
-      </c>
-      <c r="G1" s="4">
-        <f t="shared" si="0"/>
-        <v>44625</v>
-      </c>
-      <c r="H1" s="4">
-        <f t="shared" si="0"/>
-        <v>44626</v>
-      </c>
-      <c r="I1" s="4">
-        <f t="shared" si="0"/>
-        <v>44627</v>
-      </c>
-      <c r="J1" s="4">
-        <f t="shared" si="0"/>
-        <v>44628</v>
-      </c>
-      <c r="K1" s="4">
-        <f t="shared" si="0"/>
-        <v>44629</v>
-      </c>
-      <c r="L1" s="4">
-        <f t="shared" si="0"/>
-        <v>44630</v>
-      </c>
-      <c r="M1" s="4">
-        <f t="shared" si="0"/>
-        <v>44631</v>
-      </c>
-      <c r="N1" s="4">
-        <f t="shared" si="0"/>
-        <v>44632</v>
-      </c>
-      <c r="O1" s="4">
-        <f t="shared" si="0"/>
-        <v>44633</v>
-      </c>
-      <c r="P1" s="4">
-        <f t="shared" si="0"/>
-        <v>44634</v>
-      </c>
-      <c r="Q1" s="4">
-        <f t="shared" si="0"/>
-        <v>44635</v>
-      </c>
-      <c r="R1" s="4">
-        <f t="shared" si="0"/>
-        <v>44636</v>
-      </c>
-      <c r="S1" s="4">
-        <f t="shared" si="0"/>
-        <v>44637</v>
-      </c>
-      <c r="T1" s="4">
-        <f t="shared" si="0"/>
-        <v>44638</v>
-      </c>
-      <c r="U1" s="4">
-        <f t="shared" si="0"/>
-        <v>44639</v>
-      </c>
-      <c r="V1" s="4">
-        <f t="shared" si="0"/>
-        <v>44640</v>
-      </c>
-      <c r="W1" s="4">
-        <f t="shared" si="0"/>
-        <v>44641</v>
-      </c>
-      <c r="X1" s="4">
-        <f t="shared" si="0"/>
-        <v>44642</v>
-      </c>
-      <c r="Y1" s="4">
-        <f t="shared" si="0"/>
-        <v>44643</v>
-      </c>
-      <c r="Z1" s="4">
-        <f t="shared" si="0"/>
-        <v>44644</v>
-      </c>
-      <c r="AA1" s="4">
-        <f t="shared" si="0"/>
-        <v>44645</v>
-      </c>
-      <c r="AB1" s="4">
-        <f t="shared" si="0"/>
-        <v>44646</v>
-      </c>
-      <c r="AC1" s="4">
-        <f t="shared" si="0"/>
-        <v>44647</v>
-      </c>
-      <c r="AD1" s="4">
-        <f t="shared" si="0"/>
-        <v>44648</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A24" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:AB24">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ㅁ">
       <formula>NOT(ISERROR(SEARCH("ㅁ",C2)))</formula>
     </cfRule>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14397A63-E25E-41DC-9A8F-D93DE7113C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1BDB7F-F765-40BF-AB4C-09182A873386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2415" windowWidth="21840" windowHeight="13740" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
   </bookViews>
   <sheets>
     <sheet name="toc" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="264">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,9 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅁ</t>
-  </si>
-  <si>
     <t>지역선택이 가능해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,42 +279,6 @@
 각각 별개의 class, link, div를 적용하고, 예외 케이스를 위한 v-if를 써야하기에 자료구조가 복잡해져야함을 알게 되었는데, 
 이게 효율적인 것인지 아니면 코드 난독화를 가중시키는지는 고민이 들었다.
 상황에 따라 유지보수 관점과 가독성 관점의 장단점을 비교해서 써야할 것 같다는 생각이 들었다. 그래도 어떤게 나은지 고민이 남았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피니쉬를 넣으면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복귀버튼을 누르면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1은 복귀를 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 n은 색깔이 살아난다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식레벨은 마더넘버에 자식번호 찾기를 해서 만든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1은 finNo를 새로 생성하되</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피니쉬테이블은 기본값이 레벨 1만보기이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 별로 +,- 가 제어 가능하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌상단에는 1,2,all버튼이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1093,6 +1054,68 @@
   </si>
   <si>
     <t>자산위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톳 300g
+두부 300g
+참기름 ½Tbsp (추가로 ½Tbsp 더 넣었어요)
+밀가루 1Tbsp
+볶은소금 ½tsp
+간마늘 ½tsp
+통깨 1Tbsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 테이블 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 스토어 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그에 맞는 메서드만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬스토리지 저장시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴지통, 그냥, 완성에 각각 분류가 잘 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프가 잘 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리 잘 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래그로 자리이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+,- 버튼 잘 작동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트의 역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출입력 seller컴포넌트분리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2013,9 +2036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,18 +2046,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2160,15 +2168,6 @@
     <xf numFmtId="41" fontId="10" fillId="10" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2178,12 +2177,45 @@
     <xf numFmtId="41" fontId="12" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2191,6 +2223,116 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2601,13 +2743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F662DC-0EEC-4621-A515-BF47FBB7871B}">
-  <dimension ref="A1:AO137"/>
+  <dimension ref="A1:BN141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
+      <selection pane="bottomRight" activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2615,19 +2757,18 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="27" width="9.625" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="41" width="9.625" style="5" customWidth="1"/>
+    <col min="4" max="31" width="9.625" style="5" hidden="1" customWidth="1"/>
+    <col min="32" max="42" width="9.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+    <row r="1" spans="1:66">
+      <c r="A1" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="5">
-        <f t="shared" ref="D1:AG1" si="0">COUNTA(D3:D135)</f>
+        <f t="shared" ref="D1:BN1" si="0">COUNTA(D3:D139)</f>
         <v>4</v>
       </c>
       <c r="E1" s="5">
@@ -2664,7 +2805,7 @@
       </c>
       <c r="M1" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1" s="5">
         <f t="shared" si="0"/>
@@ -2672,67 +2813,67 @@
       </c>
       <c r="O1" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P1" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R1" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S1" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T1" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA1" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB1" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD1" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE1" s="5">
         <f t="shared" si="0"/>
@@ -2744,47 +2885,147 @@
       </c>
       <c r="AG1" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH1" s="5">
-        <f t="shared" ref="AH1:AO1" si="1">COUNTA(AH3:AH135)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AI1" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AJ1" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM1" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN1" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AO1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AR1" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AS1" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AT1" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AK1" s="5">
-        <f t="shared" si="1"/>
+      <c r="AU1" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AV1" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AW1" s="5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL1" s="5">
-        <f t="shared" si="1"/>
+      <c r="AX1" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AY1" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM1" s="5">
-        <f t="shared" si="1"/>
+      <c r="AZ1" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN1" s="5">
-        <f t="shared" si="1"/>
+      <c r="BA1" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO1" s="5">
-        <f t="shared" si="1"/>
+      <c r="BB1" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="BC1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN1" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2797,106 +3038,106 @@
         <v>44566</v>
       </c>
       <c r="F2" s="19">
-        <f t="shared" ref="F2:AC2" si="2">E2+1</f>
+        <f t="shared" ref="F2:AC2" si="1">E2+1</f>
         <v>44567</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44568</v>
       </c>
       <c r="H2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44569</v>
       </c>
       <c r="I2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44570</v>
       </c>
       <c r="J2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44571</v>
       </c>
       <c r="K2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44572</v>
       </c>
       <c r="L2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44573</v>
       </c>
       <c r="M2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44574</v>
       </c>
       <c r="N2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44575</v>
       </c>
       <c r="O2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44576</v>
       </c>
       <c r="P2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44577</v>
       </c>
       <c r="Q2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44578</v>
       </c>
       <c r="R2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44579</v>
       </c>
       <c r="S2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44580</v>
       </c>
       <c r="T2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44581</v>
       </c>
       <c r="U2" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44582</v>
       </c>
       <c r="V2" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44583</v>
       </c>
       <c r="W2" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44584</v>
       </c>
       <c r="X2" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44585</v>
       </c>
       <c r="Y2" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44586</v>
       </c>
       <c r="Z2" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44587</v>
       </c>
       <c r="AA2" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44588</v>
       </c>
-      <c r="AB2" s="85">
-        <f t="shared" si="2"/>
+      <c r="AB2" s="80">
+        <f t="shared" si="1"/>
         <v>44589</v>
       </c>
-      <c r="AC2" s="85">
-        <f t="shared" si="2"/>
+      <c r="AC2" s="80">
+        <f t="shared" si="1"/>
         <v>44590</v>
       </c>
-      <c r="AD2" s="85">
+      <c r="AD2" s="80">
         <f>AC2+1</f>
         <v>44591</v>
       </c>
-      <c r="AE2" s="85">
+      <c r="AE2" s="80">
         <f>AD2+1</f>
         <v>44592</v>
       </c>
@@ -2904,49 +3145,117 @@
         <f>AE2+1</f>
         <v>44593</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="19">
         <f>AF2+1</f>
         <v>44594</v>
       </c>
-      <c r="AH2" s="4">
-        <f t="shared" ref="AH2:AO2" si="3">AG2+1</f>
+      <c r="AH2" s="19">
+        <f t="shared" ref="AH2:AO2" si="2">AG2+1</f>
         <v>44595</v>
       </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AI2" s="80">
+        <f t="shared" si="2"/>
         <v>44596</v>
       </c>
-      <c r="AJ2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AJ2" s="80">
+        <f t="shared" si="2"/>
         <v>44597</v>
       </c>
-      <c r="AK2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AK2" s="80">
+        <f t="shared" si="2"/>
         <v>44598</v>
       </c>
-      <c r="AL2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AL2" s="80">
+        <f t="shared" si="2"/>
         <v>44599</v>
       </c>
-      <c r="AM2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AM2" s="80">
+        <f t="shared" si="2"/>
         <v>44600</v>
       </c>
-      <c r="AN2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AN2" s="80">
+        <f t="shared" si="2"/>
         <v>44601</v>
       </c>
-      <c r="AO2" s="4">
-        <f t="shared" si="3"/>
+      <c r="AO2" s="80">
+        <f t="shared" si="2"/>
         <v>44602</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" hidden="1">
+      <c r="AP2" s="19">
+        <f>AO2+1</f>
+        <v>44603</v>
+      </c>
+      <c r="AQ2" s="4">
+        <f t="shared" ref="AQ2" si="3">AP2+1</f>
+        <v>44604</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" ref="AR2" si="4">AQ2+1</f>
+        <v>44605</v>
+      </c>
+      <c r="AS2" s="4">
+        <f t="shared" ref="AS2" si="5">AR2+1</f>
+        <v>44606</v>
+      </c>
+      <c r="AT2" s="4">
+        <f t="shared" ref="AT2" si="6">AS2+1</f>
+        <v>44607</v>
+      </c>
+      <c r="AU2" s="4">
+        <f t="shared" ref="AU2" si="7">AT2+1</f>
+        <v>44608</v>
+      </c>
+      <c r="AV2" s="4">
+        <f t="shared" ref="AV2" si="8">AU2+1</f>
+        <v>44609</v>
+      </c>
+      <c r="AW2" s="4">
+        <f t="shared" ref="AW2" si="9">AV2+1</f>
+        <v>44610</v>
+      </c>
+      <c r="AX2" s="4">
+        <f t="shared" ref="AX2" si="10">AW2+1</f>
+        <v>44611</v>
+      </c>
+      <c r="AY2" s="4">
+        <f t="shared" ref="AY2" si="11">AX2+1</f>
+        <v>44612</v>
+      </c>
+      <c r="AZ2" s="4">
+        <f t="shared" ref="AZ2" si="12">AY2+1</f>
+        <v>44613</v>
+      </c>
+      <c r="BA2" s="4">
+        <f t="shared" ref="BA2" si="13">AZ2+1</f>
+        <v>44614</v>
+      </c>
+      <c r="BB2" s="4">
+        <f t="shared" ref="BB2" si="14">BA2+1</f>
+        <v>44615</v>
+      </c>
+      <c r="BC2" s="4">
+        <f t="shared" ref="BC2" si="15">BB2+1</f>
+        <v>44616</v>
+      </c>
+      <c r="BD2" s="4">
+        <f t="shared" ref="BD2" si="16">BC2+1</f>
+        <v>44617</v>
+      </c>
+      <c r="BE2" s="4">
+        <f t="shared" ref="BE2" si="17">BD2+1</f>
+        <v>44618</v>
+      </c>
+      <c r="BF2" s="4">
+        <f t="shared" ref="BF2" si="18">BE2+1</f>
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" hidden="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -2993,14 +3302,15 @@
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
-    </row>
-    <row r="4" spans="1:41" hidden="1">
+      <c r="AP3" s="15"/>
+    </row>
+    <row r="4" spans="1:66" hidden="1">
       <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>14</v>
@@ -3045,14 +3355,15 @@
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
       <c r="AO4" s="16"/>
-    </row>
-    <row r="5" spans="1:41" hidden="1">
+      <c r="AP4" s="16"/>
+    </row>
+    <row r="5" spans="1:66" hidden="1">
       <c r="A5" s="8">
-        <f t="shared" ref="A5:A60" si="4">A4+1</f>
+        <f t="shared" ref="A5:A67" si="19">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>11</v>
@@ -3097,14 +3408,15 @@
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
-    </row>
-    <row r="6" spans="1:41" hidden="1">
+      <c r="AP5" s="16"/>
+    </row>
+    <row r="6" spans="1:66" hidden="1">
       <c r="A6" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>12</v>
@@ -3151,17 +3463,18 @@
       <c r="AM6" s="16"/>
       <c r="AN6" s="16"/>
       <c r="AO6" s="16"/>
-    </row>
-    <row r="7" spans="1:41" hidden="1">
+      <c r="AP6" s="16"/>
+    </row>
+    <row r="7" spans="1:66" hidden="1">
       <c r="A7" s="8">
-        <f>A6+1</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -3205,17 +3518,18 @@
       <c r="AM7" s="16"/>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
-    </row>
-    <row r="8" spans="1:41" hidden="1">
+      <c r="AP7" s="16"/>
+    </row>
+    <row r="8" spans="1:66" hidden="1">
       <c r="A8" s="8">
-        <f>A7+1</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -3259,17 +3573,18 @@
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="16"/>
-    </row>
-    <row r="9" spans="1:41" hidden="1">
+      <c r="AP8" s="16"/>
+    </row>
+    <row r="9" spans="1:66" hidden="1">
       <c r="A9" s="8">
-        <f>A8+1</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -3313,14 +3628,15 @@
       <c r="AM9" s="16"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="16"/>
-    </row>
-    <row r="10" spans="1:41" hidden="1">
+      <c r="AP9" s="16"/>
+    </row>
+    <row r="10" spans="1:66" hidden="1">
       <c r="A10" s="8">
-        <f>A9+1</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
@@ -3365,14 +3681,15 @@
       <c r="AM10" s="16"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="16"/>
-    </row>
-    <row r="11" spans="1:41" hidden="1">
+      <c r="AP10" s="16"/>
+    </row>
+    <row r="11" spans="1:66" hidden="1">
       <c r="A11" s="8">
-        <f>A10+1</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
@@ -3417,14 +3734,15 @@
       <c r="AM11" s="16"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="16"/>
-    </row>
-    <row r="12" spans="1:41" hidden="1">
+      <c r="AP11" s="16"/>
+    </row>
+    <row r="12" spans="1:66" hidden="1">
       <c r="A12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>16</v>
@@ -3469,14 +3787,15 @@
       <c r="AM12" s="16"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="16"/>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="AP12" s="16"/>
+    </row>
+    <row r="13" spans="1:66" hidden="1">
       <c r="A13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>3</v>
@@ -3491,7 +3810,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -3523,30 +3842,33 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="16"/>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" s="16"/>
+    </row>
+    <row r="14" spans="1:66" hidden="1">
       <c r="A14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -3562,41 +3884,42 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
+      <c r="AC14" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="16"/>
-    </row>
-    <row r="15" spans="1:41">
+      <c r="AP14" s="16"/>
+    </row>
+    <row r="15" spans="1:66" hidden="1">
       <c r="A15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -3617,11 +3940,11 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
-      <c r="AB15" s="16" t="s">
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16"/>
@@ -3633,26 +3956,25 @@
       <c r="AM15" s="16"/>
       <c r="AN15" s="16"/>
       <c r="AO15" s="16"/>
-    </row>
-    <row r="16" spans="1:41">
+      <c r="AP15" s="16"/>
+    </row>
+    <row r="16" spans="1:66" hidden="1">
       <c r="A16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -3673,10 +3995,10 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
-      <c r="AB16" s="16" t="s">
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
@@ -3689,22 +4011,23 @@
       <c r="AM16" s="16"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="16"/>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="AP16" s="16"/>
+    </row>
+    <row r="17" spans="1:42" hidden="1">
       <c r="A17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -3712,7 +4035,9 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
@@ -3727,10 +4052,10 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
-      <c r="AB17" s="16" t="s">
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
@@ -3743,22 +4068,21 @@
       <c r="AM17" s="16"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="16"/>
-    </row>
-    <row r="18" spans="1:41">
+      <c r="AP17" s="16"/>
+    </row>
+    <row r="18" spans="1:42" hidden="1">
       <c r="A18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -3783,11 +4107,11 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
-      <c r="AB18" s="16" t="s">
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
@@ -3799,17 +4123,18 @@
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="16"/>
-    </row>
-    <row r="19" spans="1:41">
+      <c r="AP18" s="16"/>
+    </row>
+    <row r="19" spans="1:42" hidden="1">
       <c r="A19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -3821,7 +4146,7 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -3837,11 +4162,11 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
       <c r="AG19" s="16"/>
@@ -3853,17 +4178,18 @@
       <c r="AM19" s="16"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="16"/>
-    </row>
-    <row r="20" spans="1:41">
+      <c r="AP19" s="16"/>
+    </row>
+    <row r="20" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="62" t="s">
         <v>42</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -3874,12 +4200,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="P20" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
@@ -3890,10 +4216,10 @@
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16" t="s">
+      <c r="AA20" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
@@ -3907,17 +4233,18 @@
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="16"/>
-    </row>
-    <row r="21" spans="1:41">
+      <c r="AP20" s="16"/>
+    </row>
+    <row r="21" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A21" s="8">
-        <f>A19+1</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -3931,11 +4258,9 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="P21" s="16"/>
       <c r="Q21" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
@@ -3946,7 +4271,9 @@
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -3955,25 +4282,24 @@
       <c r="AG21" s="16"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
-      <c r="AJ21" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="16"/>
-    </row>
-    <row r="22" spans="1:41">
+      <c r="AP21" s="16"/>
+    </row>
+    <row r="22" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A22" s="8">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -3988,22 +4314,20 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q22" s="16"/>
       <c r="R22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
+      <c r="Z22" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
@@ -4012,26 +4336,25 @@
       <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
-      <c r="AI22" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
       <c r="AM22" s="16"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="16"/>
-    </row>
-    <row r="23" spans="1:41">
+      <c r="AP22" s="16"/>
+    </row>
+    <row r="23" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A23" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -4042,22 +4365,20 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="M23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
@@ -4068,28 +4389,29 @@
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
+      <c r="AG23" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
-      <c r="AK23" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
       <c r="AM23" s="16"/>
       <c r="AN23" s="16"/>
       <c r="AO23" s="16"/>
-    </row>
-    <row r="24" spans="1:41">
+      <c r="AP23" s="16"/>
+    </row>
+    <row r="24" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A24" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -4102,24 +4424,24 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="O24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
-      <c r="W24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
@@ -4135,17 +4457,18 @@
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="16"/>
-    </row>
-    <row r="25" spans="1:41">
+      <c r="AP24" s="16"/>
+    </row>
+    <row r="25" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A25" s="8">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>126</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -4157,7 +4480,9 @@
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -4169,39 +4494,36 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
-      <c r="Z25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
       <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
+      <c r="AG25" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
-      <c r="AJ25" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="16"/>
-    </row>
-    <row r="26" spans="1:41">
+      <c r="AP25" s="16"/>
+    </row>
+    <row r="26" spans="1:42" s="64" customFormat="1" hidden="1">
       <c r="A26" s="8">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -4215,10 +4537,10 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
@@ -4229,7 +4551,9 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
+      <c r="Z26" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
@@ -4237,9 +4561,7 @@
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
-      <c r="AH26" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
       <c r="AK26" s="16"/>
@@ -4247,17 +4569,18 @@
       <c r="AM26" s="16"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="16"/>
-    </row>
-    <row r="27" spans="1:41">
+      <c r="AP26" s="16"/>
+    </row>
+    <row r="27" spans="1:42" hidden="1">
       <c r="A27" s="8">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="19"/>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -4273,9 +4596,7 @@
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
-      <c r="R27" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
@@ -4285,7 +4606,9 @@
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
+      <c r="AB27" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="16"/>
@@ -4299,17 +4622,18 @@
       <c r="AM27" s="16"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="16"/>
-    </row>
-    <row r="28" spans="1:41">
+      <c r="AP27" s="16"/>
+    </row>
+    <row r="28" spans="1:42" hidden="1">
       <c r="A28" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="19"/>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -4324,18 +4648,10 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
-      <c r="Q28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
@@ -4357,47 +4673,44 @@
       <c r="AM28" s="16"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="16"/>
-    </row>
-    <row r="29" spans="1:41" s="64" customFormat="1">
-      <c r="A29" s="62">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AP28" s="16"/>
+    </row>
+    <row r="29" spans="1:42" hidden="1">
+      <c r="A29" s="8">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
@@ -4411,51 +4724,52 @@
       <c r="AM29" s="16"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="16"/>
-    </row>
-    <row r="30" spans="1:41" s="64" customFormat="1">
-      <c r="A30" s="62">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>43</v>
+      <c r="AP29" s="16"/>
+    </row>
+    <row r="30" spans="1:42" hidden="1">
+      <c r="A30" s="8">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
+      <c r="AF30" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG30" s="16"/>
       <c r="AH30" s="16"/>
       <c r="AI30" s="16"/>
@@ -4465,51 +4779,50 @@
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="16"/>
-    </row>
-    <row r="31" spans="1:41" s="64" customFormat="1">
-      <c r="A31" s="62">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>43</v>
+      <c r="AP30" s="16"/>
+    </row>
+    <row r="31" spans="1:42" hidden="1">
+      <c r="A31" s="8">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="16" t="s">
-        <v>18</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
+      <c r="AF31" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG31" s="16"/>
       <c r="AH31" s="16"/>
       <c r="AI31" s="16"/>
@@ -4519,54 +4832,51 @@
       <c r="AM31" s="16"/>
       <c r="AN31" s="16"/>
       <c r="AO31" s="16"/>
-    </row>
-    <row r="32" spans="1:41" s="64" customFormat="1">
-      <c r="A32" s="62">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>43</v>
+      <c r="AP31" s="16"/>
+    </row>
+    <row r="32" spans="1:42" hidden="1">
+      <c r="A32" s="8">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
+        <v>117</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AF32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG32" s="16"/>
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
@@ -4575,52 +4885,49 @@
       <c r="AM32" s="16"/>
       <c r="AN32" s="16"/>
       <c r="AO32" s="16"/>
-    </row>
-    <row r="33" spans="1:41" s="64" customFormat="1">
-      <c r="A33" s="62">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AP32" s="16"/>
+    </row>
+    <row r="33" spans="1:53">
+      <c r="A33" s="8">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
+      <c r="AE33" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AF33" s="16"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="16"/>
@@ -4631,52 +4938,62 @@
       <c r="AM33" s="16"/>
       <c r="AN33" s="16"/>
       <c r="AO33" s="16"/>
-    </row>
-    <row r="34" spans="1:41" s="64" customFormat="1">
-      <c r="A34" s="62">
-        <f t="shared" si="4"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
+    </row>
+    <row r="34" spans="1:53">
+      <c r="A34" s="8">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
+      <c r="C34" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
+      <c r="AE34" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AF34" s="16"/>
-      <c r="AG34" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG34" s="16"/>
       <c r="AH34" s="16"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
@@ -4685,49 +5002,55 @@
       <c r="AM34" s="16"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="16"/>
-    </row>
-    <row r="35" spans="1:41" s="64" customFormat="1">
-      <c r="A35" s="62">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="16"/>
+      <c r="BA34" s="16"/>
+    </row>
+    <row r="35" spans="1:53">
+      <c r="A35" s="8">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
@@ -4741,17 +5064,31 @@
       <c r="AM35" s="16"/>
       <c r="AN35" s="16"/>
       <c r="AO35" s="16"/>
-    </row>
-    <row r="36" spans="1:41">
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+    </row>
+    <row r="36" spans="1:53">
       <c r="A36" s="8">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="19"/>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -4762,12 +5099,10 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -4786,26 +5121,38 @@
       <c r="AF36" s="16"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="16"/>
-      <c r="AI36" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16"/>
       <c r="AL36" s="16"/>
       <c r="AM36" s="16"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="16"/>
-    </row>
-    <row r="37" spans="1:41">
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+    </row>
+    <row r="37" spans="1:53">
       <c r="A37" s="8">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="19"/>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -4831,9 +5178,7 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
@@ -4847,17 +5192,31 @@
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="16"/>
-    </row>
-    <row r="38" spans="1:41">
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+    </row>
+    <row r="38" spans="1:53">
       <c r="A38" s="8">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="19"/>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -4883,9 +5242,7 @@
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
-      <c r="AB38" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB38" s="16"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
@@ -4899,17 +5256,31 @@
       <c r="AM38" s="16"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="16"/>
-    </row>
-    <row r="39" spans="1:41">
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+    </row>
+    <row r="39" spans="1:53">
       <c r="A39" s="8">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="19"/>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -4935,9 +5306,7 @@
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
-      <c r="AB39" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB39" s="16"/>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
@@ -4951,17 +5320,29 @@
       <c r="AM39" s="16"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="16"/>
-    </row>
-    <row r="40" spans="1:41">
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+    </row>
+    <row r="40" spans="1:53">
       <c r="A40" s="8">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f t="shared" si="19"/>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>125</v>
+        <v>31</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -4981,9 +5362,7 @@
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
-      <c r="V40" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
@@ -4993,9 +5372,7 @@
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
       <c r="AE40" s="16"/>
-      <c r="AF40" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
@@ -5005,17 +5382,31 @@
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="16"/>
-    </row>
-    <row r="41" spans="1:41">
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
+      <c r="AV40" s="16"/>
+      <c r="AW40" s="16"/>
+      <c r="AX40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="16"/>
+      <c r="BA40" s="16"/>
+    </row>
+    <row r="41" spans="1:53">
       <c r="A41" s="8">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f t="shared" si="19"/>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -5045,9 +5436,7 @@
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
-      <c r="AF41" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF41" s="16"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="16"/>
       <c r="AI41" s="16"/>
@@ -5057,17 +5446,31 @@
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
       <c r="AO41" s="16"/>
-    </row>
-    <row r="42" spans="1:41">
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
+      <c r="AV41" s="16"/>
+      <c r="AW41" s="16"/>
+      <c r="AX41" s="16"/>
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="16"/>
+      <c r="BA41" s="16"/>
+    </row>
+    <row r="42" spans="1:53">
       <c r="A42" s="8">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f t="shared" si="19"/>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="86" t="s">
-        <v>127</v>
+        <v>31</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -5083,7 +5486,7 @@
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
+      <c r="R42" s="18"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
@@ -5097,9 +5500,7 @@
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
-      <c r="AF42" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF42" s="16"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="16"/>
       <c r="AI42" s="16"/>
@@ -5109,17 +5510,31 @@
       <c r="AM42" s="16"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="16"/>
-    </row>
-    <row r="43" spans="1:41">
+      <c r="AP42" s="16"/>
+      <c r="AQ42" s="16"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV42" s="16"/>
+      <c r="AW42" s="16"/>
+      <c r="AX42" s="16"/>
+      <c r="AY42" s="16"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="16"/>
+    </row>
+    <row r="43" spans="1:53">
       <c r="A43" s="8">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="19"/>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -5152,26 +5567,38 @@
       <c r="AF43" s="16"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="16"/>
-      <c r="AI43" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AI43" s="16"/>
       <c r="AJ43" s="16"/>
       <c r="AK43" s="16"/>
       <c r="AL43" s="16"/>
       <c r="AM43" s="16"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
-    </row>
-    <row r="44" spans="1:41">
+      <c r="AP43" s="16"/>
+      <c r="AQ43" s="16"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="16"/>
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV43" s="16"/>
+      <c r="AW43" s="16"/>
+      <c r="AX43" s="16"/>
+      <c r="AY43" s="16"/>
+      <c r="AZ43" s="16"/>
+      <c r="BA43" s="16"/>
+    </row>
+    <row r="44" spans="1:53">
       <c r="A44" s="8">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f t="shared" si="19"/>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -5182,10 +5609,10 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
+      <c r="P44" s="18"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
@@ -5200,9 +5627,7 @@
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
-      <c r="AE44" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AE44" s="16"/>
       <c r="AF44" s="16"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="16"/>
@@ -5213,69 +5638,95 @@
       <c r="AM44" s="16"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="16"/>
-    </row>
-    <row r="45" spans="1:41">
+      <c r="AP44" s="16"/>
+      <c r="AQ44" s="16"/>
+      <c r="AR44" s="16"/>
+      <c r="AS44" s="16"/>
+      <c r="AT44" s="16"/>
+      <c r="AU44" s="16"/>
+      <c r="AV44" s="16"/>
+      <c r="AW44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX44" s="16"/>
+      <c r="AY44" s="16"/>
+      <c r="AZ44" s="16"/>
+      <c r="BA44" s="16"/>
+    </row>
+    <row r="45" spans="1:53" s="114" customFormat="1">
       <c r="A45" s="8">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="16"/>
-      <c r="AK45" s="16"/>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="16"/>
-      <c r="AN45" s="16"/>
-      <c r="AO45" s="16"/>
-    </row>
-    <row r="46" spans="1:41">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="113"/>
+      <c r="AO45" s="113"/>
+      <c r="AP45" s="113"/>
+      <c r="AQ45" s="113"/>
+      <c r="AR45" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+    </row>
+    <row r="46" spans="1:53">
       <c r="A46" s="8">
-        <f t="shared" si="4"/>
-        <v>43</v>
+        <f t="shared" si="19"/>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -5309,25 +5760,37 @@
       <c r="AG46" s="16"/>
       <c r="AH46" s="16"/>
       <c r="AI46" s="16"/>
-      <c r="AJ46" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AJ46" s="16"/>
       <c r="AK46" s="16"/>
       <c r="AL46" s="16"/>
       <c r="AM46" s="16"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="16"/>
-    </row>
-    <row r="47" spans="1:41">
+      <c r="AP46" s="16"/>
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT46" s="16"/>
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="16"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16"/>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+    </row>
+    <row r="47" spans="1:53">
       <c r="A47" s="8">
-        <f t="shared" si="4"/>
-        <v>44</v>
+        <f t="shared" si="19"/>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -5360,9 +5823,7 @@
       <c r="AF47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AG47" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG47" s="16"/>
       <c r="AH47" s="16"/>
       <c r="AI47" s="16"/>
       <c r="AJ47" s="16"/>
@@ -5371,17 +5832,31 @@
       <c r="AM47" s="16"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="16"/>
-    </row>
-    <row r="48" spans="1:41">
+      <c r="AP47" s="16"/>
+      <c r="AQ47" s="16"/>
+      <c r="AR47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS47" s="16"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="16"/>
+      <c r="AV47" s="16"/>
+      <c r="AW47" s="16"/>
+      <c r="AX47" s="16"/>
+      <c r="AY47" s="16"/>
+      <c r="AZ47" s="16"/>
+      <c r="BA47" s="16"/>
+    </row>
+    <row r="48" spans="1:53">
       <c r="A48" s="8">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="19"/>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -5413,7 +5888,7 @@
       <c r="AE48" s="16"/>
       <c r="AF48" s="16"/>
       <c r="AG48" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AH48" s="16"/>
       <c r="AI48" s="16"/>
@@ -5423,17 +5898,29 @@
       <c r="AM48" s="16"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="16"/>
-    </row>
-    <row r="49" spans="1:41">
+      <c r="AP48" s="16"/>
+      <c r="AQ48" s="16"/>
+      <c r="AR48" s="16"/>
+      <c r="AS48" s="16"/>
+      <c r="AT48" s="16"/>
+      <c r="AU48" s="16"/>
+      <c r="AV48" s="16"/>
+      <c r="AW48" s="16"/>
+      <c r="AX48" s="16"/>
+      <c r="AY48" s="16"/>
+      <c r="AZ48" s="16"/>
+      <c r="BA48" s="16"/>
+    </row>
+    <row r="49" spans="1:53">
       <c r="A49" s="8">
-        <f t="shared" si="4"/>
-        <v>46</v>
+        <f t="shared" si="19"/>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -5464,10 +5951,10 @@
       <c r="AD49" s="16"/>
       <c r="AE49" s="16"/>
       <c r="AF49" s="16"/>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH49" s="16"/>
       <c r="AI49" s="16"/>
       <c r="AJ49" s="16"/>
       <c r="AK49" s="16"/>
@@ -5475,17 +5962,29 @@
       <c r="AM49" s="16"/>
       <c r="AN49" s="16"/>
       <c r="AO49" s="16"/>
-    </row>
-    <row r="50" spans="1:41">
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="16"/>
+      <c r="AS49" s="16"/>
+      <c r="AT49" s="16"/>
+      <c r="AU49" s="16"/>
+      <c r="AV49" s="16"/>
+      <c r="AW49" s="16"/>
+      <c r="AX49" s="16"/>
+      <c r="AY49" s="16"/>
+      <c r="AZ49" s="16"/>
+      <c r="BA49" s="16"/>
+    </row>
+    <row r="50" spans="1:53">
       <c r="A50" s="8">
-        <f t="shared" si="4"/>
-        <v>47</v>
+        <f t="shared" si="19"/>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -5517,9 +6016,7 @@
       <c r="AE50" s="16"/>
       <c r="AF50" s="16"/>
       <c r="AG50" s="16"/>
-      <c r="AH50" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AH50" s="16"/>
       <c r="AI50" s="16"/>
       <c r="AJ50" s="16"/>
       <c r="AK50" s="16"/>
@@ -5527,17 +6024,31 @@
       <c r="AM50" s="16"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="16"/>
-    </row>
-    <row r="51" spans="1:41">
+      <c r="AP50" s="16"/>
+      <c r="AQ50" s="16"/>
+      <c r="AR50" s="16"/>
+      <c r="AS50" s="16"/>
+      <c r="AT50" s="16"/>
+      <c r="AU50" s="16"/>
+      <c r="AV50" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW50" s="16"/>
+      <c r="AX50" s="16"/>
+      <c r="AY50" s="16"/>
+      <c r="AZ50" s="16"/>
+      <c r="BA50" s="16"/>
+    </row>
+    <row r="51" spans="1:53">
       <c r="A51" s="8">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <f t="shared" si="19"/>
+        <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -5570,26 +6081,38 @@
       <c r="AF51" s="16"/>
       <c r="AG51" s="16"/>
       <c r="AH51" s="16"/>
-      <c r="AI51" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AI51" s="16"/>
       <c r="AJ51" s="16"/>
       <c r="AK51" s="16"/>
       <c r="AL51" s="16"/>
       <c r="AM51" s="16"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="16"/>
-    </row>
-    <row r="52" spans="1:41">
+      <c r="AP51" s="16"/>
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="16"/>
+      <c r="AS51" s="16"/>
+      <c r="AT51" s="16"/>
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW51" s="16"/>
+      <c r="AX51" s="16"/>
+      <c r="AY51" s="16"/>
+      <c r="AZ51" s="16"/>
+      <c r="BA51" s="16"/>
+    </row>
+    <row r="52" spans="1:53">
       <c r="A52" s="8">
-        <f t="shared" si="4"/>
-        <v>49</v>
+        <f t="shared" si="19"/>
+        <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -5621,9 +6144,7 @@
       <c r="AE52" s="16"/>
       <c r="AF52" s="16"/>
       <c r="AG52" s="16"/>
-      <c r="AH52" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AH52" s="16"/>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="16"/>
       <c r="AK52" s="16"/>
@@ -5631,17 +6152,31 @@
       <c r="AM52" s="16"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="16"/>
-    </row>
-    <row r="53" spans="1:41">
+      <c r="AP52" s="16"/>
+      <c r="AQ52" s="16"/>
+      <c r="AR52" s="16"/>
+      <c r="AS52" s="16"/>
+      <c r="AT52" s="16"/>
+      <c r="AU52" s="16"/>
+      <c r="AV52" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW52" s="16"/>
+      <c r="AX52" s="16"/>
+      <c r="AY52" s="16"/>
+      <c r="AZ52" s="16"/>
+      <c r="BA52" s="16"/>
+    </row>
+    <row r="53" spans="1:53">
       <c r="A53" s="8">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="19"/>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -5672,9 +6207,7 @@
       <c r="AD53" s="16"/>
       <c r="AE53" s="16"/>
       <c r="AF53" s="16"/>
-      <c r="AG53" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG53" s="16"/>
       <c r="AH53" s="16"/>
       <c r="AI53" s="16"/>
       <c r="AJ53" s="16"/>
@@ -5683,17 +6216,31 @@
       <c r="AM53" s="16"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="16"/>
-    </row>
-    <row r="54" spans="1:41">
+      <c r="AP53" s="16"/>
+      <c r="AQ53" s="16"/>
+      <c r="AR53" s="16"/>
+      <c r="AS53" s="16"/>
+      <c r="AT53" s="16"/>
+      <c r="AU53" s="16"/>
+      <c r="AV53" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW53" s="16"/>
+      <c r="AX53" s="16"/>
+      <c r="AY53" s="16"/>
+      <c r="AZ53" s="16"/>
+      <c r="BA53" s="16"/>
+    </row>
+    <row r="54" spans="1:53">
       <c r="A54" s="8">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <f t="shared" si="19"/>
+        <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -5725,9 +6272,7 @@
       <c r="AE54" s="16"/>
       <c r="AF54" s="16"/>
       <c r="AG54" s="16"/>
-      <c r="AH54" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AH54" s="16"/>
       <c r="AI54" s="16"/>
       <c r="AJ54" s="16"/>
       <c r="AK54" s="16"/>
@@ -5735,17 +6280,31 @@
       <c r="AM54" s="16"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="16"/>
-    </row>
-    <row r="55" spans="1:41">
+      <c r="AP54" s="16"/>
+      <c r="AQ54" s="16"/>
+      <c r="AR54" s="16"/>
+      <c r="AS54" s="16"/>
+      <c r="AT54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU54" s="16"/>
+      <c r="AV54" s="16"/>
+      <c r="AW54" s="16"/>
+      <c r="AX54" s="16"/>
+      <c r="AY54" s="16"/>
+      <c r="AZ54" s="16"/>
+      <c r="BA54" s="16"/>
+    </row>
+    <row r="55" spans="1:53">
       <c r="A55" s="8">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f t="shared" si="19"/>
+        <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -5776,9 +6335,7 @@
       <c r="AD55" s="16"/>
       <c r="AE55" s="16"/>
       <c r="AF55" s="16"/>
-      <c r="AG55" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG55" s="16"/>
       <c r="AH55" s="16"/>
       <c r="AI55" s="16"/>
       <c r="AJ55" s="16"/>
@@ -5787,68 +6344,95 @@
       <c r="AM55" s="16"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="16"/>
-    </row>
-    <row r="56" spans="1:41">
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
+      <c r="AS55" s="16"/>
+      <c r="AT55" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU55" s="16"/>
+      <c r="AV55" s="16"/>
+      <c r="AW55" s="16"/>
+      <c r="AX55" s="16"/>
+      <c r="AY55" s="16"/>
+      <c r="AZ55" s="16"/>
+      <c r="BA55" s="16"/>
+    </row>
+    <row r="56" spans="1:53" s="114" customFormat="1">
       <c r="A56" s="8">
-        <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="16"/>
-      <c r="AH56" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="16"/>
-      <c r="AM56" s="16"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="16"/>
-    </row>
-    <row r="57" spans="1:41">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="113"/>
+      <c r="R56" s="113"/>
+      <c r="S56" s="113"/>
+      <c r="T56" s="113"/>
+      <c r="U56" s="113"/>
+      <c r="V56" s="113"/>
+      <c r="W56" s="113"/>
+      <c r="X56" s="113"/>
+      <c r="Y56" s="113"/>
+      <c r="Z56" s="113"/>
+      <c r="AA56" s="113"/>
+      <c r="AB56" s="113"/>
+      <c r="AC56" s="113"/>
+      <c r="AD56" s="113"/>
+      <c r="AE56" s="113"/>
+      <c r="AF56" s="113"/>
+      <c r="AG56" s="113"/>
+      <c r="AH56" s="113"/>
+      <c r="AI56" s="113"/>
+      <c r="AJ56" s="113"/>
+      <c r="AK56" s="113"/>
+      <c r="AL56" s="113"/>
+      <c r="AM56" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN56" s="113"/>
+      <c r="AO56" s="113"/>
+      <c r="AP56" s="113"/>
+      <c r="AQ56" s="113"/>
+      <c r="AR56" s="113"/>
+      <c r="AS56" s="113"/>
+      <c r="AT56" s="113"/>
+      <c r="AU56" s="113"/>
+      <c r="AV56" s="113"/>
+      <c r="AW56" s="113"/>
+      <c r="AX56" s="113"/>
+      <c r="AY56" s="113"/>
+      <c r="AZ56" s="113"/>
+      <c r="BA56" s="113"/>
+    </row>
+    <row r="57" spans="1:53">
       <c r="A57" s="8">
-        <v>54</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -5881,26 +6465,38 @@
       <c r="AF57" s="16"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="16"/>
-      <c r="AI57" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AI57" s="16"/>
       <c r="AJ57" s="16"/>
       <c r="AK57" s="16"/>
       <c r="AL57" s="16"/>
       <c r="AM57" s="16"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="16"/>
-    </row>
-    <row r="58" spans="1:41">
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="16"/>
+      <c r="AR57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS57" s="16"/>
+      <c r="AT57" s="16"/>
+      <c r="AU57" s="16"/>
+      <c r="AV57" s="16"/>
+      <c r="AW57" s="16"/>
+      <c r="AX57" s="16"/>
+      <c r="AY57" s="16"/>
+      <c r="AZ57" s="16"/>
+      <c r="BA57" s="16"/>
+    </row>
+    <row r="58" spans="1:53">
       <c r="A58" s="8">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f t="shared" si="19"/>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -5933,26 +6529,38 @@
       <c r="AF58" s="16"/>
       <c r="AG58" s="16"/>
       <c r="AH58" s="16"/>
-      <c r="AI58" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="AI58" s="16"/>
       <c r="AJ58" s="16"/>
       <c r="AK58" s="16"/>
       <c r="AL58" s="16"/>
       <c r="AM58" s="16"/>
       <c r="AN58" s="16"/>
       <c r="AO58" s="16"/>
-    </row>
-    <row r="59" spans="1:41">
+      <c r="AP58" s="16"/>
+      <c r="AQ58" s="16"/>
+      <c r="AR58" s="16"/>
+      <c r="AS58" s="16"/>
+      <c r="AT58" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU58" s="16"/>
+      <c r="AV58" s="16"/>
+      <c r="AW58" s="16"/>
+      <c r="AX58" s="16"/>
+      <c r="AY58" s="16"/>
+      <c r="AZ58" s="16"/>
+      <c r="BA58" s="16"/>
+    </row>
+    <row r="59" spans="1:53">
       <c r="A59" s="8">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f t="shared" si="19"/>
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
@@ -5982,9 +6590,7 @@
       <c r="AC59" s="16"/>
       <c r="AD59" s="16"/>
       <c r="AE59" s="16"/>
-      <c r="AF59" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF59" s="16"/>
       <c r="AG59" s="16"/>
       <c r="AH59" s="16"/>
       <c r="AI59" s="16"/>
@@ -5992,19 +6598,33 @@
       <c r="AK59" s="16"/>
       <c r="AL59" s="16"/>
       <c r="AM59" s="16"/>
-      <c r="AN59" s="16"/>
+      <c r="AN59" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AO59" s="16"/>
-    </row>
-    <row r="60" spans="1:41">
+      <c r="AP59" s="16"/>
+      <c r="AQ59" s="16"/>
+      <c r="AR59" s="16"/>
+      <c r="AS59" s="16"/>
+      <c r="AT59" s="16"/>
+      <c r="AU59" s="16"/>
+      <c r="AV59" s="16"/>
+      <c r="AW59" s="16"/>
+      <c r="AX59" s="16"/>
+      <c r="AY59" s="16"/>
+      <c r="AZ59" s="16"/>
+      <c r="BA59" s="16"/>
+    </row>
+    <row r="60" spans="1:53">
       <c r="A60" s="8">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <f t="shared" si="19"/>
+        <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -6034,9 +6654,7 @@
       <c r="AC60" s="16"/>
       <c r="AD60" s="16"/>
       <c r="AE60" s="16"/>
-      <c r="AF60" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF60" s="16"/>
       <c r="AG60" s="16"/>
       <c r="AH60" s="16"/>
       <c r="AI60" s="16"/>
@@ -6046,11 +6664,32 @@
       <c r="AM60" s="16"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="16"/>
-    </row>
-    <row r="61" spans="1:41">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="11"/>
+      <c r="AP60" s="16"/>
+      <c r="AQ60" s="16"/>
+      <c r="AR60" s="16"/>
+      <c r="AS60" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT60" s="16"/>
+      <c r="AU60" s="16"/>
+      <c r="AV60" s="16"/>
+      <c r="AW60" s="16"/>
+      <c r="AX60" s="16"/>
+      <c r="AY60" s="16"/>
+      <c r="AZ60" s="16"/>
+      <c r="BA60" s="16"/>
+    </row>
+    <row r="61" spans="1:53">
+      <c r="A61" s="8">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -6089,11 +6728,32 @@
       <c r="AM61" s="16"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="16"/>
-    </row>
-    <row r="62" spans="1:41">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="11"/>
+      <c r="AP61" s="16"/>
+      <c r="AQ61" s="16"/>
+      <c r="AR61" s="16"/>
+      <c r="AS61" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT61" s="16"/>
+      <c r="AU61" s="16"/>
+      <c r="AV61" s="16"/>
+      <c r="AW61" s="16"/>
+      <c r="AX61" s="16"/>
+      <c r="AY61" s="16"/>
+      <c r="AZ61" s="16"/>
+      <c r="BA61" s="16"/>
+    </row>
+    <row r="62" spans="1:53">
+      <c r="A62" s="8">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -6130,13 +6790,34 @@
       <c r="AK62" s="16"/>
       <c r="AL62" s="16"/>
       <c r="AM62" s="16"/>
-      <c r="AN62" s="16"/>
+      <c r="AN62" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AO62" s="16"/>
-    </row>
-    <row r="63" spans="1:41">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="11"/>
+      <c r="AP62" s="16"/>
+      <c r="AQ62" s="16"/>
+      <c r="AR62" s="16"/>
+      <c r="AS62" s="16"/>
+      <c r="AT62" s="16"/>
+      <c r="AU62" s="16"/>
+      <c r="AV62" s="16"/>
+      <c r="AW62" s="16"/>
+      <c r="AX62" s="16"/>
+      <c r="AY62" s="16"/>
+      <c r="AZ62" s="16"/>
+      <c r="BA62" s="16"/>
+    </row>
+    <row r="63" spans="1:53">
+      <c r="A63" s="8">
+        <f t="shared" si="19"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -6165,7 +6846,9 @@
       <c r="AC63" s="16"/>
       <c r="AD63" s="16"/>
       <c r="AE63" s="16"/>
-      <c r="AF63" s="16"/>
+      <c r="AF63" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG63" s="16"/>
       <c r="AH63" s="16"/>
       <c r="AI63" s="16"/>
@@ -6175,11 +6858,30 @@
       <c r="AM63" s="16"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="16"/>
-    </row>
-    <row r="64" spans="1:41">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="11"/>
+      <c r="AP63" s="16"/>
+      <c r="AQ63" s="16"/>
+      <c r="AR63" s="16"/>
+      <c r="AS63" s="16"/>
+      <c r="AT63" s="16"/>
+      <c r="AU63" s="16"/>
+      <c r="AV63" s="16"/>
+      <c r="AW63" s="16"/>
+      <c r="AX63" s="16"/>
+      <c r="AY63" s="16"/>
+      <c r="AZ63" s="16"/>
+      <c r="BA63" s="16"/>
+    </row>
+    <row r="64" spans="1:53">
+      <c r="A64" s="8">
+        <f t="shared" si="19"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>226</v>
+      </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -6208,7 +6910,9 @@
       <c r="AC64" s="16"/>
       <c r="AD64" s="16"/>
       <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
+      <c r="AF64" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AG64" s="16"/>
       <c r="AH64" s="16"/>
       <c r="AI64" s="16"/>
@@ -6218,11 +6922,30 @@
       <c r="AM64" s="16"/>
       <c r="AN64" s="16"/>
       <c r="AO64" s="16"/>
-    </row>
-    <row r="65" spans="1:41">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="11"/>
+      <c r="AP64" s="16"/>
+      <c r="AQ64" s="16"/>
+      <c r="AR64" s="16"/>
+      <c r="AS64" s="16"/>
+      <c r="AT64" s="16"/>
+      <c r="AU64" s="16"/>
+      <c r="AV64" s="16"/>
+      <c r="AW64" s="16"/>
+      <c r="AX64" s="16"/>
+      <c r="AY64" s="16"/>
+      <c r="AZ64" s="16"/>
+      <c r="BA64" s="16"/>
+    </row>
+    <row r="65" spans="1:53">
+      <c r="A65" s="8">
+        <f t="shared" si="19"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -6261,11 +6984,32 @@
       <c r="AM65" s="16"/>
       <c r="AN65" s="16"/>
       <c r="AO65" s="16"/>
-    </row>
-    <row r="66" spans="1:41">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="11"/>
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR65" s="16"/>
+      <c r="AS65" s="16"/>
+      <c r="AT65" s="16"/>
+      <c r="AU65" s="16"/>
+      <c r="AV65" s="16"/>
+      <c r="AW65" s="16"/>
+      <c r="AX65" s="16"/>
+      <c r="AY65" s="16"/>
+      <c r="AZ65" s="16"/>
+      <c r="BA65" s="16"/>
+    </row>
+    <row r="66" spans="1:53">
+      <c r="A66" s="8">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -6304,11 +7048,32 @@
       <c r="AM66" s="16"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="16"/>
-    </row>
-    <row r="67" spans="1:41">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="11"/>
+      <c r="AP66" s="16"/>
+      <c r="AQ66" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR66" s="16"/>
+      <c r="AS66" s="16"/>
+      <c r="AT66" s="16"/>
+      <c r="AU66" s="16"/>
+      <c r="AV66" s="16"/>
+      <c r="AW66" s="16"/>
+      <c r="AX66" s="16"/>
+      <c r="AY66" s="16"/>
+      <c r="AZ66" s="16"/>
+      <c r="BA66" s="16"/>
+    </row>
+    <row r="67" spans="1:53">
+      <c r="A67" s="8">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -6347,8 +7112,22 @@
       <c r="AM67" s="16"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="16"/>
-    </row>
-    <row r="68" spans="1:41">
+      <c r="AP67" s="16"/>
+      <c r="AQ67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR67" s="16"/>
+      <c r="AS67" s="16"/>
+      <c r="AT67" s="16"/>
+      <c r="AU67" s="16"/>
+      <c r="AV67" s="16"/>
+      <c r="AW67" s="16"/>
+      <c r="AX67" s="16"/>
+      <c r="AY67" s="16"/>
+      <c r="AZ67" s="16"/>
+      <c r="BA67" s="16"/>
+    </row>
+    <row r="68" spans="1:53">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="11"/>
@@ -6390,8 +7169,20 @@
       <c r="AM68" s="16"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="16"/>
-    </row>
-    <row r="69" spans="1:41">
+      <c r="AP68" s="16"/>
+      <c r="AQ68" s="16"/>
+      <c r="AR68" s="16"/>
+      <c r="AS68" s="16"/>
+      <c r="AT68" s="16"/>
+      <c r="AU68" s="16"/>
+      <c r="AV68" s="16"/>
+      <c r="AW68" s="16"/>
+      <c r="AX68" s="16"/>
+      <c r="AY68" s="16"/>
+      <c r="AZ68" s="16"/>
+      <c r="BA68" s="16"/>
+    </row>
+    <row r="69" spans="1:53">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="11"/>
@@ -6433,8 +7224,20 @@
       <c r="AM69" s="16"/>
       <c r="AN69" s="16"/>
       <c r="AO69" s="16"/>
-    </row>
-    <row r="70" spans="1:41">
+      <c r="AP69" s="16"/>
+      <c r="AQ69" s="16"/>
+      <c r="AR69" s="16"/>
+      <c r="AS69" s="16"/>
+      <c r="AT69" s="16"/>
+      <c r="AU69" s="16"/>
+      <c r="AV69" s="16"/>
+      <c r="AW69" s="16"/>
+      <c r="AX69" s="16"/>
+      <c r="AY69" s="16"/>
+      <c r="AZ69" s="16"/>
+      <c r="BA69" s="16"/>
+    </row>
+    <row r="70" spans="1:53">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="11"/>
@@ -6476,8 +7279,20 @@
       <c r="AM70" s="16"/>
       <c r="AN70" s="16"/>
       <c r="AO70" s="16"/>
-    </row>
-    <row r="71" spans="1:41">
+      <c r="AP70" s="16"/>
+      <c r="AQ70" s="16"/>
+      <c r="AR70" s="16"/>
+      <c r="AS70" s="16"/>
+      <c r="AT70" s="16"/>
+      <c r="AU70" s="16"/>
+      <c r="AV70" s="16"/>
+      <c r="AW70" s="16"/>
+      <c r="AX70" s="16"/>
+      <c r="AY70" s="16"/>
+      <c r="AZ70" s="16"/>
+      <c r="BA70" s="16"/>
+    </row>
+    <row r="71" spans="1:53">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="11"/>
@@ -6519,8 +7334,20 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="16"/>
       <c r="AO71" s="16"/>
-    </row>
-    <row r="72" spans="1:41">
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+      <c r="AS71" s="16"/>
+      <c r="AT71" s="16"/>
+      <c r="AU71" s="16"/>
+      <c r="AV71" s="16"/>
+      <c r="AW71" s="16"/>
+      <c r="AX71" s="16"/>
+      <c r="AY71" s="16"/>
+      <c r="AZ71" s="16"/>
+      <c r="BA71" s="16"/>
+    </row>
+    <row r="72" spans="1:53">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="11"/>
@@ -6562,8 +7389,20 @@
       <c r="AM72" s="16"/>
       <c r="AN72" s="16"/>
       <c r="AO72" s="16"/>
-    </row>
-    <row r="73" spans="1:41">
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="16"/>
+      <c r="AS72" s="16"/>
+      <c r="AT72" s="16"/>
+      <c r="AU72" s="16"/>
+      <c r="AV72" s="16"/>
+      <c r="AW72" s="16"/>
+      <c r="AX72" s="16"/>
+      <c r="AY72" s="16"/>
+      <c r="AZ72" s="16"/>
+      <c r="BA72" s="16"/>
+    </row>
+    <row r="73" spans="1:53">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="11"/>
@@ -6605,8 +7444,20 @@
       <c r="AM73" s="16"/>
       <c r="AN73" s="16"/>
       <c r="AO73" s="16"/>
-    </row>
-    <row r="74" spans="1:41">
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="16"/>
+      <c r="AR73" s="16"/>
+      <c r="AS73" s="16"/>
+      <c r="AT73" s="16"/>
+      <c r="AU73" s="16"/>
+      <c r="AV73" s="16"/>
+      <c r="AW73" s="16"/>
+      <c r="AX73" s="16"/>
+      <c r="AY73" s="16"/>
+      <c r="AZ73" s="16"/>
+      <c r="BA73" s="16"/>
+    </row>
+    <row r="74" spans="1:53">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="11"/>
@@ -6648,8 +7499,20 @@
       <c r="AM74" s="16"/>
       <c r="AN74" s="16"/>
       <c r="AO74" s="16"/>
-    </row>
-    <row r="75" spans="1:41">
+      <c r="AP74" s="16"/>
+      <c r="AQ74" s="16"/>
+      <c r="AR74" s="16"/>
+      <c r="AS74" s="16"/>
+      <c r="AT74" s="16"/>
+      <c r="AU74" s="16"/>
+      <c r="AV74" s="16"/>
+      <c r="AW74" s="16"/>
+      <c r="AX74" s="16"/>
+      <c r="AY74" s="16"/>
+      <c r="AZ74" s="16"/>
+      <c r="BA74" s="16"/>
+    </row>
+    <row r="75" spans="1:53">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="11"/>
@@ -6691,8 +7554,20 @@
       <c r="AM75" s="16"/>
       <c r="AN75" s="16"/>
       <c r="AO75" s="16"/>
-    </row>
-    <row r="76" spans="1:41">
+      <c r="AP75" s="16"/>
+      <c r="AQ75" s="16"/>
+      <c r="AR75" s="16"/>
+      <c r="AS75" s="16"/>
+      <c r="AT75" s="16"/>
+      <c r="AU75" s="16"/>
+      <c r="AV75" s="16"/>
+      <c r="AW75" s="16"/>
+      <c r="AX75" s="16"/>
+      <c r="AY75" s="16"/>
+      <c r="AZ75" s="16"/>
+      <c r="BA75" s="16"/>
+    </row>
+    <row r="76" spans="1:53">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="11"/>
@@ -6734,8 +7609,20 @@
       <c r="AM76" s="16"/>
       <c r="AN76" s="16"/>
       <c r="AO76" s="16"/>
-    </row>
-    <row r="77" spans="1:41">
+      <c r="AP76" s="16"/>
+      <c r="AQ76" s="16"/>
+      <c r="AR76" s="16"/>
+      <c r="AS76" s="16"/>
+      <c r="AT76" s="16"/>
+      <c r="AU76" s="16"/>
+      <c r="AV76" s="16"/>
+      <c r="AW76" s="16"/>
+      <c r="AX76" s="16"/>
+      <c r="AY76" s="16"/>
+      <c r="AZ76" s="16"/>
+      <c r="BA76" s="16"/>
+    </row>
+    <row r="77" spans="1:53">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="11"/>
@@ -6777,8 +7664,20 @@
       <c r="AM77" s="16"/>
       <c r="AN77" s="16"/>
       <c r="AO77" s="16"/>
-    </row>
-    <row r="78" spans="1:41">
+      <c r="AP77" s="16"/>
+      <c r="AQ77" s="16"/>
+      <c r="AR77" s="16"/>
+      <c r="AS77" s="16"/>
+      <c r="AT77" s="16"/>
+      <c r="AU77" s="16"/>
+      <c r="AV77" s="16"/>
+      <c r="AW77" s="16"/>
+      <c r="AX77" s="16"/>
+      <c r="AY77" s="16"/>
+      <c r="AZ77" s="16"/>
+      <c r="BA77" s="16"/>
+    </row>
+    <row r="78" spans="1:53">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="11"/>
@@ -6820,8 +7719,20 @@
       <c r="AM78" s="16"/>
       <c r="AN78" s="16"/>
       <c r="AO78" s="16"/>
-    </row>
-    <row r="79" spans="1:41">
+      <c r="AP78" s="16"/>
+      <c r="AQ78" s="16"/>
+      <c r="AR78" s="16"/>
+      <c r="AS78" s="16"/>
+      <c r="AT78" s="16"/>
+      <c r="AU78" s="16"/>
+      <c r="AV78" s="16"/>
+      <c r="AW78" s="16"/>
+      <c r="AX78" s="16"/>
+      <c r="AY78" s="16"/>
+      <c r="AZ78" s="16"/>
+      <c r="BA78" s="16"/>
+    </row>
+    <row r="79" spans="1:53">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="11"/>
@@ -6863,8 +7774,20 @@
       <c r="AM79" s="16"/>
       <c r="AN79" s="16"/>
       <c r="AO79" s="16"/>
-    </row>
-    <row r="80" spans="1:41">
+      <c r="AP79" s="16"/>
+      <c r="AQ79" s="16"/>
+      <c r="AR79" s="16"/>
+      <c r="AS79" s="16"/>
+      <c r="AT79" s="16"/>
+      <c r="AU79" s="16"/>
+      <c r="AV79" s="16"/>
+      <c r="AW79" s="16"/>
+      <c r="AX79" s="16"/>
+      <c r="AY79" s="16"/>
+      <c r="AZ79" s="16"/>
+      <c r="BA79" s="16"/>
+    </row>
+    <row r="80" spans="1:53">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="11"/>
@@ -6906,8 +7829,20 @@
       <c r="AM80" s="16"/>
       <c r="AN80" s="16"/>
       <c r="AO80" s="16"/>
-    </row>
-    <row r="81" spans="1:41">
+      <c r="AP80" s="16"/>
+      <c r="AQ80" s="16"/>
+      <c r="AR80" s="16"/>
+      <c r="AS80" s="16"/>
+      <c r="AT80" s="16"/>
+      <c r="AU80" s="16"/>
+      <c r="AV80" s="16"/>
+      <c r="AW80" s="16"/>
+      <c r="AX80" s="16"/>
+      <c r="AY80" s="16"/>
+      <c r="AZ80" s="16"/>
+      <c r="BA80" s="16"/>
+    </row>
+    <row r="81" spans="1:53">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="11"/>
@@ -6949,8 +7884,20 @@
       <c r="AM81" s="16"/>
       <c r="AN81" s="16"/>
       <c r="AO81" s="16"/>
-    </row>
-    <row r="82" spans="1:41">
+      <c r="AP81" s="16"/>
+      <c r="AQ81" s="16"/>
+      <c r="AR81" s="16"/>
+      <c r="AS81" s="16"/>
+      <c r="AT81" s="16"/>
+      <c r="AU81" s="16"/>
+      <c r="AV81" s="16"/>
+      <c r="AW81" s="16"/>
+      <c r="AX81" s="16"/>
+      <c r="AY81" s="16"/>
+      <c r="AZ81" s="16"/>
+      <c r="BA81" s="16"/>
+    </row>
+    <row r="82" spans="1:53">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="11"/>
@@ -6992,8 +7939,20 @@
       <c r="AM82" s="16"/>
       <c r="AN82" s="16"/>
       <c r="AO82" s="16"/>
-    </row>
-    <row r="83" spans="1:41">
+      <c r="AP82" s="16"/>
+      <c r="AQ82" s="16"/>
+      <c r="AR82" s="16"/>
+      <c r="AS82" s="16"/>
+      <c r="AT82" s="16"/>
+      <c r="AU82" s="16"/>
+      <c r="AV82" s="16"/>
+      <c r="AW82" s="16"/>
+      <c r="AX82" s="16"/>
+      <c r="AY82" s="16"/>
+      <c r="AZ82" s="16"/>
+      <c r="BA82" s="16"/>
+    </row>
+    <row r="83" spans="1:53">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="11"/>
@@ -7035,8 +7994,20 @@
       <c r="AM83" s="16"/>
       <c r="AN83" s="16"/>
       <c r="AO83" s="16"/>
-    </row>
-    <row r="84" spans="1:41">
+      <c r="AP83" s="16"/>
+      <c r="AQ83" s="16"/>
+      <c r="AR83" s="16"/>
+      <c r="AS83" s="16"/>
+      <c r="AT83" s="16"/>
+      <c r="AU83" s="16"/>
+      <c r="AV83" s="16"/>
+      <c r="AW83" s="16"/>
+      <c r="AX83" s="16"/>
+      <c r="AY83" s="16"/>
+      <c r="AZ83" s="16"/>
+      <c r="BA83" s="16"/>
+    </row>
+    <row r="84" spans="1:53">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="11"/>
@@ -7078,8 +8049,20 @@
       <c r="AM84" s="16"/>
       <c r="AN84" s="16"/>
       <c r="AO84" s="16"/>
-    </row>
-    <row r="85" spans="1:41">
+      <c r="AP84" s="16"/>
+      <c r="AQ84" s="16"/>
+      <c r="AR84" s="16"/>
+      <c r="AS84" s="16"/>
+      <c r="AT84" s="16"/>
+      <c r="AU84" s="16"/>
+      <c r="AV84" s="16"/>
+      <c r="AW84" s="16"/>
+      <c r="AX84" s="16"/>
+      <c r="AY84" s="16"/>
+      <c r="AZ84" s="16"/>
+      <c r="BA84" s="16"/>
+    </row>
+    <row r="85" spans="1:53">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="11"/>
@@ -7121,8 +8104,18 @@
       <c r="AM85" s="16"/>
       <c r="AN85" s="16"/>
       <c r="AO85" s="16"/>
-    </row>
-    <row r="86" spans="1:41">
+      <c r="AP85" s="16"/>
+      <c r="AQ85" s="16"/>
+      <c r="AR85" s="16"/>
+      <c r="AS85" s="16"/>
+      <c r="AT85" s="16"/>
+      <c r="AU85" s="16"/>
+      <c r="AV85" s="16"/>
+      <c r="AW85" s="16"/>
+      <c r="AX85" s="16"/>
+      <c r="AY85" s="16"/>
+    </row>
+    <row r="86" spans="1:53">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="11"/>
@@ -7164,8 +8157,18 @@
       <c r="AM86" s="16"/>
       <c r="AN86" s="16"/>
       <c r="AO86" s="16"/>
-    </row>
-    <row r="87" spans="1:41">
+      <c r="AP86" s="16"/>
+      <c r="AQ86" s="16"/>
+      <c r="AR86" s="16"/>
+      <c r="AS86" s="16"/>
+      <c r="AT86" s="16"/>
+      <c r="AU86" s="16"/>
+      <c r="AV86" s="16"/>
+      <c r="AW86" s="16"/>
+      <c r="AX86" s="16"/>
+      <c r="AY86" s="16"/>
+    </row>
+    <row r="87" spans="1:53">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="11"/>
@@ -7207,8 +8210,18 @@
       <c r="AM87" s="16"/>
       <c r="AN87" s="16"/>
       <c r="AO87" s="16"/>
-    </row>
-    <row r="88" spans="1:41">
+      <c r="AP87" s="16"/>
+      <c r="AQ87" s="16"/>
+      <c r="AR87" s="16"/>
+      <c r="AS87" s="16"/>
+      <c r="AT87" s="16"/>
+      <c r="AU87" s="16"/>
+      <c r="AV87" s="16"/>
+      <c r="AW87" s="16"/>
+      <c r="AX87" s="16"/>
+      <c r="AY87" s="16"/>
+    </row>
+    <row r="88" spans="1:53">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="11"/>
@@ -7250,8 +8263,18 @@
       <c r="AM88" s="16"/>
       <c r="AN88" s="16"/>
       <c r="AO88" s="16"/>
-    </row>
-    <row r="89" spans="1:41">
+      <c r="AP88" s="16"/>
+      <c r="AQ88" s="16"/>
+      <c r="AR88" s="16"/>
+      <c r="AS88" s="16"/>
+      <c r="AT88" s="16"/>
+      <c r="AU88" s="16"/>
+      <c r="AV88" s="16"/>
+      <c r="AW88" s="16"/>
+      <c r="AX88" s="16"/>
+      <c r="AY88" s="16"/>
+    </row>
+    <row r="89" spans="1:53">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="11"/>
@@ -7293,8 +8316,18 @@
       <c r="AM89" s="16"/>
       <c r="AN89" s="16"/>
       <c r="AO89" s="16"/>
-    </row>
-    <row r="90" spans="1:41">
+      <c r="AP89" s="16"/>
+      <c r="AQ89" s="16"/>
+      <c r="AR89" s="16"/>
+      <c r="AS89" s="16"/>
+      <c r="AT89" s="16"/>
+      <c r="AU89" s="16"/>
+      <c r="AV89" s="16"/>
+      <c r="AW89" s="16"/>
+      <c r="AX89" s="16"/>
+      <c r="AY89" s="16"/>
+    </row>
+    <row r="90" spans="1:53">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="11"/>
@@ -7336,8 +8369,18 @@
       <c r="AM90" s="16"/>
       <c r="AN90" s="16"/>
       <c r="AO90" s="16"/>
-    </row>
-    <row r="91" spans="1:41">
+      <c r="AP90" s="16"/>
+      <c r="AQ90" s="16"/>
+      <c r="AR90" s="16"/>
+      <c r="AS90" s="16"/>
+      <c r="AT90" s="16"/>
+      <c r="AU90" s="16"/>
+      <c r="AV90" s="16"/>
+      <c r="AW90" s="16"/>
+      <c r="AX90" s="16"/>
+      <c r="AY90" s="16"/>
+    </row>
+    <row r="91" spans="1:53">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="11"/>
@@ -7379,8 +8422,18 @@
       <c r="AM91" s="16"/>
       <c r="AN91" s="16"/>
       <c r="AO91" s="16"/>
-    </row>
-    <row r="92" spans="1:41">
+      <c r="AP91" s="16"/>
+      <c r="AQ91" s="16"/>
+      <c r="AR91" s="16"/>
+      <c r="AS91" s="16"/>
+      <c r="AT91" s="16"/>
+      <c r="AU91" s="16"/>
+      <c r="AV91" s="16"/>
+      <c r="AW91" s="16"/>
+      <c r="AX91" s="16"/>
+      <c r="AY91" s="16"/>
+    </row>
+    <row r="92" spans="1:53">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="11"/>
@@ -7422,8 +8475,18 @@
       <c r="AM92" s="16"/>
       <c r="AN92" s="16"/>
       <c r="AO92" s="16"/>
-    </row>
-    <row r="93" spans="1:41">
+      <c r="AP92" s="16"/>
+      <c r="AQ92" s="16"/>
+      <c r="AR92" s="16"/>
+      <c r="AS92" s="16"/>
+      <c r="AT92" s="16"/>
+      <c r="AU92" s="16"/>
+      <c r="AV92" s="16"/>
+      <c r="AW92" s="16"/>
+      <c r="AX92" s="16"/>
+      <c r="AY92" s="16"/>
+    </row>
+    <row r="93" spans="1:53">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="11"/>
@@ -7465,8 +8528,18 @@
       <c r="AM93" s="16"/>
       <c r="AN93" s="16"/>
       <c r="AO93" s="16"/>
-    </row>
-    <row r="94" spans="1:41">
+      <c r="AP93" s="16"/>
+      <c r="AQ93" s="16"/>
+      <c r="AR93" s="16"/>
+      <c r="AS93" s="16"/>
+      <c r="AT93" s="16"/>
+      <c r="AU93" s="16"/>
+      <c r="AV93" s="16"/>
+      <c r="AW93" s="16"/>
+      <c r="AX93" s="16"/>
+      <c r="AY93" s="16"/>
+    </row>
+    <row r="94" spans="1:53">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="11"/>
@@ -7508,8 +8581,18 @@
       <c r="AM94" s="16"/>
       <c r="AN94" s="16"/>
       <c r="AO94" s="16"/>
-    </row>
-    <row r="95" spans="1:41">
+      <c r="AP94" s="16"/>
+      <c r="AQ94" s="16"/>
+      <c r="AR94" s="16"/>
+      <c r="AS94" s="16"/>
+      <c r="AT94" s="16"/>
+      <c r="AU94" s="16"/>
+      <c r="AV94" s="16"/>
+      <c r="AW94" s="16"/>
+      <c r="AX94" s="16"/>
+      <c r="AY94" s="16"/>
+    </row>
+    <row r="95" spans="1:53">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="11"/>
@@ -7551,8 +8634,18 @@
       <c r="AM95" s="16"/>
       <c r="AN95" s="16"/>
       <c r="AO95" s="16"/>
-    </row>
-    <row r="96" spans="1:41">
+      <c r="AP95" s="16"/>
+      <c r="AQ95" s="16"/>
+      <c r="AR95" s="16"/>
+      <c r="AS95" s="16"/>
+      <c r="AT95" s="16"/>
+      <c r="AU95" s="16"/>
+      <c r="AV95" s="16"/>
+      <c r="AW95" s="16"/>
+      <c r="AX95" s="16"/>
+      <c r="AY95" s="16"/>
+    </row>
+    <row r="96" spans="1:53">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="11"/>
@@ -7594,8 +8687,18 @@
       <c r="AM96" s="16"/>
       <c r="AN96" s="16"/>
       <c r="AO96" s="16"/>
-    </row>
-    <row r="97" spans="1:41">
+      <c r="AP96" s="16"/>
+      <c r="AQ96" s="16"/>
+      <c r="AR96" s="16"/>
+      <c r="AS96" s="16"/>
+      <c r="AT96" s="16"/>
+      <c r="AU96" s="16"/>
+      <c r="AV96" s="16"/>
+      <c r="AW96" s="16"/>
+      <c r="AX96" s="16"/>
+      <c r="AY96" s="16"/>
+    </row>
+    <row r="97" spans="1:51">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="11"/>
@@ -7637,8 +8740,18 @@
       <c r="AM97" s="16"/>
       <c r="AN97" s="16"/>
       <c r="AO97" s="16"/>
-    </row>
-    <row r="98" spans="1:41">
+      <c r="AP97" s="16"/>
+      <c r="AQ97" s="16"/>
+      <c r="AR97" s="16"/>
+      <c r="AS97" s="16"/>
+      <c r="AT97" s="16"/>
+      <c r="AU97" s="16"/>
+      <c r="AV97" s="16"/>
+      <c r="AW97" s="16"/>
+      <c r="AX97" s="16"/>
+      <c r="AY97" s="16"/>
+    </row>
+    <row r="98" spans="1:51">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="11"/>
@@ -7680,8 +8793,18 @@
       <c r="AM98" s="16"/>
       <c r="AN98" s="16"/>
       <c r="AO98" s="16"/>
-    </row>
-    <row r="99" spans="1:41">
+      <c r="AP98" s="16"/>
+      <c r="AQ98" s="16"/>
+      <c r="AR98" s="16"/>
+      <c r="AS98" s="16"/>
+      <c r="AT98" s="16"/>
+      <c r="AU98" s="16"/>
+      <c r="AV98" s="16"/>
+      <c r="AW98" s="16"/>
+      <c r="AX98" s="16"/>
+      <c r="AY98" s="16"/>
+    </row>
+    <row r="99" spans="1:51">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="11"/>
@@ -7723,8 +8846,18 @@
       <c r="AM99" s="16"/>
       <c r="AN99" s="16"/>
       <c r="AO99" s="16"/>
-    </row>
-    <row r="100" spans="1:41">
+      <c r="AP99" s="16"/>
+      <c r="AQ99" s="16"/>
+      <c r="AR99" s="16"/>
+      <c r="AS99" s="16"/>
+      <c r="AT99" s="16"/>
+      <c r="AU99" s="16"/>
+      <c r="AV99" s="16"/>
+      <c r="AW99" s="16"/>
+      <c r="AX99" s="16"/>
+      <c r="AY99" s="16"/>
+    </row>
+    <row r="100" spans="1:51">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="11"/>
@@ -7766,8 +8899,18 @@
       <c r="AM100" s="16"/>
       <c r="AN100" s="16"/>
       <c r="AO100" s="16"/>
-    </row>
-    <row r="101" spans="1:41">
+      <c r="AP100" s="16"/>
+      <c r="AQ100" s="16"/>
+      <c r="AR100" s="16"/>
+      <c r="AS100" s="16"/>
+      <c r="AT100" s="16"/>
+      <c r="AU100" s="16"/>
+      <c r="AV100" s="16"/>
+      <c r="AW100" s="16"/>
+      <c r="AX100" s="16"/>
+      <c r="AY100" s="16"/>
+    </row>
+    <row r="101" spans="1:51">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="11"/>
@@ -7809,8 +8952,18 @@
       <c r="AM101" s="16"/>
       <c r="AN101" s="16"/>
       <c r="AO101" s="16"/>
-    </row>
-    <row r="102" spans="1:41">
+      <c r="AP101" s="16"/>
+      <c r="AQ101" s="16"/>
+      <c r="AR101" s="16"/>
+      <c r="AS101" s="16"/>
+      <c r="AT101" s="16"/>
+      <c r="AU101" s="16"/>
+      <c r="AV101" s="16"/>
+      <c r="AW101" s="16"/>
+      <c r="AX101" s="16"/>
+      <c r="AY101" s="16"/>
+    </row>
+    <row r="102" spans="1:51">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="11"/>
@@ -7852,8 +9005,18 @@
       <c r="AM102" s="16"/>
       <c r="AN102" s="16"/>
       <c r="AO102" s="16"/>
-    </row>
-    <row r="103" spans="1:41">
+      <c r="AP102" s="16"/>
+      <c r="AQ102" s="16"/>
+      <c r="AR102" s="16"/>
+      <c r="AS102" s="16"/>
+      <c r="AT102" s="16"/>
+      <c r="AU102" s="16"/>
+      <c r="AV102" s="16"/>
+      <c r="AW102" s="16"/>
+      <c r="AX102" s="16"/>
+      <c r="AY102" s="16"/>
+    </row>
+    <row r="103" spans="1:51">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="11"/>
@@ -7895,8 +9058,18 @@
       <c r="AM103" s="16"/>
       <c r="AN103" s="16"/>
       <c r="AO103" s="16"/>
-    </row>
-    <row r="104" spans="1:41">
+      <c r="AP103" s="16"/>
+      <c r="AQ103" s="16"/>
+      <c r="AR103" s="16"/>
+      <c r="AS103" s="16"/>
+      <c r="AT103" s="16"/>
+      <c r="AU103" s="16"/>
+      <c r="AV103" s="16"/>
+      <c r="AW103" s="16"/>
+      <c r="AX103" s="16"/>
+      <c r="AY103" s="16"/>
+    </row>
+    <row r="104" spans="1:51">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="11"/>
@@ -7938,8 +9111,18 @@
       <c r="AM104" s="16"/>
       <c r="AN104" s="16"/>
       <c r="AO104" s="16"/>
-    </row>
-    <row r="105" spans="1:41">
+      <c r="AP104" s="16"/>
+      <c r="AQ104" s="16"/>
+      <c r="AR104" s="16"/>
+      <c r="AS104" s="16"/>
+      <c r="AT104" s="16"/>
+      <c r="AU104" s="16"/>
+      <c r="AV104" s="16"/>
+      <c r="AW104" s="16"/>
+      <c r="AX104" s="16"/>
+      <c r="AY104" s="16"/>
+    </row>
+    <row r="105" spans="1:51">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="11"/>
@@ -7981,8 +9164,18 @@
       <c r="AM105" s="16"/>
       <c r="AN105" s="16"/>
       <c r="AO105" s="16"/>
-    </row>
-    <row r="106" spans="1:41">
+      <c r="AP105" s="16"/>
+      <c r="AQ105" s="16"/>
+      <c r="AR105" s="16"/>
+      <c r="AS105" s="16"/>
+      <c r="AT105" s="16"/>
+      <c r="AU105" s="16"/>
+      <c r="AV105" s="16"/>
+      <c r="AW105" s="16"/>
+      <c r="AX105" s="16"/>
+      <c r="AY105" s="16"/>
+    </row>
+    <row r="106" spans="1:51">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="11"/>
@@ -8024,8 +9217,18 @@
       <c r="AM106" s="16"/>
       <c r="AN106" s="16"/>
       <c r="AO106" s="16"/>
-    </row>
-    <row r="107" spans="1:41">
+      <c r="AP106" s="16"/>
+      <c r="AQ106" s="16"/>
+      <c r="AR106" s="16"/>
+      <c r="AS106" s="16"/>
+      <c r="AT106" s="16"/>
+      <c r="AU106" s="16"/>
+      <c r="AV106" s="16"/>
+      <c r="AW106" s="16"/>
+      <c r="AX106" s="16"/>
+      <c r="AY106" s="16"/>
+    </row>
+    <row r="107" spans="1:51">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="11"/>
@@ -8067,8 +9270,18 @@
       <c r="AM107" s="16"/>
       <c r="AN107" s="16"/>
       <c r="AO107" s="16"/>
-    </row>
-    <row r="108" spans="1:41">
+      <c r="AP107" s="16"/>
+      <c r="AQ107" s="16"/>
+      <c r="AR107" s="16"/>
+      <c r="AS107" s="16"/>
+      <c r="AT107" s="16"/>
+      <c r="AU107" s="16"/>
+      <c r="AV107" s="16"/>
+      <c r="AW107" s="16"/>
+      <c r="AX107" s="16"/>
+      <c r="AY107" s="16"/>
+    </row>
+    <row r="108" spans="1:51">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="11"/>
@@ -8110,8 +9323,18 @@
       <c r="AM108" s="16"/>
       <c r="AN108" s="16"/>
       <c r="AO108" s="16"/>
-    </row>
-    <row r="109" spans="1:41">
+      <c r="AP108" s="16"/>
+      <c r="AQ108" s="16"/>
+      <c r="AR108" s="16"/>
+      <c r="AS108" s="16"/>
+      <c r="AT108" s="16"/>
+      <c r="AU108" s="16"/>
+      <c r="AV108" s="16"/>
+      <c r="AW108" s="16"/>
+      <c r="AX108" s="16"/>
+      <c r="AY108" s="16"/>
+    </row>
+    <row r="109" spans="1:51">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="11"/>
@@ -8153,8 +9376,18 @@
       <c r="AM109" s="16"/>
       <c r="AN109" s="16"/>
       <c r="AO109" s="16"/>
-    </row>
-    <row r="110" spans="1:41">
+      <c r="AP109" s="16"/>
+      <c r="AQ109" s="16"/>
+      <c r="AR109" s="16"/>
+      <c r="AS109" s="16"/>
+      <c r="AT109" s="16"/>
+      <c r="AU109" s="16"/>
+      <c r="AV109" s="16"/>
+      <c r="AW109" s="16"/>
+      <c r="AX109" s="16"/>
+      <c r="AY109" s="16"/>
+    </row>
+    <row r="110" spans="1:51">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="11"/>
@@ -8196,8 +9429,18 @@
       <c r="AM110" s="16"/>
       <c r="AN110" s="16"/>
       <c r="AO110" s="16"/>
-    </row>
-    <row r="111" spans="1:41">
+      <c r="AP110" s="16"/>
+      <c r="AQ110" s="16"/>
+      <c r="AR110" s="16"/>
+      <c r="AS110" s="16"/>
+      <c r="AT110" s="16"/>
+      <c r="AU110" s="16"/>
+      <c r="AV110" s="16"/>
+      <c r="AW110" s="16"/>
+      <c r="AX110" s="16"/>
+      <c r="AY110" s="16"/>
+    </row>
+    <row r="111" spans="1:51">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="11"/>
@@ -8239,8 +9482,18 @@
       <c r="AM111" s="16"/>
       <c r="AN111" s="16"/>
       <c r="AO111" s="16"/>
-    </row>
-    <row r="112" spans="1:41">
+      <c r="AP111" s="16"/>
+      <c r="AQ111" s="16"/>
+      <c r="AR111" s="16"/>
+      <c r="AS111" s="16"/>
+      <c r="AT111" s="16"/>
+      <c r="AU111" s="16"/>
+      <c r="AV111" s="16"/>
+      <c r="AW111" s="16"/>
+      <c r="AX111" s="16"/>
+      <c r="AY111" s="16"/>
+    </row>
+    <row r="112" spans="1:51">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="11"/>
@@ -8282,8 +9535,18 @@
       <c r="AM112" s="16"/>
       <c r="AN112" s="16"/>
       <c r="AO112" s="16"/>
-    </row>
-    <row r="113" spans="1:41">
+      <c r="AP112" s="16"/>
+      <c r="AQ112" s="16"/>
+      <c r="AR112" s="16"/>
+      <c r="AS112" s="16"/>
+      <c r="AT112" s="16"/>
+      <c r="AU112" s="16"/>
+      <c r="AV112" s="16"/>
+      <c r="AW112" s="16"/>
+      <c r="AX112" s="16"/>
+      <c r="AY112" s="16"/>
+    </row>
+    <row r="113" spans="1:51">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="11"/>
@@ -8325,8 +9588,18 @@
       <c r="AM113" s="16"/>
       <c r="AN113" s="16"/>
       <c r="AO113" s="16"/>
-    </row>
-    <row r="114" spans="1:41">
+      <c r="AP113" s="16"/>
+      <c r="AQ113" s="16"/>
+      <c r="AR113" s="16"/>
+      <c r="AS113" s="16"/>
+      <c r="AT113" s="16"/>
+      <c r="AU113" s="16"/>
+      <c r="AV113" s="16"/>
+      <c r="AW113" s="16"/>
+      <c r="AX113" s="16"/>
+      <c r="AY113" s="16"/>
+    </row>
+    <row r="114" spans="1:51">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="11"/>
@@ -8368,8 +9641,18 @@
       <c r="AM114" s="16"/>
       <c r="AN114" s="16"/>
       <c r="AO114" s="16"/>
-    </row>
-    <row r="115" spans="1:41">
+      <c r="AP114" s="16"/>
+      <c r="AQ114" s="16"/>
+      <c r="AR114" s="16"/>
+      <c r="AS114" s="16"/>
+      <c r="AT114" s="16"/>
+      <c r="AU114" s="16"/>
+      <c r="AV114" s="16"/>
+      <c r="AW114" s="16"/>
+      <c r="AX114" s="16"/>
+      <c r="AY114" s="16"/>
+    </row>
+    <row r="115" spans="1:51">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="11"/>
@@ -8411,8 +9694,18 @@
       <c r="AM115" s="16"/>
       <c r="AN115" s="16"/>
       <c r="AO115" s="16"/>
-    </row>
-    <row r="116" spans="1:41">
+      <c r="AP115" s="16"/>
+      <c r="AQ115" s="16"/>
+      <c r="AR115" s="16"/>
+      <c r="AS115" s="16"/>
+      <c r="AT115" s="16"/>
+      <c r="AU115" s="16"/>
+      <c r="AV115" s="16"/>
+      <c r="AW115" s="16"/>
+      <c r="AX115" s="16"/>
+      <c r="AY115" s="16"/>
+    </row>
+    <row r="116" spans="1:51">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="11"/>
@@ -8454,8 +9747,18 @@
       <c r="AM116" s="16"/>
       <c r="AN116" s="16"/>
       <c r="AO116" s="16"/>
-    </row>
-    <row r="117" spans="1:41">
+      <c r="AP116" s="16"/>
+      <c r="AQ116" s="16"/>
+      <c r="AR116" s="16"/>
+      <c r="AS116" s="16"/>
+      <c r="AT116" s="16"/>
+      <c r="AU116" s="16"/>
+      <c r="AV116" s="16"/>
+      <c r="AW116" s="16"/>
+      <c r="AX116" s="16"/>
+      <c r="AY116" s="16"/>
+    </row>
+    <row r="117" spans="1:51">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="11"/>
@@ -8497,8 +9800,18 @@
       <c r="AM117" s="16"/>
       <c r="AN117" s="16"/>
       <c r="AO117" s="16"/>
-    </row>
-    <row r="118" spans="1:41">
+      <c r="AP117" s="16"/>
+      <c r="AQ117" s="16"/>
+      <c r="AR117" s="16"/>
+      <c r="AS117" s="16"/>
+      <c r="AT117" s="16"/>
+      <c r="AU117" s="16"/>
+      <c r="AV117" s="16"/>
+      <c r="AW117" s="16"/>
+      <c r="AX117" s="16"/>
+      <c r="AY117" s="16"/>
+    </row>
+    <row r="118" spans="1:51">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="11"/>
@@ -8540,182 +9853,232 @@
       <c r="AM118" s="16"/>
       <c r="AN118" s="16"/>
       <c r="AO118" s="16"/>
-    </row>
-    <row r="119" spans="1:41">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="17"/>
-      <c r="V119" s="17"/>
-      <c r="W119" s="17"/>
-      <c r="X119" s="17"/>
-      <c r="Y119" s="17"/>
-      <c r="Z119" s="17"/>
-      <c r="AA119" s="17"/>
-      <c r="AB119" s="17"/>
-      <c r="AC119" s="17"/>
-      <c r="AD119" s="17"/>
-      <c r="AE119" s="17"/>
-      <c r="AF119" s="17"/>
-      <c r="AG119" s="17"/>
-      <c r="AH119" s="17"/>
-      <c r="AI119" s="17"/>
-      <c r="AJ119" s="17"/>
-      <c r="AK119" s="17"/>
-      <c r="AL119" s="17"/>
-      <c r="AM119" s="17"/>
-      <c r="AN119" s="17"/>
-      <c r="AO119" s="17"/>
-    </row>
-    <row r="120" spans="1:41">
-      <c r="A120" s="13"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="17"/>
-      <c r="W120" s="17"/>
-      <c r="X120" s="17"/>
-      <c r="Y120" s="17"/>
-      <c r="Z120" s="17"/>
-      <c r="AA120" s="17"/>
-      <c r="AB120" s="17"/>
-      <c r="AC120" s="17"/>
-      <c r="AD120" s="17"/>
-      <c r="AE120" s="17"/>
-      <c r="AF120" s="17"/>
-      <c r="AG120" s="17"/>
-      <c r="AH120" s="17"/>
-      <c r="AI120" s="17"/>
-      <c r="AJ120" s="17"/>
-      <c r="AK120" s="17"/>
-      <c r="AL120" s="17"/>
-      <c r="AM120" s="17"/>
-      <c r="AN120" s="17"/>
-      <c r="AO120" s="17"/>
-    </row>
-    <row r="121" spans="1:41">
-      <c r="A121" s="13"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
-      <c r="AB121" s="17"/>
-      <c r="AC121" s="17"/>
-      <c r="AD121" s="17"/>
-      <c r="AE121" s="17"/>
-      <c r="AF121" s="17"/>
-      <c r="AG121" s="17"/>
-      <c r="AH121" s="17"/>
-      <c r="AI121" s="17"/>
-      <c r="AJ121" s="17"/>
-      <c r="AK121" s="17"/>
-      <c r="AL121" s="17"/>
-      <c r="AM121" s="17"/>
-      <c r="AN121" s="17"/>
-      <c r="AO121" s="17"/>
-    </row>
-    <row r="122" spans="1:41">
-      <c r="A122" s="13"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
-      <c r="R122" s="17"/>
-      <c r="S122" s="17"/>
-      <c r="T122" s="17"/>
-      <c r="U122" s="17"/>
-      <c r="V122" s="17"/>
-      <c r="W122" s="17"/>
-      <c r="X122" s="17"/>
-      <c r="Y122" s="17"/>
-      <c r="Z122" s="17"/>
-      <c r="AA122" s="17"/>
-      <c r="AB122" s="17"/>
-      <c r="AC122" s="17"/>
-      <c r="AD122" s="17"/>
-      <c r="AE122" s="17"/>
-      <c r="AF122" s="17"/>
-      <c r="AG122" s="17"/>
-      <c r="AH122" s="17"/>
-      <c r="AI122" s="17"/>
-      <c r="AJ122" s="17"/>
-      <c r="AK122" s="17"/>
-      <c r="AL122" s="17"/>
-      <c r="AM122" s="17"/>
-      <c r="AN122" s="17"/>
-      <c r="AO122" s="17"/>
-    </row>
-    <row r="123" spans="1:41">
+      <c r="AP118" s="16"/>
+      <c r="AQ118" s="16"/>
+      <c r="AR118" s="16"/>
+      <c r="AS118" s="16"/>
+      <c r="AT118" s="16"/>
+      <c r="AU118" s="16"/>
+      <c r="AV118" s="16"/>
+      <c r="AW118" s="16"/>
+      <c r="AX118" s="16"/>
+      <c r="AY118" s="16"/>
+    </row>
+    <row r="119" spans="1:51">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="16"/>
+      <c r="W119" s="16"/>
+      <c r="X119" s="16"/>
+      <c r="Y119" s="16"/>
+      <c r="Z119" s="16"/>
+      <c r="AA119" s="16"/>
+      <c r="AB119" s="16"/>
+      <c r="AC119" s="16"/>
+      <c r="AD119" s="16"/>
+      <c r="AE119" s="16"/>
+      <c r="AF119" s="16"/>
+      <c r="AG119" s="16"/>
+      <c r="AH119" s="16"/>
+      <c r="AI119" s="16"/>
+      <c r="AJ119" s="16"/>
+      <c r="AK119" s="16"/>
+      <c r="AL119" s="16"/>
+      <c r="AM119" s="16"/>
+      <c r="AN119" s="16"/>
+      <c r="AO119" s="16"/>
+      <c r="AP119" s="16"/>
+      <c r="AQ119" s="16"/>
+      <c r="AR119" s="16"/>
+      <c r="AS119" s="16"/>
+      <c r="AT119" s="16"/>
+      <c r="AU119" s="16"/>
+      <c r="AV119" s="16"/>
+      <c r="AW119" s="16"/>
+      <c r="AX119" s="16"/>
+      <c r="AY119" s="16"/>
+    </row>
+    <row r="120" spans="1:51">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
+      <c r="Z120" s="16"/>
+      <c r="AA120" s="16"/>
+      <c r="AB120" s="16"/>
+      <c r="AC120" s="16"/>
+      <c r="AD120" s="16"/>
+      <c r="AE120" s="16"/>
+      <c r="AF120" s="16"/>
+      <c r="AG120" s="16"/>
+      <c r="AH120" s="16"/>
+      <c r="AI120" s="16"/>
+      <c r="AJ120" s="16"/>
+      <c r="AK120" s="16"/>
+      <c r="AL120" s="16"/>
+      <c r="AM120" s="16"/>
+      <c r="AN120" s="16"/>
+      <c r="AO120" s="16"/>
+      <c r="AP120" s="16"/>
+      <c r="AQ120" s="16"/>
+      <c r="AR120" s="16"/>
+      <c r="AS120" s="16"/>
+      <c r="AT120" s="16"/>
+      <c r="AU120" s="16"/>
+      <c r="AV120" s="16"/>
+      <c r="AW120" s="16"/>
+      <c r="AX120" s="16"/>
+      <c r="AY120" s="16"/>
+    </row>
+    <row r="121" spans="1:51">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="16"/>
+      <c r="U121" s="16"/>
+      <c r="V121" s="16"/>
+      <c r="W121" s="16"/>
+      <c r="X121" s="16"/>
+      <c r="Y121" s="16"/>
+      <c r="Z121" s="16"/>
+      <c r="AA121" s="16"/>
+      <c r="AB121" s="16"/>
+      <c r="AC121" s="16"/>
+      <c r="AD121" s="16"/>
+      <c r="AE121" s="16"/>
+      <c r="AF121" s="16"/>
+      <c r="AG121" s="16"/>
+      <c r="AH121" s="16"/>
+      <c r="AI121" s="16"/>
+      <c r="AJ121" s="16"/>
+      <c r="AK121" s="16"/>
+      <c r="AL121" s="16"/>
+      <c r="AM121" s="16"/>
+      <c r="AN121" s="16"/>
+      <c r="AO121" s="16"/>
+      <c r="AP121" s="16"/>
+      <c r="AQ121" s="16"/>
+      <c r="AR121" s="16"/>
+      <c r="AS121" s="16"/>
+      <c r="AT121" s="16"/>
+      <c r="AU121" s="16"/>
+      <c r="AV121" s="16"/>
+      <c r="AW121" s="16"/>
+      <c r="AX121" s="16"/>
+      <c r="AY121" s="16"/>
+    </row>
+    <row r="122" spans="1:51">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="16"/>
+      <c r="W122" s="16"/>
+      <c r="X122" s="16"/>
+      <c r="Y122" s="16"/>
+      <c r="Z122" s="16"/>
+      <c r="AA122" s="16"/>
+      <c r="AB122" s="16"/>
+      <c r="AC122" s="16"/>
+      <c r="AD122" s="16"/>
+      <c r="AE122" s="16"/>
+      <c r="AF122" s="16"/>
+      <c r="AG122" s="16"/>
+      <c r="AH122" s="16"/>
+      <c r="AI122" s="16"/>
+      <c r="AJ122" s="16"/>
+      <c r="AK122" s="16"/>
+      <c r="AL122" s="16"/>
+      <c r="AM122" s="16"/>
+      <c r="AN122" s="16"/>
+      <c r="AO122" s="16"/>
+      <c r="AP122" s="16"/>
+      <c r="AQ122" s="16"/>
+      <c r="AR122" s="16"/>
+      <c r="AS122" s="16"/>
+      <c r="AT122" s="16"/>
+      <c r="AU122" s="16"/>
+      <c r="AV122" s="16"/>
+      <c r="AW122" s="16"/>
+      <c r="AX122" s="16"/>
+      <c r="AY122" s="16"/>
+    </row>
+    <row r="123" spans="1:51">
       <c r="A123" s="13"/>
-      <c r="B123" s="6"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="14"/>
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
@@ -8755,8 +10118,18 @@
       <c r="AM123" s="17"/>
       <c r="AN123" s="17"/>
       <c r="AO123" s="17"/>
-    </row>
-    <row r="124" spans="1:41">
+      <c r="AP123" s="17"/>
+      <c r="AQ123" s="17"/>
+      <c r="AR123" s="17"/>
+      <c r="AS123" s="17"/>
+      <c r="AT123" s="17"/>
+      <c r="AU123" s="17"/>
+      <c r="AV123" s="17"/>
+      <c r="AW123" s="17"/>
+      <c r="AX123" s="17"/>
+      <c r="AY123" s="17"/>
+    </row>
+    <row r="124" spans="1:51">
       <c r="A124" s="13"/>
       <c r="B124" s="6"/>
       <c r="C124" s="14"/>
@@ -8798,8 +10171,18 @@
       <c r="AM124" s="17"/>
       <c r="AN124" s="17"/>
       <c r="AO124" s="17"/>
-    </row>
-    <row r="125" spans="1:41">
+      <c r="AP124" s="17"/>
+      <c r="AQ124" s="17"/>
+      <c r="AR124" s="17"/>
+      <c r="AS124" s="17"/>
+      <c r="AT124" s="17"/>
+      <c r="AU124" s="17"/>
+      <c r="AV124" s="17"/>
+      <c r="AW124" s="17"/>
+      <c r="AX124" s="17"/>
+      <c r="AY124" s="17"/>
+    </row>
+    <row r="125" spans="1:51">
       <c r="A125" s="13"/>
       <c r="B125" s="6"/>
       <c r="C125" s="14"/>
@@ -8841,8 +10224,9 @@
       <c r="AM125" s="17"/>
       <c r="AN125" s="17"/>
       <c r="AO125" s="17"/>
-    </row>
-    <row r="126" spans="1:41">
+      <c r="AP125" s="17"/>
+    </row>
+    <row r="126" spans="1:51">
       <c r="A126" s="13"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
@@ -8884,8 +10268,9 @@
       <c r="AM126" s="17"/>
       <c r="AN126" s="17"/>
       <c r="AO126" s="17"/>
-    </row>
-    <row r="127" spans="1:41">
+      <c r="AP126" s="17"/>
+    </row>
+    <row r="127" spans="1:51">
       <c r="A127" s="13"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
@@ -8927,8 +10312,9 @@
       <c r="AM127" s="17"/>
       <c r="AN127" s="17"/>
       <c r="AO127" s="17"/>
-    </row>
-    <row r="128" spans="1:41">
+      <c r="AP127" s="17"/>
+    </row>
+    <row r="128" spans="1:51">
       <c r="A128" s="13"/>
       <c r="B128" s="6"/>
       <c r="C128" s="14"/>
@@ -8970,8 +10356,9 @@
       <c r="AM128" s="17"/>
       <c r="AN128" s="17"/>
       <c r="AO128" s="17"/>
-    </row>
-    <row r="129" spans="1:41">
+      <c r="AP128" s="17"/>
+    </row>
+    <row r="129" spans="1:42">
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
       <c r="C129" s="14"/>
@@ -9013,8 +10400,9 @@
       <c r="AM129" s="17"/>
       <c r="AN129" s="17"/>
       <c r="AO129" s="17"/>
-    </row>
-    <row r="130" spans="1:41">
+      <c r="AP129" s="17"/>
+    </row>
+    <row r="130" spans="1:42">
       <c r="A130" s="13"/>
       <c r="B130" s="6"/>
       <c r="C130" s="14"/>
@@ -9056,8 +10444,9 @@
       <c r="AM130" s="17"/>
       <c r="AN130" s="17"/>
       <c r="AO130" s="17"/>
-    </row>
-    <row r="131" spans="1:41">
+      <c r="AP130" s="17"/>
+    </row>
+    <row r="131" spans="1:42">
       <c r="A131" s="13"/>
       <c r="B131" s="6"/>
       <c r="C131" s="14"/>
@@ -9099,8 +10488,9 @@
       <c r="AM131" s="17"/>
       <c r="AN131" s="17"/>
       <c r="AO131" s="17"/>
-    </row>
-    <row r="132" spans="1:41">
+      <c r="AP131" s="17"/>
+    </row>
+    <row r="132" spans="1:42">
       <c r="A132" s="13"/>
       <c r="B132" s="6"/>
       <c r="C132" s="14"/>
@@ -9142,8 +10532,9 @@
       <c r="AM132" s="17"/>
       <c r="AN132" s="17"/>
       <c r="AO132" s="17"/>
-    </row>
-    <row r="133" spans="1:41">
+      <c r="AP132" s="17"/>
+    </row>
+    <row r="133" spans="1:42">
       <c r="A133" s="13"/>
       <c r="B133" s="6"/>
       <c r="C133" s="14"/>
@@ -9185,8 +10576,9 @@
       <c r="AM133" s="17"/>
       <c r="AN133" s="17"/>
       <c r="AO133" s="17"/>
-    </row>
-    <row r="134" spans="1:41">
+      <c r="AP133" s="17"/>
+    </row>
+    <row r="134" spans="1:42">
       <c r="A134" s="13"/>
       <c r="B134" s="6"/>
       <c r="C134" s="14"/>
@@ -9228,8 +10620,9 @@
       <c r="AM134" s="17"/>
       <c r="AN134" s="17"/>
       <c r="AO134" s="17"/>
-    </row>
-    <row r="135" spans="1:41">
+      <c r="AP134" s="17"/>
+    </row>
+    <row r="135" spans="1:42">
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
       <c r="C135" s="14"/>
@@ -9271,8 +10664,9 @@
       <c r="AM135" s="17"/>
       <c r="AN135" s="17"/>
       <c r="AO135" s="17"/>
-    </row>
-    <row r="136" spans="1:41">
+      <c r="AP135" s="17"/>
+    </row>
+    <row r="136" spans="1:42">
       <c r="A136" s="13"/>
       <c r="B136" s="6"/>
       <c r="C136" s="14"/>
@@ -9314,8 +10708,9 @@
       <c r="AM136" s="17"/>
       <c r="AN136" s="17"/>
       <c r="AO136" s="17"/>
-    </row>
-    <row r="137" spans="1:41">
+      <c r="AP136" s="17"/>
+    </row>
+    <row r="137" spans="1:42">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="14"/>
@@ -9357,36 +10752,262 @@
       <c r="AM137" s="17"/>
       <c r="AN137" s="17"/>
       <c r="AO137" s="17"/>
+      <c r="AP137" s="17"/>
+    </row>
+    <row r="138" spans="1:42">
+      <c r="A138" s="13"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
+      <c r="R138" s="17"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="17"/>
+      <c r="U138" s="17"/>
+      <c r="V138" s="17"/>
+      <c r="W138" s="17"/>
+      <c r="X138" s="17"/>
+      <c r="Y138" s="17"/>
+      <c r="Z138" s="17"/>
+      <c r="AA138" s="17"/>
+      <c r="AB138" s="17"/>
+      <c r="AC138" s="17"/>
+      <c r="AD138" s="17"/>
+      <c r="AE138" s="17"/>
+      <c r="AF138" s="17"/>
+      <c r="AG138" s="17"/>
+      <c r="AH138" s="17"/>
+      <c r="AI138" s="17"/>
+      <c r="AJ138" s="17"/>
+      <c r="AK138" s="17"/>
+      <c r="AL138" s="17"/>
+      <c r="AM138" s="17"/>
+      <c r="AN138" s="17"/>
+      <c r="AO138" s="17"/>
+      <c r="AP138" s="17"/>
+    </row>
+    <row r="139" spans="1:42">
+      <c r="A139" s="13"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
+      <c r="R139" s="17"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="17"/>
+      <c r="U139" s="17"/>
+      <c r="V139" s="17"/>
+      <c r="W139" s="17"/>
+      <c r="X139" s="17"/>
+      <c r="Y139" s="17"/>
+      <c r="Z139" s="17"/>
+      <c r="AA139" s="17"/>
+      <c r="AB139" s="17"/>
+      <c r="AC139" s="17"/>
+      <c r="AD139" s="17"/>
+      <c r="AE139" s="17"/>
+      <c r="AF139" s="17"/>
+      <c r="AG139" s="17"/>
+      <c r="AH139" s="17"/>
+      <c r="AI139" s="17"/>
+      <c r="AJ139" s="17"/>
+      <c r="AK139" s="17"/>
+      <c r="AL139" s="17"/>
+      <c r="AM139" s="17"/>
+      <c r="AN139" s="17"/>
+      <c r="AO139" s="17"/>
+      <c r="AP139" s="17"/>
+    </row>
+    <row r="140" spans="1:42">
+      <c r="A140" s="13"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
+      <c r="R140" s="17"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="17"/>
+      <c r="U140" s="17"/>
+      <c r="V140" s="17"/>
+      <c r="W140" s="17"/>
+      <c r="X140" s="17"/>
+      <c r="Y140" s="17"/>
+      <c r="Z140" s="17"/>
+      <c r="AA140" s="17"/>
+      <c r="AB140" s="17"/>
+      <c r="AC140" s="17"/>
+      <c r="AD140" s="17"/>
+      <c r="AE140" s="17"/>
+      <c r="AF140" s="17"/>
+      <c r="AG140" s="17"/>
+      <c r="AH140" s="17"/>
+      <c r="AI140" s="17"/>
+      <c r="AJ140" s="17"/>
+      <c r="AK140" s="17"/>
+      <c r="AL140" s="17"/>
+      <c r="AM140" s="17"/>
+      <c r="AN140" s="17"/>
+      <c r="AO140" s="17"/>
+      <c r="AP140" s="17"/>
+    </row>
+    <row r="141" spans="1:42">
+      <c r="A141" s="13"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
+      <c r="R141" s="17"/>
+      <c r="S141" s="17"/>
+      <c r="T141" s="17"/>
+      <c r="U141" s="17"/>
+      <c r="V141" s="17"/>
+      <c r="W141" s="17"/>
+      <c r="X141" s="17"/>
+      <c r="Y141" s="17"/>
+      <c r="Z141" s="17"/>
+      <c r="AA141" s="17"/>
+      <c r="AB141" s="17"/>
+      <c r="AC141" s="17"/>
+      <c r="AD141" s="17"/>
+      <c r="AE141" s="17"/>
+      <c r="AF141" s="17"/>
+      <c r="AG141" s="17"/>
+      <c r="AH141" s="17"/>
+      <c r="AI141" s="17"/>
+      <c r="AJ141" s="17"/>
+      <c r="AK141" s="17"/>
+      <c r="AL141" s="17"/>
+      <c r="AM141" s="17"/>
+      <c r="AN141" s="17"/>
+      <c r="AO141" s="17"/>
+      <c r="AP141" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AG137">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="ㅁ">
+  <conditionalFormatting sqref="D46:AG141 AH46:AO49 D3:AP44 D45:AO45 AQ45:AQ49 AQ33:BA44">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="ㅁ">
       <formula>NOT(ISERROR(SEARCH("ㅁ",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="ㅇ">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="ㅇ">
       <formula>NOT(ISERROR(SEARCH("ㅇ",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:AG1048576">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="완성">
+  <conditionalFormatting sqref="D46:AG1048576 AH46:AO49 D45:AO45 D1:AP44 AQ45:AQ49 AQ33:BA44">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="완성">
       <formula>NOT(ISERROR(SEARCH("완성",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AO137">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="ㅁ">
-      <formula>NOT(ISERROR(SEARCH("ㅁ",AH3)))</formula>
+  <conditionalFormatting sqref="AH68:AP141 AI50:AO51 AH52:AO67 AQ68:AY124 AQ50:AQ67 AQ68:BA84">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ㅁ">
+      <formula>NOT(ISERROR(SEARCH("ㅁ",AH50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="ㅇ">
-      <formula>NOT(ISERROR(SEARCH("ㅇ",AH3)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="ㅇ">
+      <formula>NOT(ISERROR(SEARCH("ㅇ",AH50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AO1048576">
+  <conditionalFormatting sqref="AH68:AP1048576 AI50:AO51 AH52:AO67 AQ68:AY124 AQ50:AQ67 AQ68:BA84">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="완성">
+      <formula>NOT(ISERROR(SEARCH("완성",AH50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH50:AH51">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ㅁ">
+      <formula>NOT(ISERROR(SEARCH("ㅁ",AH50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="ㅇ">
+      <formula>NOT(ISERROR(SEARCH("ㅇ",AH50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH50:AH51">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="완성">
+      <formula>NOT(ISERROR(SEARCH("완성",AH50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP45:BA49">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ㅁ">
+      <formula>NOT(ISERROR(SEARCH("ㅁ",AP45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="ㅇ">
+      <formula>NOT(ISERROR(SEARCH("ㅇ",AP45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP45:BA49">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="완성">
+      <formula>NOT(ISERROR(SEARCH("완성",AP45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP50:BA67">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ㅁ">
+      <formula>NOT(ISERROR(SEARCH("ㅁ",AP50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="ㅇ">
+      <formula>NOT(ISERROR(SEARCH("ㅇ",AP50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP50:BA67">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="완성">
+      <formula>NOT(ISERROR(SEARCH("완성",AP50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:BF2">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="완성">
+      <formula>NOT(ISERROR(SEARCH("완성",AQ2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ1:BN1">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="완성">
-      <formula>NOT(ISERROR(SEARCH("완성",AH1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("완성",AQ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9396,10 +11017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F0D1F1-878D-41CB-B60B-C3F05C9EDCFB}">
-  <dimension ref="D4:F14"/>
+  <dimension ref="D3:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9408,49 +11029,35 @@
     <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6">
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6">
+    <row r="3" spans="4:11">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11">
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11">
       <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" t="s">
-        <v>63</v>
+        <v>256</v>
+      </c>
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11">
+      <c r="K6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11">
+      <c r="K7" s="115" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9505,64 +11112,64 @@
         <v>0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P13" s="26" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="R13" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="S13" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="T13" s="26" t="s">
-        <v>155</v>
-      </c>
       <c r="U13" s="26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="V13" s="26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="W13" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="X13" s="69" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="X13" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="6:39">
@@ -9576,16 +11183,16 @@
         <v>800</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M14" s="28">
         <v>1</v>
@@ -9597,32 +11204,32 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="R14" s="67" t="s">
-        <v>152</v>
+      <c r="Q14" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>142</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="U14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V14" s="67">
+        <v>155</v>
+      </c>
+      <c r="V14" s="66">
         <v>600000</v>
       </c>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="74">
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="69">
         <f>W14+X14</f>
         <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="6:39">
@@ -9637,16 +11244,16 @@
         <v>2600</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M15" s="31">
         <v>1</v>
@@ -9657,61 +11264,61 @@
         <v>2</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R15" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="R15" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
       </c>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="74">
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="69">
         <f t="shared" ref="Y15:Y17" si="0">W15+X15</f>
         <v>0</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AD15" s="26" t="s">
         <v>0</v>
       </c>
       <c r="AE15" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF15" s="26" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AG15" s="26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AH15" s="26" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AI15" s="26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AJ15" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK15" s="26" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AL15" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM15" s="75" t="s">
-        <v>212</v>
+        <v>164</v>
+      </c>
+      <c r="AM15" s="70" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="6:39">
@@ -9726,16 +11333,16 @@
         <v>11000</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M16" s="31">
         <v>1</v>
@@ -9746,66 +11353,66 @@
         <v>3</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="R16" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="R16" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="U16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V16" s="68">
+        <v>156</v>
+      </c>
+      <c r="V16" s="67">
         <v>100000</v>
       </c>
-      <c r="W16" s="68">
+      <c r="W16" s="67">
         <v>600000</v>
       </c>
-      <c r="X16" s="68">
+      <c r="X16" s="67">
         <v>100000</v>
       </c>
-      <c r="Y16" s="74">
+      <c r="Y16" s="69">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AD16" s="6">
         <v>1</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AG16" s="6" t="str">
         <f>VLOOKUP(AF16,$Q$13:$R$17,2,0)</f>
         <v>김기민</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI16" s="76">
+        <v>151</v>
+      </c>
+      <c r="AI16" s="71">
         <v>44590</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK16" s="77">
+        <v>178</v>
+      </c>
+      <c r="AK16" s="72">
         <v>60000</v>
       </c>
-      <c r="AL16" s="77">
+      <c r="AL16" s="72">
         <v>0</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="6:39">
@@ -9820,16 +11427,16 @@
         <v>2800</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M17" s="31">
         <v>1</v>
@@ -9840,65 +11447,65 @@
         <v>4</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="R17" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="R17" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="U17" s="25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="V17" s="25">
         <v>0</v>
       </c>
-      <c r="W17" s="68">
+      <c r="W17" s="67">
         <v>0</v>
       </c>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="74">
+      <c r="X17" s="67"/>
+      <c r="Y17" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AD17" s="8">
         <f>AD16+1</f>
         <v>2</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AG17" s="8" t="str">
         <f>VLOOKUP(AF17,$Q$13:$R$17,2,0)</f>
         <v>김기민</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI17" s="78">
+        <v>151</v>
+      </c>
+      <c r="AI17" s="73">
         <v>44590</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK17" s="79">
+        <v>182</v>
+      </c>
+      <c r="AK17" s="74">
         <v>36000</v>
       </c>
-      <c r="AL17" s="79">
+      <c r="AL17" s="74">
         <v>0</v>
       </c>
       <c r="AM17" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="6:39">
@@ -9913,16 +11520,16 @@
         <v>8800</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M18" s="31">
         <v>1</v>
@@ -9933,33 +11540,33 @@
         <v>3</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI18" s="78">
+        <v>152</v>
+      </c>
+      <c r="AI18" s="73">
         <f>AI17-2</f>
         <v>44588</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK18" s="79">
+        <v>178</v>
+      </c>
+      <c r="AK18" s="74">
         <v>48000</v>
       </c>
-      <c r="AL18" s="79">
+      <c r="AL18" s="74">
         <f>AK18+AL20</f>
         <v>116000</v>
       </c>
-      <c r="AM18" s="83" t="s">
-        <v>208</v>
+      <c r="AM18" s="78" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="6:39">
@@ -9974,16 +11581,16 @@
         <v>6700</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M19" s="34">
         <v>1</v>
@@ -9994,32 +11601,32 @@
         <v>4</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI19" s="78">
+        <v>151</v>
+      </c>
+      <c r="AI19" s="73">
         <f>AI18</f>
         <v>44588</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK19" s="79">
+        <v>91</v>
+      </c>
+      <c r="AK19" s="74">
         <v>9000</v>
       </c>
-      <c r="AL19" s="79">
+      <c r="AL19" s="74">
         <v>0</v>
       </c>
-      <c r="AM19" s="84" t="s">
-        <v>210</v>
+      <c r="AM19" s="79" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="6:39">
@@ -10034,16 +11641,16 @@
         <v>4000</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M20" s="28">
         <v>2</v>
@@ -10057,33 +11664,33 @@
         <v>5</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG20" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI20" s="78">
+        <v>152</v>
+      </c>
+      <c r="AI20" s="73">
         <f>AI19-2</f>
         <v>44586</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK20" s="79">
+        <v>185</v>
+      </c>
+      <c r="AK20" s="74">
         <v>36000</v>
       </c>
-      <c r="AL20" s="79">
+      <c r="AL20" s="74">
         <f>AK20+AL21</f>
         <v>68000</v>
       </c>
-      <c r="AM20" s="83" t="s">
-        <v>208</v>
+      <c r="AM20" s="78" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="6:39">
@@ -10098,16 +11705,16 @@
         <v>3000</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M21" s="31">
         <v>2</v>
@@ -10118,33 +11725,33 @@
         <v>6</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI21" s="78">
+        <v>152</v>
+      </c>
+      <c r="AI21" s="73">
         <f>AI20-2</f>
         <v>44584</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK21" s="79">
+        <v>187</v>
+      </c>
+      <c r="AK21" s="74">
         <v>32000</v>
       </c>
-      <c r="AL21" s="79">
+      <c r="AL21" s="74">
         <f>AK21</f>
         <v>32000</v>
       </c>
-      <c r="AM21" s="83" t="s">
-        <v>208</v>
+      <c r="AM21" s="78" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="6:39">
@@ -10159,16 +11766,16 @@
         <v>3200</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M22" s="34">
         <v>2</v>
@@ -10179,31 +11786,31 @@
         <v>7</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI22" s="80">
+        <v>152</v>
+      </c>
+      <c r="AI22" s="75">
         <v>44583</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK22" s="81">
+        <v>192</v>
+      </c>
+      <c r="AK22" s="76">
         <v>-500000</v>
       </c>
-      <c r="AL22" s="81">
+      <c r="AL22" s="76">
         <v>0</v>
       </c>
       <c r="AM22" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="6:39">
@@ -10216,7 +11823,7 @@
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
       <c r="N23" s="30"/>
-      <c r="AL23" s="82"/>
+      <c r="AL23" s="77"/>
       <c r="AM23" s="5"/>
     </row>
     <row r="24" spans="6:39">
@@ -10229,7 +11836,7 @@
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="30"/>
-      <c r="AL24" s="82"/>
+      <c r="AL24" s="77"/>
       <c r="AM24" s="5"/>
     </row>
     <row r="25" spans="6:39">
@@ -10246,7 +11853,7 @@
     </row>
     <row r="27" spans="6:39">
       <c r="AD27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="6:39">
@@ -10254,51 +11861,51 @@
         <v>0</v>
       </c>
       <c r="AE29" s="26" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF29" s="26" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG29" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH29" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI29" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ29" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK29" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="AH29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI29" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ29" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK29" s="26" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="30" spans="6:39">
       <c r="AD30" s="6">
         <v>1</v>
       </c>
-      <c r="AE30" s="76">
+      <c r="AE30" s="71">
         <v>44590</v>
       </c>
-      <c r="AF30" s="77">
+      <c r="AF30" s="72">
         <v>60000</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AJ30" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK30" s="89" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+      <c r="AK30" s="84" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="6:39">
@@ -10306,26 +11913,26 @@
         <f>AD30+1</f>
         <v>2</v>
       </c>
-      <c r="AE31" s="78">
+      <c r="AE31" s="73">
         <v>44590</v>
       </c>
-      <c r="AF31" s="79">
+      <c r="AF31" s="74">
         <v>36000</v>
       </c>
       <c r="AG31" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AH31" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AI31" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ31" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK31" s="90" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="AK31" s="85" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="6:39">
@@ -10333,27 +11940,27 @@
         <f t="shared" ref="AD32:AD35" si="4">AD31+1</f>
         <v>3</v>
       </c>
-      <c r="AE32" s="78">
+      <c r="AE32" s="73">
         <f>AE31-2</f>
         <v>44588</v>
       </c>
-      <c r="AF32" s="79">
+      <c r="AF32" s="74">
         <v>48000</v>
       </c>
       <c r="AG32" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AH32" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AI32" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ32" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK32" s="79" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="AK32" s="74" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="30:43">
@@ -10361,27 +11968,27 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AE33" s="78">
+      <c r="AE33" s="73">
         <f>AE32</f>
         <v>44588</v>
       </c>
-      <c r="AF33" s="79">
+      <c r="AF33" s="74">
         <v>9000</v>
       </c>
       <c r="AG33" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AH33" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AI33" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AJ33" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK33" s="79" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+      <c r="AK33" s="74" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="30:43">
@@ -10389,27 +11996,27 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE34" s="78">
+      <c r="AE34" s="73">
         <f>AE33-2</f>
         <v>44586</v>
       </c>
-      <c r="AF34" s="79">
+      <c r="AF34" s="74">
         <v>36000</v>
       </c>
       <c r="AG34" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AI34" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AJ34" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK34" s="79" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+      <c r="AK34" s="74" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="30:43">
@@ -10417,528 +12024,528 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AE35" s="87">
+      <c r="AE35" s="82">
         <f>AE34-2</f>
         <v>44584</v>
       </c>
-      <c r="AF35" s="88">
+      <c r="AF35" s="83">
         <v>32000</v>
       </c>
       <c r="AG35" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AH35" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AI35" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AJ35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK35" s="88" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+      <c r="AK35" s="83" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="30:43" ht="17.25" thickBot="1"/>
     <row r="41" spans="30:43">
-      <c r="AH41" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI41" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ41" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK41" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL41" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM41" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN41" s="92" t="s">
+      <c r="AH41" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI41" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ41" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK41" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL41" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM41" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN41" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO41" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP41" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ41" s="88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="30:43">
+      <c r="AH42" s="89">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="AO41" s="92" t="s">
+      <c r="AJ42" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK42" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL42" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="AP41" s="92" t="s">
+      <c r="AM42" s="91">
+        <v>44590</v>
+      </c>
+      <c r="AN42" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO42" s="92">
+        <v>60000</v>
+      </c>
+      <c r="AP42" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ42" s="94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="30:43">
+      <c r="AH43" s="89">
+        <v>2</v>
+      </c>
+      <c r="AI43" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ43" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK43" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL43" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM43" s="91">
+        <v>44590</v>
+      </c>
+      <c r="AN43" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO43" s="92">
+        <v>36000</v>
+      </c>
+      <c r="AP43" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ43" s="94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="30:43">
+      <c r="AH44" s="89">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ44" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK44" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="AQ41" s="93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="30:43">
-      <c r="AH42" s="94">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="95" t="s">
+      <c r="AL44" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM44" s="91">
+        <v>44588</v>
+      </c>
+      <c r="AN44" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO44" s="92">
+        <v>48000</v>
+      </c>
+      <c r="AP44" s="92">
+        <v>116000</v>
+      </c>
+      <c r="AQ44" s="95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="30:43" ht="28.5">
+      <c r="AH45" s="89">
+        <v>4</v>
+      </c>
+      <c r="AI45" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ45" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK45" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL45" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM45" s="91">
+        <v>44588</v>
+      </c>
+      <c r="AN45" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO45" s="92">
+        <v>9000</v>
+      </c>
+      <c r="AP45" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ45" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="AJ42" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK42" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL42" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM42" s="96">
-        <v>44590</v>
-      </c>
-      <c r="AN42" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO42" s="97">
-        <v>60000</v>
-      </c>
-      <c r="AP42" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ42" s="99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="30:43">
-      <c r="AH43" s="94">
-        <v>2</v>
-      </c>
-      <c r="AI43" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ43" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK43" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL43" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM43" s="96">
-        <v>44590</v>
-      </c>
-      <c r="AN43" s="95" t="s">
+    </row>
+    <row r="46" spans="30:43">
+      <c r="AH46" s="89">
+        <v>5</v>
+      </c>
+      <c r="AI46" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ46" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK46" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL46" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM46" s="91">
+        <v>44586</v>
+      </c>
+      <c r="AN46" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO46" s="92">
+        <v>36000</v>
+      </c>
+      <c r="AP46" s="92">
+        <v>68000</v>
+      </c>
+      <c r="AQ46" s="95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="30:43">
+      <c r="AH47" s="89">
+        <v>6</v>
+      </c>
+      <c r="AI47" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ47" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK47" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL47" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM47" s="91">
+        <v>44584</v>
+      </c>
+      <c r="AN47" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO47" s="92">
+        <v>32000</v>
+      </c>
+      <c r="AP47" s="92">
+        <v>32000</v>
+      </c>
+      <c r="AQ47" s="95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="30:43" ht="29.25" thickBot="1">
+      <c r="AH48" s="96">
+        <v>7</v>
+      </c>
+      <c r="AI48" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="AO43" s="97">
-        <v>36000</v>
-      </c>
-      <c r="AP43" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ43" s="99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="30:43">
-      <c r="AH44" s="94">
-        <v>3</v>
-      </c>
-      <c r="AI44" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ44" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK44" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL44" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM44" s="96">
-        <v>44588</v>
-      </c>
-      <c r="AN44" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO44" s="97">
-        <v>48000</v>
-      </c>
-      <c r="AP44" s="97">
-        <v>116000</v>
-      </c>
-      <c r="AQ44" s="100" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="30:43" ht="28.5">
-      <c r="AH45" s="94">
-        <v>4</v>
-      </c>
-      <c r="AI45" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ45" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK45" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL45" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM45" s="96">
-        <v>44588</v>
-      </c>
-      <c r="AN45" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO45" s="97">
-        <v>9000</v>
-      </c>
-      <c r="AP45" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ45" s="99" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="30:43" ht="28.5">
-      <c r="AH46" s="94">
-        <v>5</v>
-      </c>
-      <c r="AI46" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ46" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK46" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL46" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM46" s="96">
-        <v>44586</v>
-      </c>
-      <c r="AN46" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO46" s="97">
-        <v>36000</v>
-      </c>
-      <c r="AP46" s="97">
-        <v>68000</v>
-      </c>
-      <c r="AQ46" s="100" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="30:43">
-      <c r="AH47" s="94">
-        <v>6</v>
-      </c>
-      <c r="AI47" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ47" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK47" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL47" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM47" s="96">
-        <v>44584</v>
-      </c>
-      <c r="AN47" s="95" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO47" s="97">
-        <v>32000</v>
-      </c>
-      <c r="AP47" s="97">
-        <v>32000</v>
-      </c>
-      <c r="AQ47" s="100" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="30:43" ht="29.25" thickBot="1">
-      <c r="AH48" s="101">
-        <v>7</v>
-      </c>
-      <c r="AI48" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ48" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK48" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL48" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM48" s="103">
+      <c r="AJ48" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK48" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL48" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM48" s="98">
         <v>44583</v>
       </c>
-      <c r="AN48" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO48" s="104">
+      <c r="AN48" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO48" s="99">
         <v>-500000</v>
       </c>
-      <c r="AP48" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ48" s="106" t="s">
-        <v>205</v>
+      <c r="AP48" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ48" s="101" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="45:51" ht="17.25" thickBot="1"/>
     <row r="50" spans="45:51">
-      <c r="AS50" s="91" t="s">
+      <c r="AS50" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT50" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU50" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV50" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW50" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="AX50" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY50" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="AT50" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU50" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV50" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW50" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX50" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY50" s="108" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="51" spans="45:51">
-      <c r="AS51" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="AT51" s="114"/>
-      <c r="AU51" s="114"/>
-      <c r="AV51" s="115"/>
-      <c r="AW51" s="119">
+      <c r="AS51" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT51" s="118"/>
+      <c r="AU51" s="118"/>
+      <c r="AV51" s="119"/>
+      <c r="AW51" s="111">
         <f>SUM(AW52:AW59)</f>
         <v>128000</v>
       </c>
-      <c r="AX51" s="117" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY51" s="118" t="s">
-        <v>208</v>
+      <c r="AX51" s="109" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY51" s="110" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="45:51">
-      <c r="AS52" s="94">
+      <c r="AS52" s="89">
         <v>1</v>
       </c>
-      <c r="AT52" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU52" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV52" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW52" s="113">
+      <c r="AT52" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU52" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV52" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW52" s="108">
         <v>1000</v>
       </c>
-      <c r="AX52" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY52" s="107" t="s">
-        <v>220</v>
+      <c r="AX52" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY52" s="102" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="45:51">
-      <c r="AS53" s="94">
+      <c r="AS53" s="89">
         <v>2</v>
       </c>
-      <c r="AT53" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU53" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV53" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW53" s="113">
+      <c r="AT53" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU53" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV53" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW53" s="108">
         <v>30000</v>
       </c>
-      <c r="AX53" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY53" s="109" t="s">
-        <v>243</v>
+      <c r="AX53" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY53" s="104" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="45:51">
-      <c r="AS54" s="94">
+      <c r="AS54" s="89">
         <f>AS53+1</f>
         <v>3</v>
       </c>
-      <c r="AT54" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="AU54" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV54" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW54" s="113">
+      <c r="AT54" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU54" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV54" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW54" s="108">
         <v>10000</v>
       </c>
-      <c r="AX54" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY54" s="109" t="s">
-        <v>244</v>
+      <c r="AX54" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY54" s="104" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="45:51">
-      <c r="AS55" s="94">
+      <c r="AS55" s="89">
         <f t="shared" ref="AS55:AS59" si="5">AS54+1</f>
         <v>4</v>
       </c>
-      <c r="AT55" s="110" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU55" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV55" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW55" s="113">
+      <c r="AT55" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU55" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV55" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW55" s="108">
         <v>20000</v>
       </c>
-      <c r="AX55" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY55" s="110" t="s">
-        <v>245</v>
+      <c r="AX55" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY55" s="105" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="45:51">
-      <c r="AS56" s="94">
+      <c r="AS56" s="89">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AT56" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="AU56" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV56" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW56" s="113">
+      <c r="AT56" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU56" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV56" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW56" s="108">
         <v>70000</v>
       </c>
-      <c r="AX56" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="AY56" s="110" t="s">
-        <v>247</v>
+      <c r="AX56" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="AY56" s="105" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="45:51">
-      <c r="AS57" s="94">
+      <c r="AS57" s="89">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AT57" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU57" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV57" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW57" s="113">
+      <c r="AT57" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU57" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV57" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW57" s="108">
         <v>-500</v>
       </c>
-      <c r="AX57" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY57" s="107" t="s">
+      <c r="AX57" s="102" t="s">
         <v>229</v>
       </c>
+      <c r="AY57" s="102" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="58" spans="45:51">
-      <c r="AS58" s="94">
+      <c r="AS58" s="89">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="AT58" s="109" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU58" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV58" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW58" s="113">
+      <c r="AT58" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU58" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV58" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW58" s="108">
         <v>-2000</v>
       </c>
-      <c r="AX58" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY58" s="107" t="s">
-        <v>241</v>
+      <c r="AX58" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY58" s="102" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="45:51">
-      <c r="AS59" s="94">
+      <c r="AS59" s="89">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="AT59" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU59" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV59" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW59" s="113">
+      <c r="AT59" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU59" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV59" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW59" s="108">
         <v>-500</v>
       </c>
-      <c r="AX59" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY59" s="109" t="s">
-        <v>242</v>
+      <c r="AX59" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY59" s="104" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="45:51" ht="17.25" thickBot="1">
-      <c r="AS60" s="101">
+      <c r="AS60" s="96">
         <v>7</v>
       </c>
-      <c r="AT60" s="102"/>
-      <c r="AU60" s="102"/>
-      <c r="AV60" s="103"/>
-      <c r="AW60" s="103"/>
-      <c r="AX60" s="102"/>
-      <c r="AY60" s="102"/>
+      <c r="AT60" s="97"/>
+      <c r="AU60" s="97"/>
+      <c r="AV60" s="98"/>
+      <c r="AW60" s="98"/>
+      <c r="AX60" s="97"/>
+      <c r="AY60" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10969,13 +12576,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="89.45" customHeight="1">
@@ -10983,13 +12590,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="87" customHeight="1">
@@ -10998,13 +12605,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11102,8 +12709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB0CF05-2F40-4BA0-A62D-523A7811640F}">
   <dimension ref="D3:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="OO23" sqref="OO23"/>
+    <sheetView showGridLines="0" topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="S16" sqref="S11:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11111,26 +12718,27 @@
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="11" width="4" style="5" customWidth="1"/>
     <col min="12" max="12" width="3.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.375" customWidth="1"/>
     <col min="21" max="23" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:23" ht="17.25">
-      <c r="D3" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="D3" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="4:23" ht="12" customHeight="1"/>
     <row r="5" spans="4:23" ht="19.5" customHeight="1">
-      <c r="D5" s="73" t="s">
-        <v>88</v>
+      <c r="D5" s="122" t="s">
+        <v>78</v>
       </c>
       <c r="E5" s="38">
         <v>31</v>
@@ -11157,12 +12765,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L5" s="72" t="s">
-        <v>89</v>
+      <c r="L5" s="121" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="4:23" ht="19.5" customHeight="1">
-      <c r="D6" s="73"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="38">
         <f>K5+1</f>
         <v>7</v>
@@ -11191,19 +12799,19 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L6" s="72"/>
+      <c r="L6" s="121"/>
       <c r="P6" s="40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="41" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="4:23" ht="19.5" customHeight="1">
-      <c r="D7" s="73"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="38">
         <f>K6+1</f>
         <v>14</v>
@@ -11232,19 +12840,19 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L7" s="72"/>
+      <c r="L7" s="121"/>
       <c r="P7" s="43" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="4:23" ht="19.5" customHeight="1">
-      <c r="D8" s="73"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="38">
         <f>K7+1</f>
         <v>21</v>
@@ -11273,19 +12881,19 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L8" s="72"/>
+      <c r="L8" s="121"/>
       <c r="P8" s="45" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R8" s="47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="4:23" ht="19.5" customHeight="1">
-      <c r="D9" s="73"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="38">
         <f>K8+1</f>
         <v>28</v>
@@ -11311,98 +12919,112 @@
       <c r="K9" s="38">
         <v>3</v>
       </c>
-      <c r="L9" s="72"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="4:23" ht="19.5" customHeight="1"/>
-    <row r="13" spans="4:23" ht="25.5" customHeight="1"/>
+    <row r="11" spans="4:23" ht="132">
+      <c r="M11" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="S11" s="77"/>
+    </row>
+    <row r="12" spans="4:23">
+      <c r="S12" s="77"/>
+    </row>
+    <row r="13" spans="4:23" ht="25.5" customHeight="1">
+      <c r="S13" s="77"/>
+    </row>
     <row r="14" spans="4:23" ht="24.75" customHeight="1">
+      <c r="S14" s="77"/>
       <c r="U14" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23" ht="24.75" customHeight="1">
+      <c r="S15" s="77"/>
+      <c r="U15" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="V15" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" ht="24.75" customHeight="1">
+      <c r="S16" s="77"/>
+      <c r="U16" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="V16" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="W16" s="58" t="s">
         <v>100</v>
-      </c>
-      <c r="V14" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="W14" s="50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="4:23" ht="24.75" customHeight="1">
-      <c r="U15" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="V15" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="W15" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="4:23" ht="24.75" customHeight="1">
-      <c r="U16" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="V16" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="W16" s="58" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="21:25" ht="24.75" customHeight="1">
       <c r="U17" s="53" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="V17" s="54" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W17" s="55" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Y17" s="56"/>
     </row>
     <row r="18" spans="21:25" ht="25.5" customHeight="1"/>
     <row r="19" spans="21:25" ht="24.75" customHeight="1">
       <c r="U19" s="61" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="W19" s="50" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="21:25" ht="24.75" customHeight="1">
       <c r="U20" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="V20" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="V20" s="59" t="s">
-        <v>113</v>
-      </c>
       <c r="W20" s="52" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="21:25" ht="24.75" customHeight="1">
       <c r="U21" s="57" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="V21" s="60" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="W21" s="58" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="21:25" ht="24.75" customHeight="1">
       <c r="U22" s="53" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="V22" s="54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="W22" s="55" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Y22" s="56"/>
     </row>
@@ -11557,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -11594,7 +13216,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11631,7 +13253,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -11668,7 +13290,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -11705,7 +13327,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -11742,7 +13364,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1BDB7F-F765-40BF-AB4C-09182A873386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA30087-EA8A-43E6-B669-1E3CDD74A656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{EE89A7C7-2966-48DD-AB9D-130737E75C42}"/>
   </bookViews>
   <sheets>
     <sheet name="toc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="날씨어플" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="275">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,30 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>휴지통, 그냥, 완성에 각각 분류가 잘 됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프가 잘 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자리 잘 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래그로 자리이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+,- 버튼 잘 작동하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자바스크립트의 역사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,6 +1091,74 @@
   </si>
   <si>
     <t>지출입력 seller컴포넌트분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자소서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면접대비질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어스토어?연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프한개라도 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기/비동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객지지향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자판기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어진 음료수 사이즈 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전은 동전쪽으로, 지폐는 지폐쪽으로, 카드는 카드쪽으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지폐투입구 모양 고치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 없애고 금액 부분을 버튼으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자판기에 필요한 로직 정리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 다 삭제, 고정크기로.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2745,11 +2788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F662DC-0EEC-4621-A515-BF47FBB7871B}">
   <dimension ref="A1:BN141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ1" sqref="AQ1"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6944,7 +6987,7 @@
         <v>227</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
@@ -7008,7 +7051,7 @@
         <v>42</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -7072,7 +7115,7 @@
         <v>224</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -11017,47 +11060,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F0D1F1-878D-41CB-B60B-C3F05C9EDCFB}">
-  <dimension ref="D3:K7"/>
+  <dimension ref="D3:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="5" max="5" width="1.125" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:11">
       <c r="D3" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="4:11">
       <c r="E4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="4:11">
       <c r="E5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="K6" t="s">
-        <v>259</v>
+      <c r="E6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="4:11">
-      <c r="K7" s="115" t="s">
-        <v>260</v>
+      <c r="E7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="115"/>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="F8" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="F9" s="114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="F10" s="114" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="F11" s="114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="F13" s="114" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11">
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11">
+      <c r="E16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="E17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" s="114" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
